--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
-  <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AED19E-A9DF-AB44-8D5E-387F7E218F42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC06DF-494C-3E4D-BFA8-5816FF1BE486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-20" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="223">
   <si>
     <t>序号</t>
   </si>
@@ -53,94 +48,94 @@
   </si>
   <si>
     <t>实验1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实验2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实验3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实验4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实验5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大作业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总结</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>优秀实验报告推荐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对雷同实验的处理可以申辩，但仅限于误伤，不包括抄袭或提供抄袭的。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冯秋翼</t>
   </si>
   <si>
     <t>竞赛加分：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -212,11 +207,11 @@
       </rPr>
       <t>学生记分册</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>得分标准：A++:优秀示范实验报告，105分；A+:95分；A:90;B+:85分；B:80分;C+:75分；C:70分；D：60分；E:不及格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陈彬耀</t>
@@ -435,12 +430,6 @@
     <t>王开元</t>
   </si>
   <si>
-    <t>71Y17108</t>
-  </si>
-  <si>
-    <t>何颖智</t>
-  </si>
-  <si>
     <t>71Y17109</t>
   </si>
   <si>
@@ -520,7 +509,7 @@
   </si>
   <si>
     <t>注意：授课老师和2个助教研究生各批改1/3报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.流程图：绝大部分同学做得很好，把握了一个入口一个出口的细节，流程图符号使用也是标准的，但要注意不能把流程图和程序流图混淆，二者对控制流的刻画力度和使用符号都有差异。
@@ -529,11 +518,389 @@
 4.MC/DC覆盖一样要根据程序语言考虑是否有逻辑短路，特别不要忽略第2，3个条件也可能逻辑短路；
 5.执行路径数要从流程图来具体分析，大多数同学都理解这点，老师分析的结果是56；
 6.测试循环，可考虑循环不执行、执行N次、循环结束等情况；对循环的测试不考虑其所包含的语句。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流程图规范、标注清晰；条件覆盖中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>中的条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>短路，注意这种逻辑短路细节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；循环的测试准确；路径的分析思路清晰。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>语句覆盖和判定覆盖应分开；小程序的思路清晰；测试循环只需要关注循环本身，不用考虑内部的条件和判断；按照给定的约束，分析出来的路径数多了，请再检查；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC/DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>覆盖中，同样要注意条件的逻辑短路。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流程图中的第一个判定和程序不对应；一条测试用例无法覆盖全部语句；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一定要注意条件覆盖中的逻辑短路，没有被触发执行的条件不应有取值！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试循环只需要关注循环本身，不用考虑内部的条件和判断；可能的路径应远多于12条。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流程图清晰；实验一不需要程序流图，给出的也不是流图；逻辑短路验证程序思路清晰；条件覆盖中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b d e f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等具体指那个条件？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环测试做得很好；可能路径应多于32条；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行条件覆盖测试时，在判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短路，其他情况类似，要注意这点！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径分析思路清晰；MC/DC覆盖中，同样要注意条件的逻辑短路。实验体会丰富和深刻。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别注意，程序流程图只能有一个入口一个出口。涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。程序中有循环，要求对循环进行测试；完善流程图后，再仔细分析路径数。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图清晰；判定中每个条件的取值在条件覆盖中应具体体现出来。在MC/DC中能考虑短路，很好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在涉及条件的测试中，判定c e p v中每个条件的取值应明确给出来。可能的路径远不止12条，你再仔细分析一下。MC/DC覆盖中同样要考虑条件的逻辑短路。对实验相关的知识点掌握得不错，实验报告可以做得更好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图很清晰；判定覆盖应指出每个判定的取值；可能的路径是不是简单的2^n，而是要根据流程图来具体分析；在对循环的测试中，可以控制循环次数，让循环执行少数次，观察循环的工作是否正常；对于n-1和n，即循环快结束时测试时应注意观察；确实大多数情况是没有办法通过输入来测试n+1的情况，一般是通过插桩来改写循环变量来实现这种测试。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。测试循环只需要关注循环本身，不用考虑内部的条件和判断；实验报告能做的更好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑短路的验证程序逻辑不够清晰；涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。循环的测试参考课件和实验点评要点。MC/DC同样要考虑逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中的线段不应交叉；使用了junit和eclemma等测试框架，非常好！验证逻辑短路的程序很巧妙！注意，判定2中，a取F，则b短路，不应该有取值；这里的路径是流程图的路径，不是流图的路径，请在流程图上再根据我们约定的条件进行分析。实验报告很用心！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定2中，a取F，则b短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试只关注循环本身，不考虑内部的具体语句 条件 判定。MC/DC中要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括多个条件的判定3中，条件a取F，则条件b短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试只关注循环本身，不考虑内部的具体语句 条件 判定。MC/DC中要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件覆盖时，各个判定中的条件取值应明确给出来；路径分析时，意识到不可达路径，很好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图不应有交叉；判定2中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序有多个return，一条测试用例不可能覆盖所有语句；关于条件的覆盖中，要注意没有被触发的条件不应有取值；路径应该比列出的要多得多，请结合流程图和约定条件仔细分析；MC/DC中同样要注意逻辑短路。测试代码编写可阅读课程的Junit课件。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序有多个return，一条测试用例不可能覆盖所有语句；实验一不涉及基本路径测试；能在各种测试中注意逻辑短路，很好！路径条数再仔细分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；逻辑短路验证程序巧妙；判定3中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定2中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；逻辑短路验证程序巧妙；涉及条件的测试中应给出条件的取值，特别要注意逻辑短路；MC/DC中一样要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常棒的实验报告。思路清晰，对知识点掌握全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,6 +921,8 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -572,6 +941,8 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>a</t>
     </r>
@@ -590,6 +961,8 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>F</t>
     </r>
@@ -608,6 +981,8 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>b</t>
     </r>
@@ -632,369 +1007,247 @@
       </rPr>
       <t>；循环的测试指测试循环是否正常工作，不用考虑循环体包含的代码；</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流程图规范、标注清晰；条件覆盖中，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>判定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>中的条件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>短路，注意这种逻辑短路细节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；循环的测试准确；路径的分析思路清晰。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>语句覆盖和判定覆盖应分开；小程序的思路清晰；测试循环只需要关注循环本身，不用考虑内部的条件和判断；按照给定的约束，分析出来的路径数多了，请再检查；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>MC/DC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>覆盖中，同样要注意条件的逻辑短路。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流程图中的第一个判定和程序不对应；一条测试用例无法覆盖全部语句；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一定要注意条件覆盖中的逻辑短路，没有被触发执行的条件不应有取值！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>测试循环只需要关注循环本身，不用考虑内部的条件和判断；可能的路径应远多于12条。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流程图清晰；实验一不需要程序流图，给出的也不是流图；逻辑短路验证程序思路清晰；条件覆盖中，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>b d e f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等具体指那个条件？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>循环测试做得很好；可能路径应多于32条；</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行条件覆盖测试时，在判定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>短路，其他情况类似，要注意这点！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路径分析思路清晰；MC/DC覆盖中，同样要注意条件的逻辑短路。实验体会丰富和深刻。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别注意，程序流程图只能有一个入口一个出口。涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。程序中有循环，要求对循环进行测试；完善流程图后，再仔细分析路径数。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰，结束一般在最下面；一条测试用例不可能覆盖所有语句。逻辑短路验证程序的分析很详细；循环验证全面；分析路径条数，要体现分析的过程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；逻辑短路验证程序的分析还需要再充分一点。注意（4）中，条件1取F，则条件2短路，不应该有取值；循环验证较为合理。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号清晰，程序流程图美观；小程序设计可以简洁一点；测试循环只需要关注循环本身，不用考虑内部的条件和判断；实验体会深刻，能够发现问题，有自己的理解，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序流程图清晰；判定中每个条件的取值在条件覆盖中应具体体现出来。在MC/DC中能考虑短路，很好！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在涉及条件的测试中，判定c e p v中每个条件的取值应明确给出来。可能的路径远不止12条，你再仔细分析一下。MC/DC覆盖中同样要考虑条件的逻辑短路。对实验相关的知识点掌握得不错，实验报告可以做得更好！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图很清晰；判定覆盖应指出每个判定的取值；可能的路径是不是简单的2^n，而是要根据流程图来具体分析；在对循环的测试中，可以控制循环次数，让循环执行少数次，观察循环的工作是否正常；对于n-1和n，即循环快结束时测试时应注意观察；确实大多数情况是没有办法通过输入来测试n+1的情况，一般是通过插桩来改写循环变量来实现这种测试。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。测试循环只需要关注循环本身，不用考虑内部的条件和判断；实验报告能做的更好。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑短路的验证程序逻辑不够清晰；涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值。循环的测试参考课件和实验点评要点。MC/DC同样要考虑逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图中的线段不应交叉；使用了junit和eclemma等测试框架，非常好！验证逻辑短路的程序很巧妙！注意，判定2中，a取F，则b短路，不应该有取值；这里的路径是流程图的路径，不是流图的路径，请在流程图上再根据我们约定的条件进行分析。实验报告很用心！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定2中，a取F，则b短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试只关注循环本身，不考虑内部的具体语句 条件 判定。MC/DC中要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括多个条件的判定3中，条件a取F，则条件b短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试只关注循环本身，不考虑内部的具体语句 条件 判定。MC/DC中要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件覆盖时，各个判定中的条件取值应明确给出来；路径分析时，意识到不可达路径，很好！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图不应有交叉；判定2中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序设计巧妙；循环测试关注循环本身是否正常工作即可；MC/DC中测试的数据是什么？实验报告内容清晰详实。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图不要只有编号；小程序对于逻辑短路说明的很详细，理解很深刻；循序测试较为充分；是否包含不可达路径，再仔细分析一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告尽量转成pdf，题目内容要补上；要说明小程序如何体现逻辑短路；注意条件覆盖中的逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告尽量转成pdf，题目内容要补上；缺少验证逻辑短路的程序和循环测试；注意条件覆盖中的逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意实验报告的规范与美观；缺少验证逻辑短路的解答及对循环的测试；语句覆盖，条件覆盖等测试用例不充分。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；实验报告不够美观；要求6中的路径条数需要依据流程图进行深入分析计算。MC/DC覆盖要把条件对判定的独立影响明确给出来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意实验报告的规范与美观；流程图中的线段不应交叉；程序有多个return，一条测试用例不可能覆盖所有语句；小程序设计的巧妙；注意条件覆盖中的逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中的线段不应交叉，编号对应的语句没有体现出来。实验测试样例设计思路清晰；实验思考深入；实验思路清晰，报告格式规范。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中的线段不应交叉，编号对应的语句没有体现出来；小程序的结果很详实；对路径条数展示了自己的分析过程，很好，结果再验证一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意一下报告的排版，流程图未能完整显示；测试用例较为充分；要注意条件覆盖中的逻辑短路，没有被触发执行的条件不应有取值。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；小程序对逻辑短路的说明不够充分；测试循环只需要关注循环本身，不用考虑内部的条件和判断。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于看到了第一份完全理解课堂内容的实验报告!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰,流程图中的线段不应交叉;程序有多个return，，一条测试用例不可能覆盖所有语句；测试用例较为丰富。应该自己写一个简短的小程序来说明逻辑短路现象。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图较为美观；小程序设计的巧妙，并且进行了很详尽的分析与结果展示；对路径数的分析深入透彻，有自己的理解，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰美观；测试用例丰富全面；可以自己写个程序加强对逻辑短路的理解；循环测试的用例不够充分；条件短路的分析可以深入一些，答案再思考一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少问题（3）的小程序；实验结果的展示不够清晰美观；要注意条件覆盖中的逻辑短路，没有被触发执行的条件不应有取值；问题的分析一定要详实，体现思考的过程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中的线段不应交叉；要注意条件覆盖中的逻辑短路；MC/DC中一样要注意逻辑短路；可以自己写个程序加强对逻辑短路的理解；循环的测试参考课件和实验点评要点。实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图美观，清晰；对自己写的验证程序进行了深入的分析；注意到了条件覆盖中的逻辑短路；测试循环只需要关注循环本身，不用考虑内部的条件和判断。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中的线段不应交叉;验证程序没有很好的体现逻辑短路；要注意条件覆盖中的逻辑短路；对于路径条数的分析需要把分析过程展现出来，结果还需再思考；MC/DC中一样要注意逻辑短路；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图美观，清晰；测试结果的展示使用不同的颜色标记，很直观；循环的测试用例丰富；对路径的分析很认真，写出了每条路径，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图简洁，直观；老师分析的可能路径数是56，和你的结果有差异，请再验证一下；实验测试思路较为清晰；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰；报告的排版需要注意一下。验证程序设计的巧妙。测试用例的设计需要注意好格式问题，确保可以全部展示在文档中。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑的情况比较全面，路径数量有考虑到可能路径下的不可达路径，实验报告整体做得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中包含多个return，无法用一个测试用例覆盖所有语句;整个实验报告做得很好，考虑得非常仔细，对于路径数量可以给出相应的可能存在路径与不可达路径的分析思考过程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及条件的覆盖中，要明确指出测试用例所触发的条件的取值;在循环测试中可给出用例进行分析；可深入分析可能路径数量中的不可达路径。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序的设计思路分析的很深入，各覆盖情况考虑得非常详细，可能存在的路径考虑的情况比真实情况少，可深入分析具体情况并思考其中不可达路径的情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图绘制得很好，不过最好在流程图中给出相应代码语句的编号，实验报告排版很好，思路清晰，写的很认真，路径数量可以再仔细分析一下是否存在不可达情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图绘制得很清晰，可以在流程图中标好对应的代码编号，各种覆盖的情况思考的很仔细，很好，路径数量可以再仔细考虑一下，分析其中的不可达情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图绘制的很好，清晰美观。注意判定条件中的逻辑短路情况，有些条件不应该有值。路径数量不仅仅只有9条，可以再仔细分析可能存在的路径及其不可达路径。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图规范清晰，整个过程中思考很仔细，路径分析有考虑到不可达路径，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能的路径数量与老师的分析结果有差别，请仔细验证一下；测试思路较为清晰；报告中排版布局美观、大方；实验思考深入；优秀的实验报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>题2语句覆盖不够全面，语句覆盖与判定覆盖要分开，题3关于条件短路部分应该给予相应的分析和讨论；题5可以从多个角度进行分析；题6若考虑循环内部则可能路径也不一样，对于可能路径应加入相应的分析，在报告排版上可以进一步改进。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图清晰；对于可能路径数可给出更加详细的分析和讨论，题目解答尽量用表格绘制方便理解，题4未做解答。解题思路比较清晰，有些地方可以深入理解。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图可以更加详细，下文中的pdi可在标注出来以增加可读性。题3可针对各情况给出相应的分析。条件覆盖，判定条件覆盖应详细给出相应条件的取值，路径数量与真实数量有所差别，可以深入进行分析，实验报告还可以做得更好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图尽量不要有间隔，可以进一步改善。题(4)中的覆盖条件可更加明确以增加可读性。在各种测试中注意逻辑短路，思路清晰，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图不应有交叉，知识点掌握得比较全面，分析深入，考虑了逻辑短路的问题，很好。路径数量中的不可达路径可再深入分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句覆盖与判定覆盖要分开，且程序中有多个return，无法用一个测试用例覆盖所有的语句。之后各种覆盖的情况考虑的很仔细，在路径分析时意识到不可达路径，路径还可以再仔细分析一下，整体很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图规范清晰，整个过程中思考很仔细，路径分析有考虑到不可达路径，很好，不过可以再给出相应的分析思考。在题10中case3FTT不可能出现。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图不能有交叉，思路很清晰，对知识点掌握得很好，实验报告做得很用心。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图规范，标注清晰；各个覆盖的情况考虑的很全面，对于路径数量可以再进一步分析其中的不可达路径的情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中有多个return语句，语句覆盖可考虑更多的情况；程序流程图清晰；判定中每个条件的取值在条件覆盖中具体体现出来，很好。路径数量及其不可达路径可给出相应的分析思考过程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰规范，实验报告做的很仔细，可能路径数量比真实数量少，可继续深入分析，有考虑到不可达路径的情况，很好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中不能相交，实验做得非常用心，各种情况考虑的很全面，很好！路径数量再仔细分析考虑一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中包含多个return，无法用一个测试用例覆盖所有语句，语句覆盖与条件覆盖要分开；覆盖的情况分析的很仔细，路径数量可以再仔细分析思考，可能并不是简单的2的n次方。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量把所有的表格信息都放在一个文件里面以方便批改；程序中包含多个return，无法用一个测试用例覆盖所有语句，语句覆盖与条件覆盖要分开；整体思路非常清晰，考虑的情况很全面，路径条数再仔细分析，可能的路径并不是简单的2的n次方。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图无入口、出口，并应清晰地标注出个编号对应代码语句；在覆盖中有考虑分析逻辑短路的情况，很好。可能路径数量有所偏差，可进一步深入分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>终于看到了第一份完全理解课堂内容的实验报告！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序有多个return，一条测试用例不可能覆盖所有语句；关于条件的覆盖中，要注意没有被触发的条件不应有取值；路径应该比列出的要多得多，请结合流程图和约定条件仔细分析；MC/DC中同样要注意逻辑短路。测试代码编写可阅读课程的Junit课件。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序有多个return，一条测试用例不可能覆盖所有语句；实验一不涉及基本路径测试；能在各种测试中注意逻辑短路，很好！路径条数再仔细分析。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图清晰；逻辑短路验证程序巧妙；判定3中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定2中，条件1取F，则条件2短路，不应该有取值，类似的短路在条件覆盖中要注意。循环测试参考课件；MC/DC覆盖中同样要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图清晰；逻辑短路验证程序巧妙；涉及条件的测试中应给出条件的取值，特别要注意逻辑短路；MC/DC中一样要注意逻辑短路。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常棒的实验报告。思路清晰，对知识点掌握全面。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71Y17108</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得非常好。思路清晰，对知识点掌握全面，排版整洁美观，分析深入。MC/DC覆盖时同样要注意逻辑短路。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>何颖智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1004,12 +1257,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1234,12 +1495,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1280,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1550,578 +1827,589 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,37 +2418,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2168,21 +2456,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2194,10 +2479,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2206,16 +2491,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,121 +2509,133 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2353,57 +2650,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -3267,8 +3567,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3277,8 +3577,8 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="33" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
@@ -3293,72 +3593,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="83" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="83" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="83" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="30"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
@@ -3386,19 +3686,19 @@
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3443,28 +3743,28 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A4" s="78">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="77">
         <v>17219222</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="67"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="66"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -3478,33 +3778,33 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A5" s="78">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A5" s="77">
         <v>2</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="77">
         <v>71117101</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>137</v>
+      <c r="E5" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="38"/>
+        <v>162</v>
+      </c>
+      <c r="G5" s="37"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="64"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="19"/>
@@ -3519,32 +3819,32 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A6" s="78">
+      <c r="A6" s="77">
         <v>3</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="77">
         <v>71117103</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>137</v>
+      <c r="E6" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="64"/>
+        <v>136</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="63"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="19"/>
@@ -3558,33 +3858,33 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A7" s="78">
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A7" s="77">
         <v>4</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="77">
         <v>71117104</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="64"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="19"/>
@@ -3599,32 +3899,32 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A8" s="78">
+      <c r="A8" s="77">
         <v>5</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <v>71117105</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>146</v>
+      <c r="E8" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="66"/>
+        <v>138</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="19"/>
@@ -3639,32 +3939,32 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>6</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="77">
         <v>71117106</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>137</v>
+      <c r="E9" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="67"/>
+        <v>139</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="19"/>
@@ -3679,36 +3979,36 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>7</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="77">
         <v>71117107</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="64"/>
+      <c r="E10" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="74"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -3719,32 +4019,32 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>8</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>71117108</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>145</v>
+      <c r="E11" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="67"/>
+        <v>141</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="19"/>
@@ -3758,33 +4058,33 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A12" s="78">
+    <row r="12" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A12" s="77">
         <v>9</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="77">
         <v>71117111</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="35"/>
+      <c r="E12" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="68"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="19"/>
@@ -3799,32 +4099,32 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A13" s="78">
+      <c r="A13" s="77">
         <v>10</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="77">
         <v>71117112</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>146</v>
+      <c r="E13" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="G13" s="34"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="67"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="19"/>
@@ -3839,28 +4139,28 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>11</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="77">
         <v>71117113</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="64"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="19"/>
@@ -3874,33 +4174,33 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="120">
-      <c r="A15" s="78">
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="105">
+      <c r="A15" s="77">
         <v>12</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="77">
         <v>71117114</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="63"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="19"/>
@@ -3914,33 +4214,33 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A16" s="78">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A16" s="77">
         <v>13</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <v>71117115</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>137</v>
+      <c r="E16" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="67"/>
+        <v>147</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="19"/>
@@ -3955,32 +4255,32 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>14</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <v>71117116</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>145</v>
+      <c r="E17" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="67"/>
+        <v>148</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="19"/>
@@ -3994,33 +4294,33 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A18" s="78">
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A18" s="77">
         <v>15</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="77">
         <v>71117118</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>137</v>
+      <c r="E18" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="G18" s="34"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="67"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="19"/>
@@ -4035,32 +4335,32 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A19" s="78">
+      <c r="A19" s="77">
         <v>16</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="77">
         <v>71117119</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>137</v>
+      <c r="E19" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="67"/>
+        <v>150</v>
+      </c>
+      <c r="G19" s="71"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="66"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="19"/>
@@ -4074,33 +4374,33 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A20" s="78">
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A20" s="77">
         <v>17</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="77">
         <v>71117120</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>137</v>
+      <c r="E20" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="35"/>
+        <v>151</v>
+      </c>
+      <c r="G20" s="34"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="67"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="66"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="19"/>
@@ -4115,32 +4415,32 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>18</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="77">
         <v>71117121</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>146</v>
+      <c r="E21" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="67"/>
+        <v>152</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="66"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="19"/>
@@ -4155,32 +4455,32 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>19</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="77">
         <v>71117122</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>157</v>
+      <c r="E22" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="67"/>
+        <v>153</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="66"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="19"/>
@@ -4194,33 +4494,33 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A23" s="78">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="16">
+      <c r="A23" s="77">
         <v>20</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <v>71117123</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="67"/>
+      <c r="E23" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="19"/>
@@ -4234,33 +4534,33 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A24" s="78">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A24" s="77">
         <v>21</v>
       </c>
-      <c r="B24" s="78">
+      <c r="B24" s="77">
         <v>71117124</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="67"/>
+      <c r="E24" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="66"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="19"/>
@@ -4274,33 +4574,33 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A25" s="78">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A25" s="77">
         <v>22</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="77">
         <v>71117125</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>137</v>
+      <c r="E25" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="67"/>
+        <v>157</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="19"/>
@@ -4315,32 +4615,32 @@
       <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A26" s="78">
+      <c r="A26" s="77">
         <v>23</v>
       </c>
-      <c r="B26" s="78">
+      <c r="B26" s="77">
         <v>71117128</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>146</v>
+      <c r="E26" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="67"/>
+        <v>158</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="66"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19"/>
@@ -4355,32 +4655,32 @@
       <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A27" s="78">
+      <c r="A27" s="77">
         <v>24</v>
       </c>
-      <c r="B27" s="78">
+      <c r="B27" s="77">
         <v>71117129</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>137</v>
+      <c r="E27" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="67"/>
+        <v>159</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="66"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19"/>
@@ -4395,32 +4695,32 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A28" s="78">
+      <c r="A28" s="77">
         <v>25</v>
       </c>
-      <c r="B28" s="78">
+      <c r="B28" s="77">
         <v>71117130</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="35" t="s">
-        <v>137</v>
+      <c r="E28" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="67"/>
+        <v>160</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="66"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19"/>
@@ -4434,33 +4734,33 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A29" s="78">
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="16">
+      <c r="A29" s="77">
         <v>26</v>
       </c>
-      <c r="B29" s="78">
+      <c r="B29" s="77">
         <v>71117132</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="44"/>
+      <c r="E29" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="43"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="66"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="65"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19"/>
@@ -4474,28 +4774,33 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A30" s="78">
+    <row r="30" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A30" s="77">
         <v>27</v>
       </c>
-      <c r="B30" s="78">
+      <c r="B30" s="77">
         <v>71117136</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="62"/>
+      <c r="E30" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="61"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19"/>
@@ -4510,28 +4815,28 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A31" s="78">
+      <c r="A31" s="77">
         <v>28</v>
       </c>
-      <c r="B31" s="78">
+      <c r="B31" s="77">
         <v>71117170</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="67"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="66"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19"/>
@@ -4545,29 +4850,33 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A32" s="78">
+    <row r="32" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A32" s="77">
         <v>29</v>
       </c>
-      <c r="B32" s="78">
+      <c r="B32" s="77">
         <v>71117201</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="67"/>
+      <c r="E32" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="66"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19"/>
@@ -4581,29 +4890,33 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A33" s="78">
+    <row r="33" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A33" s="77">
         <v>30</v>
       </c>
-      <c r="B33" s="78">
+      <c r="B33" s="77">
         <v>71117203</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="62"/>
+      <c r="E33" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="61"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19"/>
@@ -4617,29 +4930,33 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A34" s="78">
+    <row r="34" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A34" s="77">
         <v>31</v>
       </c>
-      <c r="B34" s="78">
+      <c r="B34" s="77">
         <v>71117204</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="67"/>
+      <c r="E34" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="66"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="19"/>
@@ -4653,29 +4970,33 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A35" s="78">
+    <row r="35" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A35" s="77">
         <v>32</v>
       </c>
-      <c r="B35" s="78">
+      <c r="B35" s="77">
         <v>71117205</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="67"/>
+      <c r="E35" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="66"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="19"/>
@@ -4689,29 +5010,33 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A36" s="78">
+    <row r="36" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A36" s="77">
         <v>33</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="77">
         <v>71117206</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="67"/>
+      <c r="E36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="66"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="19"/>
@@ -4725,29 +5050,33 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A37" s="78">
+    <row r="37" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A37" s="77">
         <v>34</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="77">
         <v>71117207</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="67"/>
+      <c r="E37" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="66"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="19"/>
@@ -4761,29 +5090,33 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A38" s="78">
+    <row r="38" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A38" s="77">
         <v>35</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="77">
         <v>71117208</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="67"/>
+      <c r="E38" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="66"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="19"/>
@@ -4797,29 +5130,33 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A39" s="78">
+    <row r="39" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A39" s="77">
         <v>36</v>
       </c>
-      <c r="B39" s="78">
+      <c r="B39" s="77">
         <v>71117209</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="44"/>
+      <c r="E39" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="43"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="67"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="66"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="19"/>
@@ -4833,29 +5170,33 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A40" s="78">
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A40" s="77">
         <v>37</v>
       </c>
-      <c r="B40" s="78">
+      <c r="B40" s="77">
         <v>71117214</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="67"/>
+      <c r="E40" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="66"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="19"/>
@@ -4869,33 +5210,37 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A41" s="78">
+    <row r="41" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A41" s="77">
         <v>38</v>
       </c>
-      <c r="B41" s="78">
+      <c r="B41" s="77">
         <v>71117216</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="67"/>
+      <c r="E41" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="66"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="75"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="74"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -4905,29 +5250,33 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A42" s="78">
+    <row r="42" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A42" s="77">
         <v>39</v>
       </c>
-      <c r="B42" s="78">
+      <c r="B42" s="77">
         <v>71117218</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="67"/>
+      <c r="E42" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="66"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="19"/>
@@ -4941,29 +5290,33 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A43" s="78">
+    <row r="43" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A43" s="77">
         <v>40</v>
       </c>
-      <c r="B43" s="78">
+      <c r="B43" s="77">
         <v>71117219</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
+      <c r="E43" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="19"/>
@@ -4977,29 +5330,33 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A44" s="78">
+    <row r="44" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A44" s="77">
         <v>41</v>
       </c>
-      <c r="B44" s="78">
+      <c r="B44" s="77">
         <v>71117221</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="27"/>
+      <c r="E44" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="19"/>
@@ -5013,29 +5370,33 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A45" s="78">
+    <row r="45" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A45" s="77">
         <v>42</v>
       </c>
-      <c r="B45" s="78">
+      <c r="B45" s="77">
         <v>71117222</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
+      <c r="E45" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
       <c r="Q45" s="19"/>
@@ -5049,29 +5410,33 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A46" s="78">
+    <row r="46" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A46" s="77">
         <v>43</v>
       </c>
-      <c r="B46" s="78">
+      <c r="B46" s="77">
         <v>71117223</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="67"/>
+      <c r="E46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="66"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="19"/>
@@ -5085,29 +5450,33 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
     </row>
-    <row r="47" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A47" s="78">
+    <row r="47" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A47" s="77">
         <v>44</v>
       </c>
-      <c r="B47" s="78">
+      <c r="B47" s="77">
         <v>71117224</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="67"/>
+      <c r="E47" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="66"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="19"/>
@@ -5121,33 +5490,37 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A48" s="78">
+    <row r="48" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A48" s="77">
         <v>45</v>
       </c>
-      <c r="B48" s="78">
+      <c r="B48" s="77">
         <v>71117225</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="67"/>
+      <c r="E48" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="66"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="75"/>
+      <c r="R48" s="74"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -5157,29 +5530,33 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A49" s="78">
+    <row r="49" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A49" s="77">
         <v>46</v>
       </c>
-      <c r="B49" s="78">
+      <c r="B49" s="77">
         <v>71117226</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="62"/>
+      <c r="E49" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="61"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="19"/>
@@ -5193,29 +5570,33 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A50" s="78">
+    <row r="50" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A50" s="77">
         <v>47</v>
       </c>
-      <c r="B50" s="78">
+      <c r="B50" s="77">
         <v>71117227</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="67"/>
+      <c r="E50" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="66"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="19"/>
@@ -5229,29 +5610,33 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
     </row>
-    <row r="51" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A51" s="78">
+    <row r="51" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A51" s="77">
         <v>48</v>
       </c>
-      <c r="B51" s="78">
+      <c r="B51" s="77">
         <v>71117228</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="62"/>
+      <c r="E51" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="61"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="19"/>
@@ -5265,29 +5650,33 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
     </row>
-    <row r="52" spans="1:26" s="7" customFormat="1" ht="16">
-      <c r="A52" s="78">
+    <row r="52" spans="1:26" s="7" customFormat="1" ht="60">
+      <c r="A52" s="77">
         <v>49</v>
       </c>
-      <c r="B52" s="78">
+      <c r="B52" s="77">
         <v>71117229</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="C52" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="D52" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
+      <c r="E52" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="43"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="19"/>
@@ -5301,29 +5690,33 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
     </row>
-    <row r="53" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A53" s="78">
+    <row r="53" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A53" s="77">
         <v>50</v>
       </c>
-      <c r="B53" s="78">
+      <c r="B53" s="77">
         <v>71117230</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
+      <c r="E53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="19"/>
@@ -5337,29 +5730,33 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A54" s="78">
+    <row r="54" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A54" s="77">
         <v>51</v>
       </c>
-      <c r="B54" s="78">
+      <c r="B54" s="77">
         <v>71117231</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
+      <c r="E54" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="19"/>
@@ -5374,28 +5771,28 @@
       <c r="Z54" s="13"/>
     </row>
     <row r="55" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A55" s="78">
+      <c r="A55" s="77">
         <v>52</v>
       </c>
-      <c r="B55" s="78">
+      <c r="B55" s="77">
         <v>71117233</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="67"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="19"/>
@@ -5409,29 +5806,33 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A56" s="78">
+    <row r="56" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A56" s="77">
         <v>53</v>
       </c>
-      <c r="B56" s="78">
+      <c r="B56" s="77">
         <v>71117234</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="27"/>
+      <c r="E56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="19"/>
@@ -5445,28 +5846,33 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A57" s="78">
+    <row r="57" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A57" s="77">
         <v>54</v>
       </c>
-      <c r="B57" s="78">
+      <c r="B57" s="77">
         <v>71117235</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="27"/>
+      <c r="E57" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
       <c r="Q57" s="19"/>
@@ -5480,29 +5886,33 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A58" s="78">
+    <row r="58" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A58" s="77">
         <v>55</v>
       </c>
-      <c r="B58" s="78">
+      <c r="B58" s="77">
         <v>71117436</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="25"/>
+      <c r="E58" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="24"/>
       <c r="M58" s="20"/>
-      <c r="N58" s="27"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="19"/>
@@ -5516,29 +5926,33 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A59" s="78">
+    <row r="59" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A59" s="77">
         <v>56</v>
       </c>
-      <c r="B59" s="78">
+      <c r="B59" s="77">
         <v>71118123</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="78" t="s">
+      <c r="D59" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="67"/>
+      <c r="E59" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="43"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="66"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="19"/>
@@ -5553,28 +5967,28 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A60" s="78">
+      <c r="A60" s="77">
         <v>57</v>
       </c>
-      <c r="B60" s="78">
+      <c r="B60" s="77">
         <v>71118325</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="35"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="35"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="27"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
       <c r="Q60" s="19"/>
@@ -5588,29 +6002,33 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A61" s="78">
+    <row r="61" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A61" s="77">
         <v>58</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="67"/>
+      <c r="E61" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="34"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="66"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="19"/>
@@ -5624,29 +6042,33 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A62" s="78">
+    <row r="62" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A62" s="77">
         <v>59</v>
       </c>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="25"/>
+      <c r="E62" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="43"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="20"/>
-      <c r="N62" s="27"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
       <c r="Q62" s="19"/>
@@ -5660,29 +6082,33 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A63" s="78">
+    <row r="63" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A63" s="77">
         <v>60</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="25"/>
+      <c r="E63" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="34"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="24"/>
       <c r="M63" s="20"/>
-      <c r="N63" s="27"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
       <c r="Q63" s="19"/>
@@ -5696,29 +6122,33 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
     </row>
-    <row r="64" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A64" s="78">
+    <row r="64" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A64" s="77">
         <v>61</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="25"/>
+      <c r="E64" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G64" s="34"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="24"/>
       <c r="M64" s="20"/>
-      <c r="N64" s="27"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
       <c r="Q64" s="19"/>
@@ -5732,29 +6162,33 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A65" s="78">
+    <row r="65" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A65" s="77">
         <v>62</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="25"/>
+      <c r="E65" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="20"/>
-      <c r="N65" s="27"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
       <c r="Q65" s="19"/>
@@ -5768,29 +6202,33 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A66" s="78">
+    <row r="66" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A66" s="77">
         <v>63</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="25"/>
+      <c r="E66" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="20"/>
-      <c r="N66" s="27"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
       <c r="Q66" s="19"/>
@@ -5804,29 +6242,33 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A67" s="78">
+    <row r="67" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A67" s="77">
         <v>64</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="60"/>
+      <c r="E67" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" s="43"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="59"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="25"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="20"/>
-      <c r="N67" s="27"/>
+      <c r="N67" s="26"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
       <c r="Q67" s="19"/>
@@ -5840,29 +6282,33 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A68" s="78">
+    <row r="68" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A68" s="77">
         <v>65</v>
       </c>
-      <c r="B68" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="78" t="s">
+      <c r="B68" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="54"/>
+      <c r="E68" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="43"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="20"/>
-      <c r="L68" s="25"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="20"/>
-      <c r="N68" s="27"/>
+      <c r="N68" s="26"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
       <c r="Q68" s="19"/>
@@ -5876,29 +6322,33 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
     </row>
-    <row r="69" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A69" s="78">
+    <row r="69" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A69" s="77">
         <v>66</v>
       </c>
-      <c r="B69" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="78" t="s">
+      <c r="B69" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="60"/>
+      <c r="E69" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="59"/>
       <c r="K69" s="20"/>
-      <c r="L69" s="25"/>
+      <c r="L69" s="24"/>
       <c r="M69" s="20"/>
-      <c r="N69" s="27"/>
+      <c r="N69" s="26"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
       <c r="Q69" s="19"/>
@@ -5912,29 +6362,33 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A70" s="78">
+    <row r="70" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A70" s="77">
         <v>67</v>
       </c>
-      <c r="B70" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="78" t="s">
+      <c r="B70" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="60"/>
+      <c r="E70" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="59"/>
       <c r="K70" s="20"/>
-      <c r="L70" s="25"/>
+      <c r="L70" s="24"/>
       <c r="M70" s="20"/>
-      <c r="N70" s="27"/>
+      <c r="N70" s="26"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
       <c r="Q70" s="19"/>
@@ -5948,29 +6402,33 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
     </row>
-    <row r="71" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A71" s="78">
+    <row r="71" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A71" s="77">
         <v>68</v>
       </c>
-      <c r="B71" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="78" t="s">
+      <c r="B71" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="40"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="54"/>
+      <c r="E71" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="53"/>
       <c r="K71" s="20"/>
-      <c r="L71" s="54"/>
+      <c r="L71" s="53"/>
       <c r="M71" s="20"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="53"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
       <c r="Q71" s="19"/>
@@ -5984,29 +6442,33 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
     </row>
-    <row r="72" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A72" s="78">
+    <row r="72" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A72" s="77">
         <v>69</v>
       </c>
-      <c r="B72" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="78" t="s">
+      <c r="B72" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="48"/>
+      <c r="E72" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="34"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="20"/>
-      <c r="L72" s="54"/>
+      <c r="L72" s="53"/>
       <c r="M72" s="20"/>
-      <c r="N72" s="54"/>
+      <c r="N72" s="53"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
       <c r="Q72" s="19"/>
@@ -6020,29 +6482,33 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
     </row>
-    <row r="73" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A73" s="78">
+    <row r="73" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A73" s="77">
         <v>70</v>
       </c>
-      <c r="B73" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="78" t="s">
+      <c r="B73" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="35"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="61"/>
+      <c r="E73" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="60"/>
       <c r="K73" s="20"/>
-      <c r="L73" s="54"/>
+      <c r="L73" s="53"/>
       <c r="M73" s="20"/>
-      <c r="N73" s="54"/>
+      <c r="N73" s="53"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="19"/>
@@ -6056,29 +6522,33 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
     </row>
-    <row r="74" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A74" s="78">
+    <row r="74" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A74" s="77">
         <v>71</v>
       </c>
-      <c r="B74" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="78" t="s">
+      <c r="B74" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="48"/>
+      <c r="E74" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="47"/>
       <c r="K74" s="20"/>
-      <c r="L74" s="54"/>
+      <c r="L74" s="53"/>
       <c r="M74" s="20"/>
-      <c r="N74" s="54"/>
+      <c r="N74" s="53"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
       <c r="Q74" s="19"/>
@@ -6092,29 +6562,33 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
     </row>
-    <row r="75" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A75" s="78">
+    <row r="75" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A75" s="77">
         <v>72</v>
       </c>
-      <c r="B75" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="78" t="s">
+      <c r="B75" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="54"/>
+      <c r="E75" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="53"/>
       <c r="K75" s="23"/>
-      <c r="L75" s="54"/>
+      <c r="L75" s="53"/>
       <c r="M75" s="20"/>
-      <c r="N75" s="54"/>
+      <c r="N75" s="53"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
       <c r="Q75" s="19"/>
@@ -6128,29 +6602,33 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
     </row>
-    <row r="76" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A76" s="78">
+    <row r="76" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A76" s="77">
         <v>73</v>
       </c>
-      <c r="B76" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="78" t="s">
+      <c r="B76" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="48"/>
+      <c r="E76" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="47"/>
       <c r="K76" s="20"/>
-      <c r="L76" s="54"/>
+      <c r="L76" s="53"/>
       <c r="M76" s="20"/>
-      <c r="N76" s="54"/>
+      <c r="N76" s="53"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
       <c r="Q76" s="19"/>
@@ -6164,29 +6642,33 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A77" s="78">
+    <row r="77" spans="1:26" s="6" customFormat="1" ht="45">
+      <c r="A77" s="77">
         <v>74</v>
       </c>
-      <c r="B77" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="78" t="s">
+      <c r="B77" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="48"/>
+      <c r="E77" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="20"/>
-      <c r="L77" s="54"/>
+      <c r="L77" s="53"/>
       <c r="M77" s="20"/>
-      <c r="N77" s="54"/>
+      <c r="N77" s="53"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
       <c r="Q77" s="19"/>
@@ -6200,29 +6682,33 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A78" s="78">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="30">
+      <c r="A78" s="77">
         <v>75</v>
       </c>
-      <c r="B78" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" s="78" t="s">
+      <c r="B78" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="43"/>
+      <c r="E78" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="34"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="42"/>
       <c r="K78" s="20"/>
-      <c r="L78" s="43"/>
+      <c r="L78" s="42"/>
       <c r="M78" s="20"/>
-      <c r="N78" s="43"/>
+      <c r="N78" s="42"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
       <c r="Q78" s="19"/>
@@ -6236,29 +6722,33 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
     </row>
-    <row r="79" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A79" s="78">
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A79" s="77">
         <v>76</v>
       </c>
-      <c r="B79" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="78" t="s">
+      <c r="B79" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="43"/>
+      <c r="E79" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" s="34"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="42"/>
       <c r="K79" s="20"/>
-      <c r="L79" s="43"/>
+      <c r="L79" s="42"/>
       <c r="M79" s="20"/>
-      <c r="N79" s="43"/>
+      <c r="N79" s="42"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
       <c r="Q79" s="19"/>
@@ -6272,29 +6762,33 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
     </row>
-    <row r="80" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A80" s="78">
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A80" s="77">
         <v>77</v>
       </c>
-      <c r="B80" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="78" t="s">
+      <c r="B80" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="54"/>
+      <c r="E80" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="53"/>
       <c r="K80" s="20"/>
-      <c r="L80" s="54"/>
+      <c r="L80" s="53"/>
       <c r="M80" s="20"/>
-      <c r="N80" s="54"/>
+      <c r="N80" s="53"/>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
       <c r="Q80" s="19"/>
@@ -6308,29 +6802,33 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:26" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="A81" s="78">
+    <row r="81" spans="1:26" s="6" customFormat="1" ht="46" thickBot="1">
+      <c r="A81" s="77">
         <v>78</v>
       </c>
-      <c r="B81" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" s="78" t="s">
+      <c r="B81" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="43"/>
+      <c r="E81" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="34"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="42"/>
       <c r="K81" s="20"/>
-      <c r="L81" s="43"/>
+      <c r="L81" s="42"/>
       <c r="M81" s="20"/>
-      <c r="N81" s="43"/>
+      <c r="N81" s="42"/>
       <c r="O81" s="20"/>
       <c r="P81" s="20"/>
       <c r="Q81" s="19"/>
@@ -6346,19 +6844,19 @@
     </row>
     <row r="82" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="35"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="61"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="60"/>
       <c r="K82" s="20"/>
-      <c r="L82" s="54"/>
+      <c r="L82" s="53"/>
       <c r="M82" s="20"/>
-      <c r="N82" s="54"/>
+      <c r="N82" s="53"/>
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="19"/>
@@ -6374,19 +6872,19 @@
     </row>
     <row r="83" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="35"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="48"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="20"/>
-      <c r="L83" s="54"/>
+      <c r="L83" s="53"/>
       <c r="M83" s="20"/>
-      <c r="N83" s="54"/>
+      <c r="N83" s="53"/>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
       <c r="Q83" s="19"/>
@@ -6402,19 +6900,19 @@
     </row>
     <row r="84" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="35"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="48"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="47"/>
       <c r="K84" s="20"/>
-      <c r="L84" s="54"/>
+      <c r="L84" s="53"/>
       <c r="M84" s="20"/>
-      <c r="N84" s="54"/>
+      <c r="N84" s="53"/>
       <c r="O84" s="20"/>
       <c r="P84" s="20"/>
       <c r="Q84" s="19"/>
@@ -6430,19 +6928,19 @@
     </row>
     <row r="85" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="35"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="48"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="47"/>
       <c r="K85" s="20"/>
-      <c r="L85" s="54"/>
+      <c r="L85" s="53"/>
       <c r="M85" s="20"/>
-      <c r="N85" s="54"/>
+      <c r="N85" s="53"/>
       <c r="O85" s="20"/>
       <c r="P85" s="20"/>
       <c r="Q85" s="19"/>
@@ -6458,19 +6956,19 @@
     </row>
     <row r="86" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="35"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="48"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="47"/>
       <c r="K86" s="20"/>
-      <c r="L86" s="54"/>
+      <c r="L86" s="53"/>
       <c r="M86" s="20"/>
-      <c r="N86" s="54"/>
+      <c r="N86" s="53"/>
       <c r="O86" s="20"/>
       <c r="P86" s="20"/>
       <c r="Q86" s="19"/>
@@ -6486,19 +6984,19 @@
     </row>
     <row r="87" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="35"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="48"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="47"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="54"/>
+      <c r="L87" s="53"/>
       <c r="M87" s="20"/>
-      <c r="N87" s="54"/>
+      <c r="N87" s="53"/>
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="19"/>
@@ -6514,19 +7012,19 @@
     </row>
     <row r="88" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="35"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="48"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="47"/>
       <c r="K88" s="20"/>
-      <c r="L88" s="54"/>
+      <c r="L88" s="53"/>
       <c r="M88" s="20"/>
-      <c r="N88" s="54"/>
+      <c r="N88" s="53"/>
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="19"/>
@@ -6545,7 +7043,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="35"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="21"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -6573,7 +7071,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="36"/>
+      <c r="E90" s="35"/>
       <c r="F90" s="9"/>
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
@@ -6597,22 +7095,22 @@
       <c r="Z90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="48" customHeight="1" thickBot="1">
-      <c r="A91" s="88" t="s">
+      <c r="A91" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="96"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="97"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="97"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="107"/>
+      <c r="M91" s="106"/>
+      <c r="N91" s="107"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -6627,28 +7125,28 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="80" t="s">
+      <c r="A92" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" s="98"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="93"/>
-      <c r="L92" s="93"/>
-      <c r="M92" s="94"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="93"/>
-      <c r="P92" s="93"/>
+      <c r="B92" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="99"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="96"/>
+      <c r="L92" s="96"/>
+      <c r="M92" s="97"/>
+      <c r="N92" s="97"/>
+      <c r="O92" s="96"/>
+      <c r="P92" s="96"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -6661,22 +7159,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="95"/>
-      <c r="B93" s="101"/>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="98"/>
-      <c r="F93" s="98"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="93"/>
-      <c r="K93" s="93"/>
-      <c r="L93" s="93"/>
-      <c r="M93" s="94"/>
-      <c r="N93" s="94"/>
-      <c r="O93" s="93"/>
-      <c r="P93" s="93"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="96"/>
+      <c r="K93" s="96"/>
+      <c r="L93" s="96"/>
+      <c r="M93" s="97"/>
+      <c r="N93" s="97"/>
+      <c r="O93" s="96"/>
+      <c r="P93" s="96"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -6689,22 +7187,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="81"/>
-      <c r="B94" s="103"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="104"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="98"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="93"/>
-      <c r="L94" s="93"/>
-      <c r="M94" s="94"/>
-      <c r="N94" s="94"/>
-      <c r="O94" s="93"/>
-      <c r="P94" s="93"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="97"/>
+      <c r="N94" s="97"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="96"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -6716,28 +7214,28 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="87" customFormat="1">
-      <c r="A96" s="87" t="s">
+    <row r="96" spans="1:26" s="90" customFormat="1">
+      <c r="A96" s="90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="87" customFormat="1">
-      <c r="A97" s="87" t="s">
+    <row r="97" spans="1:9" s="90" customFormat="1">
+      <c r="A97" s="90" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -6768,7 +7266,7 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC06DF-494C-3E4D-BFA8-5816FF1BE486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD013DD-88CA-254A-AF6B-D8E3A6F96DEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-20" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="288">
   <si>
     <t>序号</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>姜子玥</t>
-  </si>
-  <si>
-    <t>袁佳怡</t>
   </si>
   <si>
     <t>刘雪珂</t>
@@ -1249,6 +1246,342 @@
     <t>何颖智</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+1. 流图绘制中，要处理复合条件，即条件对控制流的影响要刻画出来；
+2. 流图的刻画粒度细，同时也会引入不可达路径；
+3. 承认流图中的不可达路径，不用刻意为其去设计测试用例，或者刻意去回避不可达路径；
+4. 基本路径测试并不能替代对全部执行路径的测试；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建东  潘世康 何颖智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能准确掌握知识点。对不可达路径分析合理。实验思考问题的回答很深入！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好的实验报告。注意指出什么情形下路径会不可达</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁佳怡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>严谨和完美的实验报告，对知识点掌握准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好的实验报告。思考中提出的第一个问题非常具有典型性，这样的问题在程序分析里一般采用插桩技术，使得程序执行时能自动输出其执行的路径（即由连续执行语句序列构成的路径）。插桩的原理很简单：插入不影响程序逻辑的语句，这些语句一般是记录或输出感兴趣的执行时信息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很完美的实验报告，对实验的分析思考深入！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对知识点掌握准确，测试用例设计合理！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能准确掌握基本路径测试方法。图要自然嵌入实验报告中，不要用截屏的方式。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很认真和完美的实验报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对知识点掌握准确，测试用例设计合理！无测试用例的路径即不可达路径。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCorrect的流图有问题，导致圈复杂度不对，请再仔细检查。对知识点的掌握总体没问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图能反应条件对控制流的影响，所以并不等同于流程图。一定要掌握流图的正确画法。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很认真和完美的实验报告。实验非常严谨细心！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验认真，但两个流图都有小问题。例如在第一个流图中，4取false的边就缺失了，导致流图不正确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告格式清晰美观；注意需要给出程序中全部对应语句的编号；知识点掌握准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图规范；注意需要给出程序中全部对应语句的编号；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要给出程序中全部语句对应的编号，而不是一部分；程序流图的线条弧度要调整得美观一些；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图的线条不应重合；实验测试思路较为清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图标号正确，需注意设计好各个部分的位置关系，确保清晰直观；环复杂度计算有误。实验体会可以多结合报告中的思考题进行分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图较为清晰；知识点掌握准确；实验思路清晰；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图中注意避免线条的重合；实验报告格式规范；实验体会可以多结合报告中的思考题进行分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图较为清晰；实验思路清晰；知识点掌握准确；能够结合实验报告的思考题进行分析理解，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图注意避免线条的交叉；环路复杂度计算有问题，还需要加强理解。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图要注意线条的美观，要对所有语句给出相应的编号，不然没法判断你的流图和路径的正确性；环复杂度的分析有误，再仔细思考一下；实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图较为清晰；实验思路清晰；测试用例可以再丰富一些，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意程序流图的美观，不宜太长；getResult()的路径没有写全；实验体会要结合报告中的思考题多深入理解和思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意实验报告的格式和规范；注意流图线条和结构的规范；需要给出程序中全部对应语句的编号；测试用例应全面一些。实验体会要结合报告中的思考题多深入理解和思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图较为清晰；实验思路清晰；知识点掌握准确；很好地注意到了不可达路径；能够结合实验思考题进行分析，很不错。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图清晰；注意仔细分析基本路径集合中的不可到达路径，确保全面；实验体会要对思考题作答。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图线条不应重叠交叉；环复杂度分析正确；不可到达的路径是找不到测试用例的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图较为美观，但是需要给出所有语句对应的编号；环复杂度分析有误，导致基本路径的分析出错，请再仔细思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告可以互相参考，还需独立完成；程序流图线条不应重叠交叉；注意不可到达的路径是找不到测试用例的；实验体会要深刻些，多思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图清晰；测试用例全面；注意到了不可达路径。实验体会中体现了自己的思考，很认真。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图美观；注意不可到达的路径是找不到测试用例的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试思路较为清晰；注意不可到达的路径是找不到测试用例的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图清晰；测试用例全面；实验体会不要忽视，要结合报告中的思考题多深入理解和思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号正确，程序流图注意避免线条的交叉；环复杂度分析正确；考虑到了不可达路径。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序标号要清楚一点，流图较为美观；测试用例全面；实验体会体现了自己的思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路清晰；流图美观；知识点掌握准确；能够结合实验报告的思考题进行分析理解，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得很好，知识点掌握准确，整体思路严谨清晰，排版整洁规范。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得比较不错，对基本路径掌握得比较好，getResult()函数函数还存在有其他路径无测试用例的情况，可仔细分析思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制美观，测试用例设计合理，整篇实验报告做得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得很整洁规范，程序流图也很好，getResult()程序中的路径是否少考虑了某些路径也存在无测试用例的情况？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制清晰美观，实验报告做得很好。getResult()程序中的有一条路径存在问题，可深入进行分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对知识点掌握得比较好，测试用例设计合理，实验报告做得很好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得比较好，注意程序流图的入口及出口，IsCorrect()程序中的P2路径存在测试用例，getResult()函数并非所有的路径都没有测试用例。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意标出流图中各编号对应的代码语句，流程图绘制的比较美观，getResult()函数中并非只存在一条路径无测试用例。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制的流图中判断语句的T/F未标出，可以注意一下，对于getResult()程序中无测试用例的路径不只是两条，可以进一步分析一下，论文排版很好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图中的各个编号分别对应哪些语句，判断语句的T/F最好标注出来，以增加可读性。getResult()无测试用例的路径并非只有这两种情况，可以进一步分析思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getResult()程序的环复杂度计算存在错误，在具体测试用例中有考虑到各种无测试用例的情况，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制的比较美观，IsCorrect()的圈复杂度及基本路径数少考虑了一种无测试路径的情况，可以再分析一下。对于getResult()并非所有路径都存在可测试用例。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图对应的语句标号应标注出来；IsCorrect()和getResult()的程序流图均存在错误，可以深入分析思考具体情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应标注出各编号对应的代码语句，以增加可读性，IsCorrect()和GetResult()中均存在错误路径，可以再进一步深入思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制比较清晰，但应标注出各编号对应的代码语句，对于各程序请思考是否存在无测试用例的情况？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路非常清晰，实验报告做得很好，各种情况都有考虑到。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制的比较清晰，getResult()中并非所有路径都无测试用例，请再仔细分析思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制得清晰美观，思考严谨，实验报告做得很用心。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告整洁规范，IsCorrect()程序路径是否存在无测试用例的情况？getResult()函数无测试用例的情况比正确的无测试用例情况多。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体思路比较清晰，实验报告做得比较整齐，但要注意getResult()中的路径并非只存在两条路径无测试用例。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图绘制很清晰，对于getResult()程序中的路径是否存在无测试用例的情况？可仔细进行分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序流图绘制过程分析比较严谨，对知识点掌握得比较好，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getResult()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并非只存在两条无测试用例的路径</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整体排版不错，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Iscorrect()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getResult()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数的路径并非均存在有测试用例，请再仔细分析考虑其具体情况。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制程序流图应将条件组合分开考虑，这会影响到后面的路径的分析，之后可以就此情况再思考一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建东 潘世康 袁佳怡  等10多位A+的实验报告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1257,7 +1590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +1849,12 @@
       <color theme="1"/>
       <name val="SimSun"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2401,7 +2740,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2626,29 +2965,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2672,9 +2996,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,8 +3035,23 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -3567,8 +3915,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3593,68 +3941,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="86" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="86" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="86" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="89"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="30" t="s">
         <v>29</v>
       </c>
@@ -3691,10 +4039,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3792,13 +4140,17 @@
         <v>38</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="22"/>
+        <v>161</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="I5" s="37"/>
       <c r="J5" s="53"/>
       <c r="K5" s="43"/>
@@ -3832,13 +4184,17 @@
         <v>38</v>
       </c>
       <c r="E6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="50"/>
+      <c r="G6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>239</v>
+      </c>
       <c r="I6" s="37"/>
       <c r="J6" s="57"/>
       <c r="K6" s="34"/>
@@ -3872,13 +4228,17 @@
         <v>38</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="70"/>
+        <v>136</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>240</v>
+      </c>
       <c r="I7" s="34"/>
       <c r="J7" s="53"/>
       <c r="K7" s="43"/>
@@ -3912,13 +4272,17 @@
         <v>38</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>241</v>
+      </c>
       <c r="I8" s="34"/>
       <c r="J8" s="58"/>
       <c r="K8" s="34"/>
@@ -3952,13 +4316,17 @@
         <v>38</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="57"/>
+        <v>138</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>242</v>
+      </c>
       <c r="I9" s="43"/>
       <c r="J9" s="54"/>
       <c r="K9" s="34"/>
@@ -3992,13 +4360,17 @@
         <v>36</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>243</v>
+      </c>
       <c r="I10" s="43"/>
       <c r="J10" s="59"/>
       <c r="K10" s="34"/>
@@ -4032,13 +4404,17 @@
         <v>36</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="70"/>
+        <v>140</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>244</v>
+      </c>
       <c r="I11" s="37"/>
       <c r="J11" s="53"/>
       <c r="K11" s="34"/>
@@ -4058,7 +4434,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="30">
+    <row r="12" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A12" s="77">
         <v>9</v>
       </c>
@@ -4072,13 +4448,17 @@
         <v>36</v>
       </c>
       <c r="E12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="I12" s="43"/>
       <c r="J12" s="54"/>
       <c r="K12" s="43"/>
@@ -4112,13 +4492,17 @@
         <v>36</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>246</v>
+      </c>
       <c r="I13" s="43"/>
       <c r="J13" s="59"/>
       <c r="K13" s="34"/>
@@ -4138,7 +4522,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="16">
+    <row r="14" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A14" s="77">
         <v>11</v>
       </c>
@@ -4153,8 +4537,12 @@
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="70"/>
+      <c r="G14" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>247</v>
+      </c>
       <c r="I14" s="43"/>
       <c r="J14" s="54"/>
       <c r="K14" s="34"/>
@@ -4188,13 +4576,17 @@
         <v>36</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>248</v>
+      </c>
       <c r="I15" s="43"/>
       <c r="J15" s="59"/>
       <c r="K15" s="34"/>
@@ -4214,7 +4606,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A16" s="77">
         <v>13</v>
       </c>
@@ -4228,13 +4620,17 @@
         <v>36</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>249</v>
+      </c>
       <c r="I16" s="43"/>
       <c r="J16" s="54"/>
       <c r="K16" s="43"/>
@@ -4254,7 +4650,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="60">
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A17" s="77">
         <v>14</v>
       </c>
@@ -4268,13 +4664,17 @@
         <v>36</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="70"/>
+        <v>147</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>250</v>
+      </c>
       <c r="I17" s="43"/>
       <c r="J17" s="59"/>
       <c r="K17" s="43"/>
@@ -4308,13 +4708,17 @@
         <v>36</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>251</v>
+      </c>
       <c r="I18" s="43"/>
       <c r="J18" s="59"/>
       <c r="K18" s="43"/>
@@ -4348,13 +4752,17 @@
         <v>36</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="69"/>
+        <v>149</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>252</v>
+      </c>
       <c r="I19" s="34"/>
       <c r="J19" s="53"/>
       <c r="K19" s="43"/>
@@ -4388,13 +4796,17 @@
         <v>36</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>253</v>
+      </c>
       <c r="I20" s="43"/>
       <c r="J20" s="59"/>
       <c r="K20" s="43"/>
@@ -4414,7 +4826,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="30">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A21" s="77">
         <v>18</v>
       </c>
@@ -4428,13 +4840,17 @@
         <v>36</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="70"/>
+        <v>151</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>254</v>
+      </c>
       <c r="I21" s="34"/>
       <c r="J21" s="59"/>
       <c r="K21" s="34"/>
@@ -4468,13 +4884,17 @@
         <v>36</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="70"/>
+        <v>152</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>255</v>
+      </c>
       <c r="I22" s="43"/>
       <c r="J22" s="54"/>
       <c r="K22" s="43"/>
@@ -4494,7 +4914,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="16">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="45">
       <c r="A23" s="77">
         <v>20</v>
       </c>
@@ -4508,13 +4928,17 @@
         <v>36</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="70"/>
+        <v>180</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>256</v>
+      </c>
       <c r="I23" s="34"/>
       <c r="J23" s="59"/>
       <c r="K23" s="43"/>
@@ -4548,13 +4972,17 @@
         <v>36</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="70"/>
+        <v>155</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>257</v>
+      </c>
       <c r="I24" s="43"/>
       <c r="J24" s="59"/>
       <c r="K24" s="43"/>
@@ -4588,13 +5016,17 @@
         <v>36</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="70"/>
+        <v>156</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>258</v>
+      </c>
       <c r="I25" s="43"/>
       <c r="J25" s="54"/>
       <c r="K25" s="43"/>
@@ -4628,13 +5060,17 @@
         <v>36</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="49"/>
+        <v>157</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>259</v>
+      </c>
       <c r="I26" s="43"/>
       <c r="J26" s="59"/>
       <c r="K26" s="43"/>
@@ -4668,13 +5104,17 @@
         <v>36</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>260</v>
+      </c>
       <c r="I27" s="48"/>
       <c r="J27" s="59"/>
       <c r="K27" s="43"/>
@@ -4708,13 +5148,17 @@
         <v>36</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="70"/>
+        <v>159</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>261</v>
+      </c>
       <c r="I28" s="43"/>
       <c r="J28" s="59"/>
       <c r="K28" s="43"/>
@@ -4734,7 +5178,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="16">
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="45">
       <c r="A29" s="77">
         <v>26</v>
       </c>
@@ -4748,13 +5192,17 @@
         <v>36</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="21"/>
+        <v>160</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="I29" s="43"/>
       <c r="J29" s="54"/>
       <c r="K29" s="43"/>
@@ -4788,13 +5236,17 @@
         <v>36</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="53"/>
+        <v>162</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>224</v>
+      </c>
       <c r="I30" s="34"/>
       <c r="J30" s="53"/>
       <c r="K30" s="43"/>
@@ -4829,7 +5281,7 @@
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="78"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="51"/>
       <c r="I31" s="34"/>
       <c r="J31" s="58"/>
@@ -4864,13 +5316,17 @@
         <v>38</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="70"/>
+        <v>163</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="I32" s="37"/>
       <c r="J32" s="54"/>
       <c r="K32" s="43"/>
@@ -4897,20 +5353,24 @@
       <c r="B33" s="77">
         <v>71117203</v>
       </c>
-      <c r="C33" s="77" t="s">
-        <v>66</v>
+      <c r="C33" s="82" t="s">
+        <v>226</v>
       </c>
       <c r="D33" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>227</v>
+      </c>
       <c r="I33" s="43"/>
       <c r="J33" s="53"/>
       <c r="K33" s="34"/>
@@ -4930,7 +5390,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="34" spans="1:26" s="6" customFormat="1" ht="120">
       <c r="A34" s="77">
         <v>31</v>
       </c>
@@ -4938,19 +5398,23 @@
         <v>71117204</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="52"/>
+        <v>168</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>228</v>
+      </c>
       <c r="I34" s="43"/>
       <c r="J34" s="53"/>
       <c r="K34" s="34"/>
@@ -4978,19 +5442,23 @@
         <v>71117205</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="48"/>
+        <v>169</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>229</v>
+      </c>
       <c r="I35" s="43"/>
       <c r="J35" s="53"/>
       <c r="K35" s="43"/>
@@ -5018,19 +5486,23 @@
         <v>71117206</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="51"/>
+        <v>192</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I36" s="43"/>
       <c r="J36" s="53"/>
       <c r="K36" s="34"/>
@@ -5058,19 +5530,23 @@
         <v>71117207</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="44"/>
+        <v>186</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>231</v>
+      </c>
       <c r="I37" s="37"/>
       <c r="J37" s="53"/>
       <c r="K37" s="34"/>
@@ -5098,19 +5574,23 @@
         <v>71117208</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I38" s="43"/>
       <c r="J38" s="59"/>
       <c r="K38" s="34"/>
@@ -5138,19 +5618,23 @@
         <v>71117209</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I39" s="43"/>
       <c r="J39" s="53"/>
       <c r="K39" s="34"/>
@@ -5178,19 +5662,23 @@
         <v>71117214</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="48"/>
+        <v>172</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I40" s="43"/>
       <c r="J40" s="53"/>
       <c r="K40" s="34"/>
@@ -5218,19 +5706,23 @@
         <v>71117216</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="51"/>
+        <v>173</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I41" s="43"/>
       <c r="J41" s="53"/>
       <c r="K41" s="34"/>
@@ -5258,19 +5750,23 @@
         <v>71117218</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="44"/>
+        <v>174</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>232</v>
+      </c>
       <c r="I42" s="34"/>
       <c r="J42" s="54"/>
       <c r="K42" s="34"/>
@@ -5298,19 +5794,23 @@
         <v>71117219</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="34"/>
-      <c r="H43" s="51"/>
+        <v>176</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I43" s="34"/>
       <c r="J43" s="59"/>
       <c r="K43" s="34"/>
@@ -5338,19 +5838,23 @@
         <v>71117221</v>
       </c>
       <c r="C44" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I44" s="43"/>
       <c r="J44" s="53"/>
       <c r="K44" s="34"/>
@@ -5378,19 +5882,23 @@
         <v>71117222</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="51"/>
+        <v>177</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>233</v>
+      </c>
       <c r="I45" s="43"/>
       <c r="J45" s="53"/>
       <c r="K45" s="43"/>
@@ -5418,19 +5926,23 @@
         <v>71117223</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="44"/>
+        <v>178</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>234</v>
+      </c>
       <c r="I46" s="43"/>
       <c r="J46" s="53"/>
       <c r="K46" s="43"/>
@@ -5458,19 +5970,19 @@
         <v>71117224</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="52"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="34"/>
       <c r="J47" s="59"/>
       <c r="K47" s="43"/>
@@ -5498,19 +6010,23 @@
         <v>71117225</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+        <v>184</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I48" s="43"/>
       <c r="J48" s="54"/>
       <c r="K48" s="43"/>
@@ -5538,19 +6054,23 @@
         <v>71117226</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
+        <v>185</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>235</v>
+      </c>
       <c r="I49" s="43"/>
       <c r="J49" s="53"/>
       <c r="K49" s="43"/>
@@ -5578,19 +6098,23 @@
         <v>71117227</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="51"/>
+        <v>187</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I50" s="43"/>
       <c r="J50" s="54"/>
       <c r="K50" s="43"/>
@@ -5618,19 +6142,23 @@
         <v>71117228</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
+        <v>188</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>236</v>
+      </c>
       <c r="I51" s="43"/>
       <c r="J51" s="54"/>
       <c r="K51" s="34"/>
@@ -5658,19 +6186,23 @@
         <v>71117229</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="52"/>
+        <v>189</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>237</v>
+      </c>
       <c r="I52" s="43"/>
       <c r="J52" s="53"/>
       <c r="K52" s="43"/>
@@ -5698,16 +6230,16 @@
         <v>71117230</v>
       </c>
       <c r="C53" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="44"/>
@@ -5738,19 +6270,23 @@
         <v>71117231</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="51"/>
+        <v>191</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I54" s="43"/>
       <c r="J54" s="59"/>
       <c r="K54" s="34"/>
@@ -5806,7 +6342,7 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" spans="1:26" s="6" customFormat="1" ht="30">
+    <row r="56" spans="1:26" s="6" customFormat="1" ht="45">
       <c r="A56" s="77">
         <v>53</v>
       </c>
@@ -5814,19 +6350,23 @@
         <v>71117234</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72"/>
+        <v>193</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="72" t="s">
+        <v>263</v>
+      </c>
       <c r="I56" s="43"/>
       <c r="J56" s="59"/>
       <c r="K56" s="34"/>
@@ -5854,19 +6394,23 @@
         <v>71117235</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="52"/>
+        <v>194</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>264</v>
+      </c>
       <c r="I57" s="43"/>
       <c r="J57" s="59"/>
       <c r="K57" s="34"/>
@@ -5894,19 +6438,23 @@
         <v>71117436</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="51"/>
+        <v>195</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>265</v>
+      </c>
       <c r="I58" s="43"/>
       <c r="J58" s="53"/>
       <c r="K58" s="34"/>
@@ -5926,7 +6474,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="59" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A59" s="77">
         <v>56</v>
       </c>
@@ -5934,19 +6482,23 @@
         <v>71118123</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="48"/>
+        <v>196</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="83" t="s">
+        <v>266</v>
+      </c>
       <c r="I59" s="43"/>
       <c r="J59" s="59"/>
       <c r="K59" s="34"/>
@@ -5974,7 +6526,7 @@
         <v>71118325</v>
       </c>
       <c r="C60" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="77" t="s">
         <v>36</v>
@@ -6007,22 +6559,26 @@
         <v>58</v>
       </c>
       <c r="B61" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="77" t="s">
         <v>93</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>94</v>
       </c>
       <c r="D61" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="48"/>
+        <v>197</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="83" t="s">
+        <v>267</v>
+      </c>
       <c r="I61" s="43"/>
       <c r="J61" s="59"/>
       <c r="K61" s="34"/>
@@ -6047,22 +6603,26 @@
         <v>59</v>
       </c>
       <c r="B62" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="77" t="s">
         <v>95</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>96</v>
       </c>
       <c r="D62" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="48"/>
+        <v>198</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>268</v>
+      </c>
       <c r="I62" s="34"/>
       <c r="J62" s="53"/>
       <c r="K62" s="34"/>
@@ -6082,27 +6642,31 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" spans="1:26" s="6" customFormat="1" ht="60">
+    <row r="63" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A63" s="77">
         <v>60</v>
       </c>
       <c r="B63" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="77" t="s">
         <v>97</v>
-      </c>
-      <c r="C63" s="77" t="s">
-        <v>98</v>
       </c>
       <c r="D63" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="51"/>
+        <v>199</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>269</v>
+      </c>
       <c r="I63" s="43"/>
       <c r="J63" s="59"/>
       <c r="K63" s="34"/>
@@ -6122,27 +6686,31 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
     </row>
-    <row r="64" spans="1:26" s="6" customFormat="1" ht="30">
+    <row r="64" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A64" s="77">
         <v>61</v>
       </c>
       <c r="B64" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="77" t="s">
         <v>99</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>100</v>
       </c>
       <c r="D64" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>270</v>
+      </c>
       <c r="I64" s="43"/>
       <c r="J64" s="53"/>
       <c r="K64" s="34"/>
@@ -6162,27 +6730,31 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="65" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A65" s="77">
         <v>62</v>
       </c>
       <c r="B65" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="77" t="s">
         <v>101</v>
-      </c>
-      <c r="C65" s="77" t="s">
-        <v>102</v>
       </c>
       <c r="D65" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="48"/>
+        <v>201</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>271</v>
+      </c>
       <c r="I65" s="42"/>
       <c r="J65" s="55"/>
       <c r="K65" s="34"/>
@@ -6207,22 +6779,26 @@
         <v>63</v>
       </c>
       <c r="B66" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="77" t="s">
         <v>103</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>104</v>
       </c>
       <c r="D66" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="48"/>
+        <v>202</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>272</v>
+      </c>
       <c r="I66" s="34"/>
       <c r="J66" s="53"/>
       <c r="K66" s="34"/>
@@ -6247,22 +6823,26 @@
         <v>64</v>
       </c>
       <c r="B67" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="77" t="s">
         <v>105</v>
-      </c>
-      <c r="C67" s="77" t="s">
-        <v>106</v>
       </c>
       <c r="D67" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="52"/>
+        <v>203</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>273</v>
+      </c>
       <c r="I67" s="34"/>
       <c r="J67" s="59"/>
       <c r="K67" s="20"/>
@@ -6282,27 +6862,31 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="68" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A68" s="77">
         <v>65</v>
       </c>
       <c r="B68" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="108" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>221</v>
       </c>
       <c r="D68" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="48"/>
+        <v>220</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>274</v>
+      </c>
       <c r="I68" s="34"/>
       <c r="J68" s="53"/>
       <c r="K68" s="20"/>
@@ -6327,22 +6911,26 @@
         <v>66</v>
       </c>
       <c r="B69" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="77" t="s">
         <v>107</v>
-      </c>
-      <c r="C69" s="77" t="s">
-        <v>108</v>
       </c>
       <c r="D69" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="51"/>
+        <v>204</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>275</v>
+      </c>
       <c r="I69" s="34"/>
       <c r="J69" s="59"/>
       <c r="K69" s="20"/>
@@ -6362,27 +6950,31 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="70" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A70" s="77">
         <v>67</v>
       </c>
       <c r="B70" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="77" t="s">
         <v>109</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>110</v>
       </c>
       <c r="D70" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="51"/>
+        <v>205</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>276</v>
+      </c>
       <c r="I70" s="34"/>
       <c r="J70" s="59"/>
       <c r="K70" s="20"/>
@@ -6407,22 +6999,26 @@
         <v>68</v>
       </c>
       <c r="B71" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="77" t="s">
         <v>111</v>
-      </c>
-      <c r="C71" s="77" t="s">
-        <v>112</v>
       </c>
       <c r="D71" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="45"/>
+        <v>206</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>277</v>
+      </c>
       <c r="I71" s="34"/>
       <c r="J71" s="53"/>
       <c r="K71" s="20"/>
@@ -6447,22 +7043,26 @@
         <v>69</v>
       </c>
       <c r="B72" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="77" t="s">
         <v>113</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>114</v>
       </c>
       <c r="D72" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="51"/>
+        <v>207</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>278</v>
+      </c>
       <c r="I72" s="34"/>
       <c r="J72" s="47"/>
       <c r="K72" s="20"/>
@@ -6487,22 +7087,26 @@
         <v>70</v>
       </c>
       <c r="B73" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="77" t="s">
         <v>115</v>
-      </c>
-      <c r="C73" s="77" t="s">
-        <v>116</v>
       </c>
       <c r="D73" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="51"/>
+        <v>208</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>279</v>
+      </c>
       <c r="I73" s="34"/>
       <c r="J73" s="60"/>
       <c r="K73" s="20"/>
@@ -6527,22 +7131,26 @@
         <v>71</v>
       </c>
       <c r="B74" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="77" t="s">
         <v>117</v>
-      </c>
-      <c r="C74" s="77" t="s">
-        <v>118</v>
       </c>
       <c r="D74" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="51"/>
+        <v>209</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" s="51" t="s">
+        <v>280</v>
+      </c>
       <c r="I74" s="34"/>
       <c r="J74" s="47"/>
       <c r="K74" s="20"/>
@@ -6562,27 +7170,31 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
     </row>
-    <row r="75" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="75" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A75" s="77">
         <v>72</v>
       </c>
       <c r="B75" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="77" t="s">
         <v>119</v>
-      </c>
-      <c r="C75" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="D75" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="45"/>
+        <v>210</v>
+      </c>
+      <c r="G75" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>281</v>
+      </c>
       <c r="I75" s="34"/>
       <c r="J75" s="53"/>
       <c r="K75" s="23"/>
@@ -6607,22 +7219,26 @@
         <v>73</v>
       </c>
       <c r="B76" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="C76" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="D76" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="51"/>
+        <v>211</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="51" t="s">
+        <v>282</v>
+      </c>
       <c r="I76" s="34"/>
       <c r="J76" s="47"/>
       <c r="K76" s="20"/>
@@ -6642,27 +7258,31 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" spans="1:26" s="6" customFormat="1" ht="45">
+    <row r="77" spans="1:26" s="6" customFormat="1" ht="60">
       <c r="A77" s="77">
         <v>74</v>
       </c>
       <c r="B77" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="77" t="s">
         <v>123</v>
-      </c>
-      <c r="C77" s="77" t="s">
-        <v>124</v>
       </c>
       <c r="D77" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="51"/>
+        <v>212</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="51" t="s">
+        <v>283</v>
+      </c>
       <c r="I77" s="42"/>
       <c r="J77" s="47"/>
       <c r="K77" s="20"/>
@@ -6682,27 +7302,31 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="30">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="45">
       <c r="A78" s="77">
         <v>75</v>
       </c>
       <c r="B78" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="77" t="s">
         <v>125</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>126</v>
       </c>
       <c r="D78" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="42"/>
+        <v>213</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" s="51" t="s">
+        <v>284</v>
+      </c>
       <c r="I78" s="34"/>
       <c r="J78" s="42"/>
       <c r="K78" s="20"/>
@@ -6727,22 +7351,26 @@
         <v>76</v>
       </c>
       <c r="B79" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="77" t="s">
         <v>127</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>128</v>
       </c>
       <c r="D79" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="42"/>
+        <v>214</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" s="51" t="s">
+        <v>285</v>
+      </c>
       <c r="I79" s="34"/>
       <c r="J79" s="42"/>
       <c r="K79" s="20"/>
@@ -6767,22 +7395,26 @@
         <v>77</v>
       </c>
       <c r="B80" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="77" t="s">
         <v>129</v>
-      </c>
-      <c r="C80" s="77" t="s">
-        <v>130</v>
       </c>
       <c r="D80" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="45"/>
+        <v>215</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>286</v>
+      </c>
       <c r="I80" s="34"/>
       <c r="J80" s="53"/>
       <c r="K80" s="20"/>
@@ -6807,22 +7439,26 @@
         <v>78</v>
       </c>
       <c r="B81" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="77" t="s">
         <v>131</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>132</v>
       </c>
       <c r="D81" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F81" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="42"/>
+        <v>216</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>230</v>
+      </c>
       <c r="I81" s="34"/>
       <c r="J81" s="42"/>
       <c r="K81" s="20"/>
@@ -7095,22 +7731,26 @@
       <c r="Z90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="48" customHeight="1" thickBot="1">
-      <c r="A91" s="91" t="s">
+      <c r="A91" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="94"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="106"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="106"/>
-      <c r="N91" s="107"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" s="90"/>
+      <c r="G91" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="H91" s="90"/>
+      <c r="I91" s="104"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="104"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="104"/>
+      <c r="N91" s="105"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -7125,28 +7765,30 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" s="99"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="96"/>
-      <c r="I92" s="96"/>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
-      <c r="L92" s="96"/>
-      <c r="M92" s="97"/>
-      <c r="N92" s="97"/>
-      <c r="O92" s="96"/>
-      <c r="P92" s="96"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="H92" s="93"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="91"/>
+      <c r="K92" s="91"/>
+      <c r="L92" s="91"/>
+      <c r="M92" s="92"/>
+      <c r="N92" s="92"/>
+      <c r="O92" s="91"/>
+      <c r="P92" s="91"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -7159,22 +7801,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="98"/>
-      <c r="B93" s="102"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="96"/>
-      <c r="I93" s="96"/>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="97"/>
-      <c r="N93" s="97"/>
-      <c r="O93" s="96"/>
-      <c r="P93" s="96"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="91"/>
+      <c r="J93" s="91"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="91"/>
+      <c r="P93" s="91"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -7187,22 +7829,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="97"/>
-      <c r="N94" s="97"/>
-      <c r="O94" s="96"/>
-      <c r="P94" s="96"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="91"/>
+      <c r="K94" s="91"/>
+      <c r="L94" s="91"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="92"/>
+      <c r="O94" s="91"/>
+      <c r="P94" s="91"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -7214,13 +7856,13 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="90" customFormat="1">
-      <c r="A96" s="90" t="s">
+    <row r="96" spans="1:26" s="85" customFormat="1">
+      <c r="A96" s="85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="90" customFormat="1">
-      <c r="A97" s="90" t="s">
+    <row r="97" spans="1:9" s="85" customFormat="1">
+      <c r="A97" s="85" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7239,6 +7881,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A96:XFD96"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="A91:D91"/>
@@ -7255,16 +7907,6 @@
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="I91:J91"/>
     <mergeCell ref="K91:L91"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD013DD-88CA-254A-AF6B-D8E3A6F96DEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F1274-EBE1-9C4F-B3CB-47DF4837B653}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-20" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="289">
   <si>
     <t>序号</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>周嵩林</t>
-  </si>
-  <si>
-    <t>柳沿河</t>
   </si>
   <si>
     <t>龚灿</t>
@@ -1514,7 +1511,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>getResult()</t>
     </r>
@@ -1539,7 +1535,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>Iscorrect()</t>
     </r>
@@ -1558,7 +1553,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>getResult()</t>
     </r>
@@ -1579,7 +1573,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>张建东 潘世康 袁佳怡  等10多位A+的实验报告</t>
+    <t>高质量的实验报告：流图清晰准确，能完全掌握基本路径测试知识点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳沿河</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建东 潘世康 袁佳怡  柳沿河 等10多位A+的实验报告</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1855,7 +1857,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3915,8 +3916,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4140,16 +4141,16 @@
         <v>38</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="53"/>
@@ -4184,16 +4185,16 @@
         <v>38</v>
       </c>
       <c r="E6" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="G6" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="57"/>
@@ -4228,16 +4229,16 @@
         <v>38</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="53"/>
@@ -4272,16 +4273,16 @@
         <v>38</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="58"/>
@@ -4316,16 +4317,16 @@
         <v>38</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I9" s="43"/>
       <c r="J9" s="54"/>
@@ -4360,16 +4361,16 @@
         <v>36</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="59"/>
@@ -4404,16 +4405,16 @@
         <v>36</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I11" s="37"/>
       <c r="J11" s="53"/>
@@ -4448,16 +4449,16 @@
         <v>36</v>
       </c>
       <c r="E12" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>143</v>
-      </c>
       <c r="G12" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="54"/>
@@ -4492,16 +4493,16 @@
         <v>36</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="59"/>
@@ -4538,10 +4539,10 @@
       <c r="E14" s="34"/>
       <c r="F14" s="21"/>
       <c r="G14" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" s="43"/>
       <c r="J14" s="54"/>
@@ -4576,16 +4577,16 @@
         <v>36</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="59"/>
@@ -4620,16 +4621,16 @@
         <v>36</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="54"/>
@@ -4664,16 +4665,16 @@
         <v>36</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="59"/>
@@ -4708,16 +4709,16 @@
         <v>36</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="59"/>
@@ -4752,16 +4753,16 @@
         <v>36</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="53"/>
@@ -4796,16 +4797,16 @@
         <v>36</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="59"/>
@@ -4840,16 +4841,16 @@
         <v>36</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="59"/>
@@ -4884,16 +4885,16 @@
         <v>36</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="54"/>
@@ -4928,16 +4929,16 @@
         <v>36</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="59"/>
@@ -4972,16 +4973,16 @@
         <v>36</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="59"/>
@@ -5016,16 +5017,16 @@
         <v>36</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="54"/>
@@ -5060,16 +5061,16 @@
         <v>36</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="59"/>
@@ -5104,16 +5105,16 @@
         <v>36</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="59"/>
@@ -5148,16 +5149,16 @@
         <v>36</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="59"/>
@@ -5192,16 +5193,16 @@
         <v>36</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="54"/>
@@ -5236,16 +5237,16 @@
         <v>36</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="53"/>
@@ -5316,16 +5317,16 @@
         <v>38</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="54"/>
@@ -5354,22 +5355,22 @@
         <v>71117203</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="G33" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="53"/>
@@ -5404,16 +5405,16 @@
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="53"/>
@@ -5448,16 +5449,16 @@
         <v>38</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I35" s="43"/>
       <c r="J35" s="53"/>
@@ -5492,16 +5493,16 @@
         <v>38</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I36" s="43"/>
       <c r="J36" s="53"/>
@@ -5536,16 +5537,16 @@
         <v>36</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="53"/>
@@ -5580,16 +5581,16 @@
         <v>36</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I38" s="43"/>
       <c r="J38" s="59"/>
@@ -5624,16 +5625,16 @@
         <v>36</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I39" s="43"/>
       <c r="J39" s="53"/>
@@ -5668,16 +5669,16 @@
         <v>36</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I40" s="43"/>
       <c r="J40" s="53"/>
@@ -5712,16 +5713,16 @@
         <v>36</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I41" s="43"/>
       <c r="J41" s="53"/>
@@ -5756,16 +5757,16 @@
         <v>36</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="54"/>
@@ -5800,16 +5801,16 @@
         <v>36</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="59"/>
@@ -5844,16 +5845,16 @@
         <v>36</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I44" s="43"/>
       <c r="J44" s="53"/>
@@ -5888,16 +5889,16 @@
         <v>36</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="53"/>
@@ -5932,16 +5933,16 @@
         <v>36</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I46" s="43"/>
       <c r="J46" s="53"/>
@@ -5976,13 +5977,17 @@
         <v>36</v>
       </c>
       <c r="E47" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="51"/>
+      <c r="G47" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>229</v>
+      </c>
       <c r="I47" s="34"/>
       <c r="J47" s="59"/>
       <c r="K47" s="43"/>
@@ -6016,16 +6021,16 @@
         <v>36</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I48" s="43"/>
       <c r="J48" s="54"/>
@@ -6060,19 +6065,18 @@
         <v>36</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I49" s="43"/>
-      <c r="J49" s="53"/>
       <c r="K49" s="43"/>
       <c r="L49" s="24"/>
       <c r="M49" s="34"/>
@@ -6104,19 +6108,19 @@
         <v>36</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="43"/>
-      <c r="J50" s="54"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="43"/>
       <c r="L50" s="24"/>
       <c r="M50" s="64"/>
@@ -6148,16 +6152,16 @@
         <v>36</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I51" s="43"/>
       <c r="J51" s="54"/>
@@ -6192,16 +6196,16 @@
         <v>36</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I52" s="43"/>
       <c r="J52" s="53"/>
@@ -6229,20 +6233,24 @@
       <c r="B53" s="77">
         <v>71117230</v>
       </c>
-      <c r="C53" s="77" t="s">
-        <v>85</v>
+      <c r="C53" s="82" t="s">
+        <v>287</v>
       </c>
       <c r="D53" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
+        <v>189</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>286</v>
+      </c>
       <c r="I53" s="43"/>
       <c r="J53" s="53"/>
       <c r="K53" s="43"/>
@@ -6270,22 +6278,22 @@
         <v>71117231</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I54" s="43"/>
       <c r="J54" s="59"/>
@@ -6350,22 +6358,22 @@
         <v>71117234</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I56" s="43"/>
       <c r="J56" s="59"/>
@@ -6394,22 +6402,22 @@
         <v>71117235</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I57" s="43"/>
       <c r="J57" s="59"/>
@@ -6438,22 +6446,22 @@
         <v>71117436</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H58" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I58" s="43"/>
       <c r="J58" s="53"/>
@@ -6482,22 +6490,22 @@
         <v>71118123</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I59" s="43"/>
       <c r="J59" s="59"/>
@@ -6526,7 +6534,7 @@
         <v>71118325</v>
       </c>
       <c r="C60" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="77" t="s">
         <v>36</v>
@@ -6559,25 +6567,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="77" t="s">
         <v>92</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>93</v>
       </c>
       <c r="D61" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I61" s="43"/>
       <c r="J61" s="59"/>
@@ -6603,25 +6611,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="77" t="s">
         <v>94</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>95</v>
       </c>
       <c r="D62" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="53"/>
@@ -6647,25 +6655,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="77" t="s">
         <v>96</v>
-      </c>
-      <c r="C63" s="77" t="s">
-        <v>97</v>
       </c>
       <c r="D63" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H63" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I63" s="43"/>
       <c r="J63" s="59"/>
@@ -6691,25 +6699,25 @@
         <v>61</v>
       </c>
       <c r="B64" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="77" t="s">
         <v>98</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>99</v>
       </c>
       <c r="D64" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I64" s="43"/>
       <c r="J64" s="53"/>
@@ -6735,25 +6743,25 @@
         <v>62</v>
       </c>
       <c r="B65" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="77" t="s">
         <v>100</v>
-      </c>
-      <c r="C65" s="77" t="s">
-        <v>101</v>
       </c>
       <c r="D65" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I65" s="42"/>
       <c r="J65" s="55"/>
@@ -6779,25 +6787,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="77" t="s">
         <v>102</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>103</v>
       </c>
       <c r="D66" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H66" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="53"/>
@@ -6823,25 +6831,25 @@
         <v>64</v>
       </c>
       <c r="B67" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="77" t="s">
         <v>104</v>
-      </c>
-      <c r="C67" s="77" t="s">
-        <v>105</v>
       </c>
       <c r="D67" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="59"/>
@@ -6867,25 +6875,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H68" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="53"/>
@@ -6911,25 +6919,25 @@
         <v>66</v>
       </c>
       <c r="B69" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="C69" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="D69" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H69" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="59"/>
@@ -6955,25 +6963,25 @@
         <v>67</v>
       </c>
       <c r="B70" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="77" t="s">
         <v>108</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>109</v>
       </c>
       <c r="D70" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="59"/>
@@ -6999,25 +7007,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="77" t="s">
         <v>110</v>
-      </c>
-      <c r="C71" s="77" t="s">
-        <v>111</v>
       </c>
       <c r="D71" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="53"/>
@@ -7043,25 +7051,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="77" t="s">
         <v>112</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>113</v>
       </c>
       <c r="D72" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H72" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="47"/>
@@ -7087,25 +7095,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="77" t="s">
         <v>114</v>
-      </c>
-      <c r="C73" s="77" t="s">
-        <v>115</v>
       </c>
       <c r="D73" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="60"/>
@@ -7131,25 +7139,25 @@
         <v>71</v>
       </c>
       <c r="B74" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="77" t="s">
         <v>116</v>
-      </c>
-      <c r="C74" s="77" t="s">
-        <v>117</v>
       </c>
       <c r="D74" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I74" s="34"/>
       <c r="J74" s="47"/>
@@ -7175,25 +7183,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="77" t="s">
         <v>118</v>
-      </c>
-      <c r="C75" s="77" t="s">
-        <v>119</v>
       </c>
       <c r="D75" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G75" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I75" s="34"/>
       <c r="J75" s="53"/>
@@ -7219,25 +7227,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="77" t="s">
         <v>120</v>
-      </c>
-      <c r="C76" s="77" t="s">
-        <v>121</v>
       </c>
       <c r="D76" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I76" s="34"/>
       <c r="J76" s="47"/>
@@ -7263,25 +7271,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="77" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" s="77" t="s">
-        <v>123</v>
       </c>
       <c r="D77" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I77" s="42"/>
       <c r="J77" s="47"/>
@@ -7307,25 +7315,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="77" t="s">
         <v>124</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>125</v>
       </c>
       <c r="D78" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I78" s="34"/>
       <c r="J78" s="42"/>
@@ -7351,25 +7359,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="77" t="s">
         <v>126</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>127</v>
       </c>
       <c r="D79" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H79" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I79" s="34"/>
       <c r="J79" s="42"/>
@@ -7395,25 +7403,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="77" t="s">
         <v>128</v>
-      </c>
-      <c r="C80" s="77" t="s">
-        <v>129</v>
       </c>
       <c r="D80" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="53"/>
@@ -7439,25 +7447,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="77" t="s">
         <v>130</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>131</v>
       </c>
       <c r="D81" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="42"/>
@@ -7738,11 +7746,11 @@
       <c r="C91" s="87"/>
       <c r="D91" s="88"/>
       <c r="E91" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F91" s="90"/>
       <c r="G91" s="89" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H91" s="90"/>
       <c r="I91" s="104"/>
@@ -7769,16 +7777,16 @@
         <v>18</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="99"/>
       <c r="D92" s="99"/>
       <c r="E92" s="97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F92" s="97"/>
       <c r="G92" s="93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H92" s="93"/>
       <c r="I92" s="91"/>

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F1274-EBE1-9C4F-B3CB-47DF4837B653}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38E691-31FA-CE48-B864-35CEB307C12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-20" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="355">
   <si>
     <t>序号</t>
   </si>
@@ -229,9 +229,6 @@
     <t>张潇艺</t>
   </si>
   <si>
-    <t>秦雪</t>
-  </si>
-  <si>
     <t>曹宏悦</t>
   </si>
   <si>
@@ -244,18 +241,12 @@
     <t>昝良士</t>
   </si>
   <si>
-    <t>王明</t>
-  </si>
-  <si>
     <t>刘昌镐</t>
   </si>
   <si>
     <t>欧国梁</t>
   </si>
   <si>
-    <t>林敬凯</t>
-  </si>
-  <si>
     <t>蔡夏菁</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>刘欣鹏</t>
   </si>
   <si>
-    <t>张建东</t>
-  </si>
-  <si>
     <t>湛钊</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>刘雪珂</t>
   </si>
   <si>
-    <t>丁婧伊</t>
-  </si>
-  <si>
     <t>刘桂伶</t>
   </si>
   <si>
@@ -331,9 +316,6 @@
     <t>郭振东</t>
   </si>
   <si>
-    <t>张皓翔</t>
-  </si>
-  <si>
     <t>徐志鹏</t>
   </si>
   <si>
@@ -349,18 +331,12 @@
     <t>宋旻晖</t>
   </si>
   <si>
-    <t>王浩宇</t>
-  </si>
-  <si>
     <t>邵思磊</t>
   </si>
   <si>
     <t>倪俊辉</t>
   </si>
   <si>
-    <t>李泓烨</t>
-  </si>
-  <si>
     <t>周嵩林</t>
   </si>
   <si>
@@ -376,15 +352,9 @@
     <t>庞琨力</t>
   </si>
   <si>
-    <t>梅磊</t>
-  </si>
-  <si>
     <t>邬帅</t>
   </si>
   <si>
-    <t>71Y17101</t>
-  </si>
-  <si>
     <t>黄茵</t>
   </si>
   <si>
@@ -409,9 +379,6 @@
     <t>71Y17105</t>
   </si>
   <si>
-    <t>李若涵</t>
-  </si>
-  <si>
     <t>71Y17106</t>
   </si>
   <si>
@@ -488,9 +455,6 @@
   </si>
   <si>
     <t>杜昕昱</t>
-  </si>
-  <si>
-    <t>71Y17122</t>
   </si>
   <si>
     <t>李浩然</t>
@@ -1582,6 +1546,318 @@
   </si>
   <si>
     <t>张建东 潘世康 袁佳怡  柳沿河 等10多位A+的实验报告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对路径分析得比较仔细，知识点掌握得准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eptr变量少考虑了一条du路径，实验报告排版清晰美观，思路很清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对知识点掌握得比较好，实验报告完成得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中未绘制出对应的程序流图，路径考虑全面，整体完成的很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告清晰美观，对知识点掌握得比较好，思考得比较深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握准确，路径思考深入全面，实验报告做得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中有多个变量的du路径比真实du路径的数量少，可再仔细分析思考，实验报告排版很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对du路径分析深入，考虑得很全面，对知识点掌握的很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告清晰整洁，变量eptr中的pc路径存在一处错误，可再仔细分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握准确，实验报告整体很好，对问题的思考仔细深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中未绘制出程序流图，没有给出各变量对应的pc路径，之后可继续完成流图并对pc路径进行分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中未绘制程序流图，对变量的pu及pc路径考虑得不够全面，可继续深入分析，实验报告可以做得更好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eptr变量的pc路径多考虑了一些路径，注意23既是def又是use。实验报告整体完成的很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中对各变量的pu及pc路径考虑得过少，可再深入进行分析思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各变量并非只有一条pu路径，可对变量的pu及pc路径再进行全面的分析思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于各变量的pu及pc路径还需进行深入分析思考，很多存在路径未进行考虑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告整洁美观，对各个路径思考得很深入，完成的非常好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对各变量的du路径及dc路径的考虑不够全面，可继续深入分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dptr与ok变量的dc路径与正确dc路径有所出入，可进一步分析思考，实验报告清晰美观。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告清晰整洁，但对于多个变量的pc路径有些存在路径未考虑到，实验报告可以完成得更好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量dptr中的dc路径还有一些路径未考虑到，实验报告整体完成得很好，清晰美观。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>digit_lowd的使用节点有一处错误，各路径考虑得很仔细，思考比较深入，实验报告排版非常美观，做得很用心。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于变量encoded只存在有一条pu及pc路径，在对encoded分析DEF与USE是要谨慎。对知识点的掌握比较全面，实验报告完成得很好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；约简du-path和dc-path分析部分存在问题，请结合ppt内容加深理解；实验思路较为清晰；实验思考较为深刻；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析题目时最好给出程序流图；du-path分析存在部分错误，请再仔细分析一下；实验报告排版清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告很用心；实验思路清晰；对于节点，du-path及dc-path的分析准确，知识点掌握准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；变量c的定义节点分析错误，请再仔细思考；注意是根据dc-path设计测试用例；实验思路清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告排版美观，格式规范；实验思路清晰；节点分析准确；能够使用白盒测试工具 JTest 进行测试，并记录下了自己的使用心得，很好；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；最好标出可约简的路径；实验体会部分可以结合问题多做分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图清晰；变量c的定义节点分析错误，请再仔细思考；测试用例部分注意分析相应的信息；要注意实验报告的规范。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析存在部分问题；测试用例部分要体现出对应的测试变量的信息；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要注意实验报告的格式规范；题目要求给出每个变量的定义节点和使用节点；测试用例不够全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意实验报告可以参考其他同学，但是要体现自己的思考；题目要求给出每个变量的定义节点和使用节点；测试用例不够全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；du-path和dc-path分析存在部分错误；能够根据dc-path给出相应测试用例。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告美观；程序流图清晰；节点分析正确；对路径的分析很准确，相应的说明也较为充分；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；路径分析准确；能够根据dc-path给出相应测试用例；实验体会部分也体现了自己的思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析题目时最好给出程序流图；实验报告简洁；测试用例部分注意分析相应的信息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；需要体现对路径的约简；实验体会部分可以结合问题多做分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点分析正确；du-path路径分析时注意同时扮演定义和使用两个角色的节点可以单独作为路径的情况；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；实验思路清晰，测试用例部分应该按照格式完善信息；实验体会较为深刻；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析题目时最好给出程序流图；实验报告美观；对知识点掌握的透彻；实验思路清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；对digit_low的使用节点分析存在问题；体现了对路径的约简；实验体会部分可以结合问题多做分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告格式规范；程序流图美观；节点分析存在部分问题，由于节点分析的错误，du-path和dc-path部分也存在部分错误；实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告美观；程序流图清晰；节点分析正确；对du-path的分析思路准确；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够给出程序流图；节点分析正确；du-path和dc-path存在部分错误，请再仔细分析一下；测试用例部分体现了相应的信息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告格式规范；程序流图美观；注意截图太小了，看不清内容。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图美观；du-path分析存在部分错误，请再仔细分析一下；需要体现对路径的约简；实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>非常完美的实验报告，对定义节点和使用节点分析准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验规范，对知识点掌握准确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23也是eptr的使用节点(猜测是笔误);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握准确；附加的实验花了很大的精力；实验思考深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71Y17101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握准确；实验思考深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eptr和dptr等涉及指针的变量的定义节点和使用节点分析有问题，请再仔细检查。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握准确。注意可约简的DU路径应进行约简。du路径不要求贯穿程序。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的实验报告。附加实验总结了很多干货。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eptr再仔细分析一下，注意eptr对*eptr的影响。类似的题目我们考试的时候可能会考到。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖的du-path或dc-path在测试前可约简。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以encode为例，它的定义节点是7，使用节点是9。eptr的变化不会影响encode的值。同理，注意分析decode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序图是流图，注意其符号。对数据流测试的知识点掌握准确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确</t>
+  </si>
+  <si>
+    <t>应给出具体的定义节点和使用节点，从目前的du-path来看，有些变量的定义节点和使用节点分析可能是有问题的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦雪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>林敬凯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建东</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁婧伊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张皓翔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浩宇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泓烨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李若涵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈诗雨 秦雪 王明  林敬凯  张建东  袁佳怡  丁婧伊  张皓翔  王浩宇  李泓烨  梅磊  黄茵 黄少豪  李若涵   龚德超 王浩楠 杜昕昱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 指针变量的定义分析要注意定义节点的确认，特别是变量没有出现在语句，而间接被定义的情形；
+2. char* eptr= encoded;由于不知道具体编译器对该语句的具体处理，所以视为eptr和*eptr的使用节点这里不算错。
+3. 实验中，encoded和decoded的作用是对eptr, dptr初始化，所以后面不再认为有其它的使用节点。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指针相关变量的定义使用节点，可以参考其他同学的结果，有问题随时问我。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71Y17122</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确。注意准时提交实验报告。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2741,7 +3017,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2891,9 +3167,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3053,6 +3326,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -3916,8 +4198,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3942,68 +4224,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="108" t="s">
+      <c r="J2" s="110"/>
+      <c r="K2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="108" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="111"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="30" t="s">
         <v>29</v>
       </c>
@@ -4040,10 +4322,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="107"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -4092,16 +4374,16 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A4" s="77">
+      <c r="A4" s="76">
         <v>1</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="76">
         <v>17219222</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="34"/>
@@ -4109,11 +4391,11 @@
       <c r="G4" s="37"/>
       <c r="H4" s="50"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="56"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="66"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -4128,36 +4410,40 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A5" s="77">
+      <c r="A5" s="76">
         <v>2</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="76">
         <v>71117101</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="53"/>
+        <v>225</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>277</v>
+      </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="61"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="63"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="19"/>
@@ -4172,36 +4458,40 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A6" s="77">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="76">
         <v>71117103</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="57"/>
+        <v>226</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>278</v>
+      </c>
       <c r="K6" s="34"/>
-      <c r="L6" s="61"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="63"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="19"/>
@@ -4216,36 +4506,40 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A7" s="77">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="76">
         <v>71117104</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="77" t="s">
+      <c r="C7" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="111" t="s">
+        <v>279</v>
+      </c>
       <c r="K7" s="43"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="63"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="19"/>
@@ -4260,36 +4554,40 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A8" s="77">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="76">
         <v>71117105</v>
       </c>
-      <c r="C8" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="58"/>
+        <v>129</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>280</v>
+      </c>
       <c r="K8" s="34"/>
-      <c r="L8" s="61"/>
+      <c r="L8" s="60"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="65"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="19"/>
@@ -4304,36 +4602,40 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A9" s="77">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="76">
         <v>71117106</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="77" t="s">
+      <c r="C9" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="54"/>
+        <v>151</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>281</v>
+      </c>
       <c r="K9" s="34"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="66"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="19"/>
@@ -4348,40 +4650,44 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A10" s="77">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="76">
         <v>71117107</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>282</v>
+      </c>
       <c r="K10" s="34"/>
-      <c r="L10" s="61"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="63"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -4392,36 +4698,40 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A11" s="77">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="76">
         <v>71117108</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="53"/>
+        <v>121</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>283</v>
+      </c>
       <c r="K11" s="34"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="66"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="19"/>
@@ -4436,36 +4746,40 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A12" s="77">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="76">
         <v>71117111</v>
       </c>
-      <c r="C12" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>153</v>
-      </c>
       <c r="H12" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="54"/>
+        <v>232</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="112" t="s">
+        <v>284</v>
+      </c>
       <c r="K12" s="43"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="67"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="19"/>
@@ -4480,36 +4794,40 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A13" s="77">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="76">
         <v>71117112</v>
       </c>
-      <c r="C13" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="77" t="s">
+      <c r="C13" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="59"/>
+        <v>233</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>285</v>
+      </c>
       <c r="K13" s="34"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="66"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="19"/>
@@ -4524,32 +4842,36 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A14" s="77">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="76">
         <v>71117113</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="77" t="s">
+      <c r="C14" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="21"/>
       <c r="G14" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="54"/>
+        <v>151</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>352</v>
+      </c>
       <c r="K14" s="34"/>
-      <c r="L14" s="61"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="63"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="19"/>
@@ -4564,36 +4886,40 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="105">
-      <c r="A15" s="77">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="76">
         <v>71117114</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="77" t="s">
+      <c r="C15" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="59"/>
+      <c r="J15" s="58" t="s">
+        <v>286</v>
+      </c>
       <c r="K15" s="34"/>
-      <c r="L15" s="61"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="63"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="19"/>
@@ -4608,36 +4934,40 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A16" s="77">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="76">
         <v>71117115</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="77" t="s">
+      <c r="C16" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="G16" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="54"/>
+        <v>151</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="K16" s="43"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="66"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="19"/>
@@ -4652,36 +4982,40 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A17" s="77">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="76">
         <v>71117116</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="77" t="s">
+      <c r="C17" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="59"/>
+        <v>151</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>288</v>
+      </c>
       <c r="K17" s="43"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="66"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="19"/>
@@ -4696,36 +5030,40 @@
       <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A18" s="77">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="76">
         <v>71117118</v>
       </c>
-      <c r="C18" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="77" t="s">
+      <c r="C18" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="59"/>
+        <v>238</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>289</v>
+      </c>
       <c r="K18" s="43"/>
-      <c r="L18" s="61"/>
+      <c r="L18" s="60"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="19"/>
@@ -4740,36 +5078,40 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A19" s="77">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="76">
         <v>71117119</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="77" t="s">
+      <c r="C19" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="53"/>
+        <v>136</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>290</v>
+      </c>
       <c r="K19" s="43"/>
-      <c r="L19" s="61"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="66"/>
+      <c r="N19" s="65"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="19"/>
@@ -4784,36 +5126,40 @@
       <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A20" s="77">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="76">
         <v>71117120</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="59"/>
+        <v>240</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="K20" s="43"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="66"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="65"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="19"/>
@@ -4828,36 +5174,40 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A21" s="77">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="76">
         <v>71117121</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="77" t="s">
+      <c r="C21" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="59"/>
+        <v>151</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>291</v>
+      </c>
       <c r="K21" s="34"/>
-      <c r="L21" s="62"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="65"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="19"/>
@@ -4872,36 +5222,40 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A22" s="77">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="76">
         <v>71117122</v>
       </c>
-      <c r="C22" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="77" t="s">
+      <c r="C22" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>292</v>
+      </c>
       <c r="K22" s="43"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="66"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="19"/>
@@ -4916,36 +5270,40 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A23" s="77">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <v>71117123</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="77" t="s">
+      <c r="C23" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>179</v>
+        <v>141</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="59"/>
+        <v>141</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>293</v>
+      </c>
       <c r="K23" s="43"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="66"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="65"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="19"/>
@@ -4960,36 +5318,40 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A24" s="77">
+      <c r="A24" s="76">
         <v>21</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="76">
         <v>71117124</v>
       </c>
-      <c r="C24" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="77" t="s">
+      <c r="C24" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>154</v>
+      <c r="E24" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>142</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>294</v>
+      </c>
       <c r="K24" s="43"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="66"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="65"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="19"/>
@@ -5004,36 +5366,40 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A25" s="77">
+      <c r="A25" s="76">
         <v>22</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="76">
         <v>71117125</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="77" t="s">
+      <c r="C25" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="54"/>
+        <v>129</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>295</v>
+      </c>
       <c r="K25" s="43"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="66"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="65"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="19"/>
@@ -5048,36 +5414,40 @@
       <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A26" s="77">
+      <c r="A26" s="76">
         <v>23</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="76">
         <v>71117128</v>
       </c>
-      <c r="C26" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="77" t="s">
+      <c r="C26" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="59"/>
+        <v>246</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>296</v>
+      </c>
       <c r="K26" s="43"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="66"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="65"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19"/>
@@ -5092,36 +5462,40 @@
       <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A27" s="77">
+      <c r="A27" s="76">
         <v>24</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="76">
         <v>71117129</v>
       </c>
-      <c r="C27" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="77" t="s">
+      <c r="C27" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="59"/>
+        <v>121</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>297</v>
+      </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="66"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="65"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19"/>
@@ -5135,37 +5509,41 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A28" s="77">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A28" s="76">
         <v>25</v>
       </c>
-      <c r="B28" s="77">
+      <c r="B28" s="76">
         <v>71117130</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="77" t="s">
+      <c r="C28" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="59"/>
+        <v>121</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="113" t="s">
+        <v>298</v>
+      </c>
       <c r="K28" s="43"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="66"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="65"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19"/>
@@ -5179,37 +5557,41 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A29" s="77">
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A29" s="76">
         <v>26</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="76">
         <v>71117132</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="77" t="s">
+      <c r="C29" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>147</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="54"/>
+        <v>249</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>299</v>
+      </c>
       <c r="K29" s="43"/>
-      <c r="L29" s="61"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="65"/>
+      <c r="N29" s="64"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19"/>
@@ -5223,37 +5605,41 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A30" s="77">
+    <row r="30" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A30" s="76">
         <v>27</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="76">
         <v>71117136</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="77" t="s">
+      <c r="C30" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="53"/>
+        <v>211</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>300</v>
+      </c>
       <c r="K30" s="43"/>
-      <c r="L30" s="61"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="61"/>
+      <c r="N30" s="60"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19"/>
@@ -5268,28 +5654,28 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A31" s="77">
+      <c r="A31" s="76">
         <v>28</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="76">
         <v>71117170</v>
       </c>
-      <c r="C31" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="77" t="s">
+      <c r="C31" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="37"/>
-      <c r="F31" s="78"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="42"/>
       <c r="H31" s="51"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="57"/>
       <c r="K31" s="43"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="66"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="65"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19"/>
@@ -5303,37 +5689,41 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A32" s="77">
+    <row r="32" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A32" s="76">
         <v>29</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="76">
         <v>71117201</v>
       </c>
-      <c r="C32" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="77" t="s">
+      <c r="C32" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="54"/>
+        <v>212</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>301</v>
+      </c>
       <c r="K32" s="43"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="66"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="65"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19"/>
@@ -5348,36 +5738,40 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A33" s="77">
+      <c r="A33" s="76">
         <v>30</v>
       </c>
-      <c r="B33" s="77">
+      <c r="B33" s="76">
         <v>71117203</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="77" t="s">
+      <c r="C33" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="53"/>
+        <v>141</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>302</v>
+      </c>
       <c r="K33" s="34"/>
-      <c r="L33" s="62"/>
+      <c r="L33" s="61"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="61"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19"/>
@@ -5392,36 +5786,40 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" s="6" customFormat="1" ht="120">
-      <c r="A34" s="77">
+      <c r="A34" s="76">
         <v>31</v>
       </c>
-      <c r="B34" s="77">
+      <c r="B34" s="76">
         <v>71117204</v>
       </c>
-      <c r="C34" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="77" t="s">
+      <c r="C34" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="53"/>
+        <v>215</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>303</v>
+      </c>
       <c r="K34" s="34"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="66"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="65"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="19"/>
@@ -5435,37 +5833,41 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A35" s="77">
+    <row r="35" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A35" s="76">
         <v>32</v>
       </c>
-      <c r="B35" s="77">
+      <c r="B35" s="76">
         <v>71117205</v>
       </c>
-      <c r="C35" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="77" t="s">
+      <c r="C35" s="81" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="53"/>
+        <v>216</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>304</v>
+      </c>
       <c r="K35" s="43"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="66"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="65"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="19"/>
@@ -5480,36 +5882,40 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A36" s="77">
+      <c r="A36" s="76">
         <v>33</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="76">
         <v>71117206</v>
       </c>
-      <c r="C36" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>305</v>
+      </c>
       <c r="K36" s="34"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="66"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="65"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="19"/>
@@ -5524,36 +5930,40 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A37" s="77">
+      <c r="A37" s="76">
         <v>34</v>
       </c>
-      <c r="B37" s="77">
+      <c r="B37" s="76">
         <v>71117207</v>
       </c>
-      <c r="C37" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="77" t="s">
+      <c r="C37" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="53"/>
+        <v>218</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>306</v>
+      </c>
       <c r="K37" s="34"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="66"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="65"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="19"/>
@@ -5567,37 +5977,41 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A38" s="77">
+    <row r="38" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A38" s="76">
         <v>35</v>
       </c>
-      <c r="B38" s="77">
+      <c r="B38" s="76">
         <v>71117208</v>
       </c>
-      <c r="C38" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="59"/>
+        <v>217</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>307</v>
+      </c>
       <c r="K38" s="34"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="66"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="65"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="19"/>
@@ -5611,37 +6025,41 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A39" s="77">
+    <row r="39" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A39" s="76">
         <v>36</v>
       </c>
-      <c r="B39" s="77">
+      <c r="B39" s="76">
         <v>71117209</v>
       </c>
-      <c r="C39" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="77" t="s">
+      <c r="C39" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>308</v>
+      </c>
       <c r="K39" s="34"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="66"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="65"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="19"/>
@@ -5655,37 +6073,41 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A40" s="77">
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A40" s="76">
         <v>37</v>
       </c>
-      <c r="B40" s="77">
+      <c r="B40" s="76">
         <v>71117214</v>
       </c>
-      <c r="C40" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="77" t="s">
+      <c r="C40" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>309</v>
+      </c>
       <c r="K40" s="34"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="66"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="65"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="19"/>
@@ -5699,41 +6121,45 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A41" s="77">
+    <row r="41" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A41" s="76">
         <v>38</v>
       </c>
-      <c r="B41" s="77">
+      <c r="B41" s="76">
         <v>71117216</v>
       </c>
-      <c r="C41" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>310</v>
+      </c>
       <c r="K41" s="34"/>
       <c r="L41" s="24"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="66"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="65"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="74"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="73"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -5744,36 +6170,40 @@
       <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A42" s="77">
+      <c r="A42" s="76">
         <v>39</v>
       </c>
-      <c r="B42" s="77">
+      <c r="B42" s="76">
         <v>71117218</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="77" t="s">
+      <c r="C42" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="54"/>
+        <v>141</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="54" t="s">
+        <v>311</v>
+      </c>
       <c r="K42" s="34"/>
       <c r="L42" s="24"/>
       <c r="M42" s="25"/>
-      <c r="N42" s="66"/>
+      <c r="N42" s="65"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="19"/>
@@ -5787,33 +6217,37 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A43" s="77">
+    <row r="43" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A43" s="76">
         <v>40</v>
       </c>
-      <c r="B43" s="77">
+      <c r="B43" s="76">
         <v>71117219</v>
       </c>
-      <c r="C43" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="77" t="s">
+      <c r="C43" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="59"/>
+        <v>217</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>312</v>
+      </c>
       <c r="K43" s="34"/>
       <c r="L43" s="24"/>
       <c r="M43" s="25"/>
@@ -5832,32 +6266,36 @@
       <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A44" s="77">
+      <c r="A44" s="76">
         <v>41</v>
       </c>
-      <c r="B44" s="77">
+      <c r="B44" s="76">
         <v>71117221</v>
       </c>
-      <c r="C44" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="77" t="s">
+      <c r="C44" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>313</v>
+      </c>
       <c r="K44" s="34"/>
       <c r="L44" s="24"/>
       <c r="M44" s="25"/>
@@ -5875,33 +6313,37 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A45" s="77">
+    <row r="45" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A45" s="76">
         <v>42</v>
       </c>
-      <c r="B45" s="77">
+      <c r="B45" s="76">
         <v>71117222</v>
       </c>
-      <c r="C45" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="77" t="s">
+      <c r="C45" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="53"/>
+        <v>220</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>314</v>
+      </c>
       <c r="K45" s="43"/>
       <c r="L45" s="24"/>
       <c r="M45" s="25"/>
@@ -5919,37 +6361,41 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A46" s="77">
+    <row r="46" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A46" s="76">
         <v>43</v>
       </c>
-      <c r="B46" s="77">
+      <c r="B46" s="76">
         <v>71117223</v>
       </c>
-      <c r="C46" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="77" t="s">
+      <c r="C46" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="53"/>
+        <v>221</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>315</v>
+      </c>
       <c r="K46" s="43"/>
       <c r="L46" s="24"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="66"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="65"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="19"/>
@@ -5964,36 +6410,40 @@
       <c r="Z46" s="13"/>
     </row>
     <row r="47" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A47" s="77">
+      <c r="A47" s="76">
         <v>44</v>
       </c>
-      <c r="B47" s="77">
+      <c r="B47" s="76">
         <v>71117224</v>
       </c>
-      <c r="C47" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="77" t="s">
+      <c r="C47" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="59"/>
+        <v>217</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>316</v>
+      </c>
       <c r="K47" s="43"/>
       <c r="L47" s="24"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="66"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="65"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="19"/>
@@ -6008,40 +6458,44 @@
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A48" s="77">
+      <c r="A48" s="76">
         <v>45</v>
       </c>
-      <c r="B48" s="77">
+      <c r="B48" s="76">
         <v>71117225</v>
       </c>
-      <c r="C48" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="77" t="s">
+      <c r="C48" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="54"/>
+        <v>217</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J48" s="54" t="s">
+        <v>317</v>
+      </c>
       <c r="K48" s="43"/>
       <c r="L48" s="24"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="66"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="65"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="74"/>
+      <c r="R48" s="73"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -6051,36 +6505,41 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A49" s="77">
+    <row r="49" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A49" s="76">
         <v>46</v>
       </c>
-      <c r="B49" s="77">
+      <c r="B49" s="76">
         <v>71117226</v>
       </c>
-      <c r="C49" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="77" t="s">
+      <c r="C49" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="43"/>
+        <v>222</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>318</v>
+      </c>
       <c r="K49" s="43"/>
       <c r="L49" s="24"/>
       <c r="M49" s="34"/>
-      <c r="N49" s="61"/>
+      <c r="N49" s="60"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="19"/>
@@ -6094,37 +6553,41 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A50" s="77">
+    <row r="50" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A50" s="76">
         <v>47</v>
       </c>
-      <c r="B50" s="77">
+      <c r="B50" s="76">
         <v>71117227</v>
       </c>
-      <c r="C50" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="77" t="s">
+      <c r="C50" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>319</v>
+      </c>
       <c r="K50" s="43"/>
       <c r="L50" s="24"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="66"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="65"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="19"/>
@@ -6139,36 +6602,40 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A51" s="77">
+      <c r="A51" s="76">
         <v>48</v>
       </c>
-      <c r="B51" s="77">
+      <c r="B51" s="76">
         <v>71117228</v>
       </c>
-      <c r="C51" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="77" t="s">
+      <c r="C51" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="D51" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="54"/>
+        <v>223</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>320</v>
+      </c>
       <c r="K51" s="34"/>
-      <c r="L51" s="61"/>
+      <c r="L51" s="60"/>
       <c r="M51" s="34"/>
-      <c r="N51" s="61"/>
+      <c r="N51" s="60"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="19"/>
@@ -6183,32 +6650,36 @@
       <c r="Z51" s="13"/>
     </row>
     <row r="52" spans="1:26" s="7" customFormat="1" ht="60">
-      <c r="A52" s="77">
+      <c r="A52" s="76">
         <v>49</v>
       </c>
-      <c r="B52" s="77">
+      <c r="B52" s="76">
         <v>71117229</v>
       </c>
-      <c r="C52" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="77" t="s">
+      <c r="C52" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="53"/>
+        <v>224</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="53" t="s">
+        <v>321</v>
+      </c>
       <c r="K52" s="43"/>
       <c r="L52" s="24"/>
       <c r="M52" s="25"/>
@@ -6227,32 +6698,36 @@
       <c r="Z52" s="13"/>
     </row>
     <row r="53" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A53" s="77">
+      <c r="A53" s="76">
         <v>50</v>
       </c>
-      <c r="B53" s="77">
+      <c r="B53" s="76">
         <v>71117230</v>
       </c>
-      <c r="C53" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="D53" s="77" t="s">
+      <c r="C53" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="53"/>
+        <v>274</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>322</v>
+      </c>
       <c r="K53" s="43"/>
       <c r="L53" s="24"/>
       <c r="M53" s="25"/>
@@ -6270,33 +6745,37 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A54" s="77">
+    <row r="54" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A54" s="76">
         <v>51</v>
       </c>
-      <c r="B54" s="77">
+      <c r="B54" s="76">
         <v>71117231</v>
       </c>
-      <c r="C54" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="77" t="s">
+      <c r="C54" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="59"/>
+        <v>217</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="58" t="s">
+        <v>323</v>
+      </c>
       <c r="K54" s="34"/>
       <c r="L54" s="24"/>
       <c r="M54" s="25"/>
@@ -6315,16 +6794,16 @@
       <c r="Z54" s="13"/>
     </row>
     <row r="55" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A55" s="77">
+      <c r="A55" s="76">
         <v>52</v>
       </c>
-      <c r="B55" s="77">
+      <c r="B55" s="76">
         <v>71117233</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="34"/>
@@ -6332,11 +6811,11 @@
       <c r="G55" s="43"/>
       <c r="H55" s="48"/>
       <c r="I55" s="43"/>
-      <c r="J55" s="59"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="43"/>
       <c r="L55" s="24"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="66"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="65"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="19"/>
@@ -6351,32 +6830,36 @@
       <c r="Z55" s="13"/>
     </row>
     <row r="56" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A56" s="77">
+      <c r="A56" s="76">
         <v>53</v>
       </c>
-      <c r="B56" s="77">
+      <c r="B56" s="76">
         <v>71117234</v>
       </c>
-      <c r="C56" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="77" t="s">
+      <c r="C56" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="59"/>
+        <v>141</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>325</v>
+      </c>
       <c r="K56" s="34"/>
       <c r="L56" s="24"/>
       <c r="M56" s="25"/>
@@ -6395,32 +6878,36 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A57" s="77">
+      <c r="A57" s="76">
         <v>54</v>
       </c>
-      <c r="B57" s="77">
+      <c r="B57" s="76">
         <v>71117235</v>
       </c>
-      <c r="C57" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="77" t="s">
+      <c r="C57" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="80" t="s">
-        <v>133</v>
+      <c r="E57" s="79" t="s">
+        <v>121</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="I57" s="43"/>
-      <c r="J57" s="59"/>
+        <v>251</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K57" s="34"/>
       <c r="L57" s="24"/>
       <c r="M57" s="25"/>
@@ -6439,32 +6926,36 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A58" s="77">
+      <c r="A58" s="76">
         <v>55</v>
       </c>
-      <c r="B58" s="77">
+      <c r="B58" s="76">
         <v>71117436</v>
       </c>
-      <c r="C58" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="77" t="s">
+      <c r="C58" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H58" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="53"/>
+        <v>252</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>327</v>
+      </c>
       <c r="K58" s="34"/>
       <c r="L58" s="24"/>
       <c r="M58" s="20"/>
@@ -6483,36 +6974,40 @@
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A59" s="77">
+      <c r="A59" s="76">
         <v>56</v>
       </c>
-      <c r="B59" s="77">
+      <c r="B59" s="76">
         <v>71118123</v>
       </c>
-      <c r="C59" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="77" t="s">
+      <c r="C59" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="D59" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="59"/>
+      <c r="J59" s="58" t="s">
+        <v>328</v>
+      </c>
       <c r="K59" s="34"/>
       <c r="L59" s="24"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="66"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="65"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="19"/>
@@ -6527,16 +7022,16 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A60" s="77">
+      <c r="A60" s="76">
         <v>57</v>
       </c>
-      <c r="B60" s="77">
+      <c r="B60" s="76">
         <v>71118325</v>
       </c>
-      <c r="C60" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="77" t="s">
+      <c r="C60" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="34"/>
@@ -6544,7 +7039,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="51"/>
       <c r="I60" s="34"/>
-      <c r="J60" s="59"/>
+      <c r="J60" s="58"/>
       <c r="K60" s="34"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
@@ -6563,36 +7058,40 @@
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A61" s="77">
+      <c r="A61" s="76">
         <v>58</v>
       </c>
-      <c r="B61" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="77" t="s">
+      <c r="B61" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="59"/>
+        <v>121</v>
+      </c>
+      <c r="H61" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K61" s="34"/>
       <c r="L61" s="24"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="65"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="19"/>
@@ -6607,32 +7106,36 @@
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A62" s="77">
+      <c r="A62" s="76">
         <v>59</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="77" t="s">
+      <c r="B62" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H62" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="53"/>
+        <v>141</v>
+      </c>
+      <c r="H62" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="I62" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J62" s="58" t="s">
+        <v>330</v>
+      </c>
       <c r="K62" s="34"/>
       <c r="L62" s="24"/>
       <c r="M62" s="20"/>
@@ -6651,32 +7154,36 @@
       <c r="Z62" s="13"/>
     </row>
     <row r="63" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A63" s="77">
+      <c r="A63" s="76">
         <v>60</v>
       </c>
-      <c r="B63" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="77" t="s">
+      <c r="B63" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H63" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="59"/>
+        <v>256</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J63" s="58" t="s">
+        <v>331</v>
+      </c>
       <c r="K63" s="34"/>
       <c r="L63" s="24"/>
       <c r="M63" s="20"/>
@@ -6695,32 +7202,36 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A64" s="77">
+      <c r="A64" s="76">
         <v>61</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="77" t="s">
+      <c r="B64" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H64" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="53"/>
+        <v>257</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>332</v>
+      </c>
       <c r="K64" s="34"/>
       <c r="L64" s="24"/>
       <c r="M64" s="20"/>
@@ -6739,32 +7250,36 @@
       <c r="Z64" s="13"/>
     </row>
     <row r="65" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A65" s="77">
+      <c r="A65" s="76">
         <v>62</v>
       </c>
-      <c r="B65" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="77" t="s">
+      <c r="B65" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="D65" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="83" t="s">
-        <v>270</v>
-      </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="55"/>
+        <v>121</v>
+      </c>
+      <c r="H65" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J65" s="53" t="s">
+        <v>333</v>
+      </c>
       <c r="K65" s="34"/>
       <c r="L65" s="24"/>
       <c r="M65" s="20"/>
@@ -6783,32 +7298,36 @@
       <c r="Z65" s="13"/>
     </row>
     <row r="66" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A66" s="77">
+      <c r="A66" s="76">
         <v>63</v>
       </c>
-      <c r="B66" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="77" t="s">
+      <c r="B66" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="H66" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>334</v>
+      </c>
       <c r="K66" s="34"/>
       <c r="L66" s="24"/>
       <c r="M66" s="20"/>
@@ -6827,32 +7346,36 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A67" s="77">
+      <c r="A67" s="76">
         <v>64</v>
       </c>
-      <c r="B67" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="77" t="s">
+      <c r="B67" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="59"/>
+        <v>260</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J67" s="58" t="s">
+        <v>335</v>
+      </c>
       <c r="K67" s="20"/>
       <c r="L67" s="24"/>
       <c r="M67" s="20"/>
@@ -6871,32 +7394,36 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A68" s="77">
+      <c r="A68" s="76">
         <v>65</v>
       </c>
-      <c r="B68" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="77" t="s">
+      <c r="B68" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="81" t="s">
-        <v>217</v>
+      <c r="E68" s="80" t="s">
+        <v>205</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="H68" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K68" s="20"/>
       <c r="L68" s="24"/>
       <c r="M68" s="20"/>
@@ -6915,32 +7442,36 @@
       <c r="Z68" s="13"/>
     </row>
     <row r="69" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A69" s="77">
+      <c r="A69" s="76">
         <v>66</v>
       </c>
-      <c r="B69" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="77" t="s">
+      <c r="B69" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H69" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="59"/>
+        <v>262</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="58" t="s">
+        <v>336</v>
+      </c>
       <c r="K69" s="20"/>
       <c r="L69" s="24"/>
       <c r="M69" s="20"/>
@@ -6959,32 +7490,36 @@
       <c r="Z69" s="13"/>
     </row>
     <row r="70" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A70" s="77">
+      <c r="A70" s="76">
         <v>67</v>
       </c>
-      <c r="B70" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="77" t="s">
+      <c r="B70" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="59"/>
+        <v>263</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" s="58" t="s">
+        <v>337</v>
+      </c>
       <c r="K70" s="20"/>
       <c r="L70" s="24"/>
       <c r="M70" s="20"/>
@@ -7003,32 +7538,36 @@
       <c r="Z70" s="13"/>
     </row>
     <row r="71" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A71" s="77">
+      <c r="A71" s="76">
         <v>68</v>
       </c>
-      <c r="B71" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="77" t="s">
+      <c r="B71" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="53"/>
+        <v>264</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J71" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K71" s="20"/>
       <c r="L71" s="53"/>
       <c r="M71" s="20"/>
@@ -7047,32 +7586,36 @@
       <c r="Z71" s="13"/>
     </row>
     <row r="72" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A72" s="77">
+      <c r="A72" s="76">
         <v>69</v>
       </c>
-      <c r="B72" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="77" t="s">
+      <c r="B72" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H72" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="47"/>
+        <v>265</v>
+      </c>
+      <c r="I72" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K72" s="20"/>
       <c r="L72" s="53"/>
       <c r="M72" s="20"/>
@@ -7091,32 +7634,36 @@
       <c r="Z72" s="13"/>
     </row>
     <row r="73" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A73" s="77">
+      <c r="A73" s="76">
         <v>70</v>
       </c>
-      <c r="B73" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="77" t="s">
+      <c r="B73" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="60"/>
+        <v>266</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K73" s="20"/>
       <c r="L73" s="53"/>
       <c r="M73" s="20"/>
@@ -7135,32 +7682,36 @@
       <c r="Z73" s="13"/>
     </row>
     <row r="74" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A74" s="77">
+      <c r="A74" s="76">
         <v>71</v>
       </c>
-      <c r="B74" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="77" t="s">
+      <c r="B74" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="47"/>
+        <v>267</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J74" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K74" s="20"/>
       <c r="L74" s="53"/>
       <c r="M74" s="20"/>
@@ -7179,32 +7730,36 @@
       <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A75" s="77">
+      <c r="A75" s="76">
         <v>72</v>
       </c>
-      <c r="B75" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="77" t="s">
+      <c r="B75" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="84" t="s">
-        <v>141</v>
+        <v>197</v>
+      </c>
+      <c r="G75" s="83" t="s">
+        <v>129</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="53"/>
+        <v>268</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K75" s="23"/>
       <c r="L75" s="53"/>
       <c r="M75" s="20"/>
@@ -7223,32 +7778,36 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A76" s="77">
+      <c r="A76" s="76">
         <v>73</v>
       </c>
-      <c r="B76" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="77" t="s">
+      <c r="B76" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="47"/>
+        <v>269</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K76" s="20"/>
       <c r="L76" s="53"/>
       <c r="M76" s="20"/>
@@ -7267,32 +7826,36 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A77" s="77">
+      <c r="A77" s="76">
         <v>74</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>133</v>
-      </c>
       <c r="F77" s="21" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="I77" s="42"/>
-      <c r="J77" s="47"/>
+        <v>270</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K77" s="20"/>
       <c r="L77" s="53"/>
       <c r="M77" s="20"/>
@@ -7310,33 +7873,37 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A78" s="77">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A78" s="76">
         <v>75</v>
       </c>
-      <c r="B78" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="77" t="s">
+      <c r="B78" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="79" t="s">
-        <v>212</v>
+        <v>121</v>
+      </c>
+      <c r="F78" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="42"/>
+        <v>271</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="J78" s="51" t="s">
+        <v>339</v>
+      </c>
       <c r="K78" s="20"/>
       <c r="L78" s="42"/>
       <c r="M78" s="20"/>
@@ -7355,32 +7922,36 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A79" s="77">
+      <c r="A79" s="76">
         <v>76</v>
       </c>
-      <c r="B79" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="77" t="s">
+      <c r="B79" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I79" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F79" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="42"/>
+      <c r="J79" s="58" t="s">
+        <v>326</v>
+      </c>
       <c r="K79" s="20"/>
       <c r="L79" s="42"/>
       <c r="M79" s="20"/>
@@ -7399,32 +7970,36 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A80" s="77">
+      <c r="A80" s="76">
         <v>77</v>
       </c>
-      <c r="B80" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="77" t="s">
+      <c r="B80" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D80" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>140</v>
-      </c>
       <c r="H80" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="53"/>
+        <v>273</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J80" s="53" t="s">
+        <v>354</v>
+      </c>
       <c r="K80" s="20"/>
       <c r="L80" s="53"/>
       <c r="M80" s="20"/>
@@ -7443,32 +8018,36 @@
       <c r="Z80" s="13"/>
     </row>
     <row r="81" spans="1:26" s="6" customFormat="1" ht="46" thickBot="1">
-      <c r="A81" s="77">
+      <c r="A81" s="76">
         <v>78</v>
       </c>
-      <c r="B81" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="D81" s="77" t="s">
+      <c r="B81" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="76" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F81" s="79" t="s">
-        <v>215</v>
+        <v>151</v>
+      </c>
+      <c r="F81" s="78" t="s">
+        <v>203</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="42"/>
+        <v>217</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="K81" s="20"/>
       <c r="L81" s="42"/>
       <c r="M81" s="20"/>
@@ -7496,7 +8075,7 @@
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
-      <c r="J82" s="60"/>
+      <c r="J82" s="59"/>
       <c r="K82" s="20"/>
       <c r="L82" s="53"/>
       <c r="M82" s="20"/>
@@ -7739,26 +8318,28 @@
       <c r="Z90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="48" customHeight="1" thickBot="1">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="F91" s="90"/>
-      <c r="G91" s="89" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="90"/>
-      <c r="I91" s="104"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="104"/>
-      <c r="N91" s="105"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="89"/>
+      <c r="G91" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="H91" s="89"/>
+      <c r="I91" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="J91" s="89"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="104"/>
+      <c r="M91" s="103"/>
+      <c r="N91" s="104"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -7773,30 +8354,32 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="94" t="s">
+      <c r="A92" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="97"/>
-      <c r="G92" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="H92" s="93"/>
-      <c r="I92" s="91"/>
-      <c r="J92" s="91"/>
-      <c r="K92" s="91"/>
-      <c r="L92" s="91"/>
-      <c r="M92" s="92"/>
-      <c r="N92" s="92"/>
-      <c r="O92" s="91"/>
-      <c r="P92" s="91"/>
+      <c r="B92" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="98"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="96"/>
+      <c r="G92" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="J92" s="92"/>
+      <c r="K92" s="90"/>
+      <c r="L92" s="90"/>
+      <c r="M92" s="91"/>
+      <c r="N92" s="91"/>
+      <c r="O92" s="90"/>
+      <c r="P92" s="90"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -7809,22 +8392,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="95"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="91"/>
-      <c r="K93" s="91"/>
-      <c r="L93" s="91"/>
-      <c r="M93" s="92"/>
-      <c r="N93" s="92"/>
-      <c r="O93" s="91"/>
-      <c r="P93" s="91"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="100"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="92"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="90"/>
+      <c r="L93" s="90"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="90"/>
+      <c r="P93" s="90"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -7837,22 +8420,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="96"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="91"/>
-      <c r="J94" s="91"/>
-      <c r="K94" s="91"/>
-      <c r="L94" s="91"/>
-      <c r="M94" s="92"/>
-      <c r="N94" s="92"/>
-      <c r="O94" s="91"/>
-      <c r="P94" s="91"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="90"/>
+      <c r="L94" s="90"/>
+      <c r="M94" s="91"/>
+      <c r="N94" s="91"/>
+      <c r="O94" s="90"/>
+      <c r="P94" s="90"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -7864,28 +8447,28 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="85" customFormat="1">
-      <c r="A96" s="85" t="s">
+    <row r="96" spans="1:26" s="84" customFormat="1">
+      <c r="A96" s="84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="85" customFormat="1">
-      <c r="A97" s="85" t="s">
+    <row r="97" spans="1:9" s="84" customFormat="1">
+      <c r="A97" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68" t="s">
+      <c r="A98" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38E691-31FA-CE48-B864-35CEB307C12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01B32B-9C70-3642-926A-30CE32B0DAA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="423">
   <si>
     <t>序号</t>
   </si>
@@ -226,15 +226,6 @@
     <t>女 </t>
   </si>
   <si>
-    <t>张潇艺</t>
-  </si>
-  <si>
-    <t>曹宏悦</t>
-  </si>
-  <si>
-    <t>唐珞鑫</t>
-  </si>
-  <si>
     <t>戚凝</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>欧国梁</t>
   </si>
   <si>
-    <t>蔡夏菁</t>
-  </si>
-  <si>
     <t>林金磊</t>
   </si>
   <si>
@@ -281,9 +269,6 @@
   </si>
   <si>
     <t>李雨峤</t>
-  </si>
-  <si>
-    <t>潘世康</t>
   </si>
   <si>
     <t>沈震</t>
@@ -1860,6 +1845,311 @@
     <t>对数据流测试的知识点掌握准确。注意准时提交实验报告。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 综合使用等价类划分和边界值分析，而不需要把二者完全独立测试，避免构造重复的测试用例。
+2. 实验1中，无效等价类要尽量细分，除了综合考虑年月日的各种非法输入的无效等价类外，还可以考虑年，月，日参数是否完整等情况。
+3. 实验2中，边界值分析除了两个四边形关系造成的边界情况外，还应考虑两个四边形本身的边界，即退化为点、线段、达到整形数类型上界大小的情况等。
+4. 测试用例设计时，要注意Expected的正确取值，当两个矩形有覆盖时，Expected=True，反之为False.
+5. 如果给定“覆盖结果为线或点不属于覆盖”的话，则被测6种方法只有e正确，其它都有BUG存在。
+6. 注意对输入参数属于同一类型时，要注意进行参数交换的测试，避免程序中有混淆参数的BUG存在。在这里需要考虑交换两个四边形的输入次序。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等价类设计考虑得很全面，尤其是对无效等价类。
+任务1中的等价类划分时，也要考虑3个参数关联情况时的等价类，而不是只有在边界值分析时才考虑参数关联。
+边界条件可以考虑一些极端的情况，例如整数的最大值等。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2中的表分别是对应哪种等价类？这里的等价类是否考虑两个矩形重叠的各种情况？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用。
+边界条件可以考虑一些极端的情况，例如整数的最大值等。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用，并能考虑一些极端的情况，例如整数的最大值等。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用；无效等价类可以细分；另外，还可以在边界值分析中考虑一些极端的情况，例如边长是整型数的最大值等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用；可以在边界值分析中考虑一些极端的情况，例如边长是整型数的最大值等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1中等价类的划分很有条理，无效等价类可以更细一些；
+对实验的思考和总结很有深度。黑盒测试事实上是难于白盒测试的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1的等价类和边界值分析都非常合理；任务2的等价类是否少了2个矩形包含的情形；任务2可以在边界值分析中考虑一些极端的情况，例如边长是整型数的最大值等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1的等价类划分可以更细一些，即除了3个参数连续的日期外，还可以考虑年、月、日在不同情形下的等价类；
+任务2固定一个矩形，虽然简化了测试，但这不能代表用户使用时会固定一个矩形。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1的等价类划分可以细化；
+任务2测试中固定矩形，不能代表用户使用时会固定一个矩形。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，能对两种基本的黑盒测试方法能灵活应用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好的实验报告！测试用例设计合理，对两种基本的黑盒测试方法能灵活应用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好的实验报告！测试用例设计合理，对两种基本的黑盒测试方法能灵活应用。
+任务2可以考虑在边界值分析中测试隐性边界，如矩阵边长是整型数最大值。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务2的无效等价类细分；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例设计合理，对两种基本的黑盒测试方法能灵活应用;任务2的等价类划分是可以考虑两矩形的各种覆盖情况，边界值分析则着重考虑输入取值的边界问题，这样测试工作量会减少。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张潇艺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹宏悦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐珞鑫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡夏菁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘世康</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对知识点掌握准确，各种情况考虑深入，实验思路清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路清晰；知识点掌握准确；并结合实验报告的思考题进行分析理解，实验报告做的很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得非常好，思路清晰严谨，对各个等价类分析准确深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，思路严谨深刻，对知识点掌握准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得非常好，排版美观规范，思考严谨深入！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告比较好，各种情况考虑得比较深入，实验报告排版规范。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四边形覆盖问题的边界分析可更加深入进行思考；实验报告整体完成地比较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四边形覆盖问题中的边界值分析方法可更详细地对边界进行分析，实验报告整体思路比较清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextDate中的边界值分析3.2中存在一些小错误；缺少实验二的报告内容。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对等价类的分析情况不够全面，还有多个情况未进行考虑分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextDate中的边界分析中存在一些问题；对于各个问题的思考深入，实验报告清晰规范，完成得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握比较准确，实验报告完成得很认真，非常好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于各个情况分析比较全面，思考深入，实验报告完成的很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分准确，边界值分析全面，各种情况考虑得比较深入，实验报告排版规范。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告缺少了实验二的报告内容，请课后继续思考；实验一思路比较严谨，完成得比较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate的等价类可继续深入分析得到更详细的情况；实验一未进行边界分析；缺少实验二的报告内容。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate的测试用例可以考虑更多的情况；实验二可进行更加详细的讨论，对其等价类，边界值进行深入分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate在边界分析中存在一点小失误；整体实验报告完成得比较好，思路清晰深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate等价类缺少了一些情况的考虑，并可对已考虑情况进行深入思考给出更详细的情况；实验报告整体完成比较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验二中的等价类划分存在一些问题；实验报告整体考虑比较深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很认真，知识点掌握得比较准确，对各种情况考虑得很仔细。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告中NextDate的等价类的划分可以更加详细，测试用例可覆盖更多的情况；是呀实验考虑的很深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate中等价类的分析可更加详细；边界值分析存在有一些问题，可继续深入分析；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验中等价类划分和边界值分析较为清晰准确；对函数bug的分析详细；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效等价类的划分可以再详细一点；划去的测试用例可以不显示在图表中；实验2的等价类划分很直观。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合使用等价类划分和边界值分析，不需要把二者完全独立测试；缺少对函数bug的分析；实验体会部分可以结合思考题进行分析理解。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一中等价类划分存在部分不足，再仔细分析一下；边界值和老师的ppt方法不一样，体现自己的思考；实验2还要考虑矩形本身的边界。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合使用等价类划分和边界值分析方法测试即可；实验测试思路清晰；实验体会部分结合了思考题进行分析理解，较为不错。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验中等价类划分和边界值分析较为清晰准确；实验二中没有分析6种函数中是否存在bug；实验2还要考虑矩形本身的边界。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合使用等价类划分和边界值分析，而不需要把二者完全独立测试，避免构造重复的测试用例；实验2要分析两个四边形的关系情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一的无效等价类划分要尽量细致一点；实验2要分析两个四边形的关系情况，还要注意四边形本身的边界。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分和边界值分析思路清晰准确；实验二中不仅分析了四边形的关系，还考虑到了四边形本身的取值边界；实验体会部分结合思考题进行深入的分析，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意实验一的要求是综合使用等价类划分和边界值分析方法对该程序进行黑盒测试，徐亚给出测试用例；实验2也要使用边界值方法分析；实验体会部分要多思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告的格式注意一下，打开的时候出现问题；综合使用等价类划分和边界值分析方法测试即可；测试用例可以简化一下；缺少对6个函数bug的分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路清晰；综合使用等价类划分和边界值分析，而不需要独立测试，避免构造重复的测试用例;实验2的边界分析较为全面，步骤规范；缺少实验体会部分。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一中需要使用边界值方法测试，请参照课程ppt中的形式步骤进行分析；实验2要将无效等价类的划分理由说的详细一点，同样要按实验1的方法分析；实验体会部分要多思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一的无效等价类划分要尽量细致一点，可以考虑年，月，日参数是否完整等情况；实验2要对你设计的表格辅以适当的说明；对函数bug的分析和透彻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一的边界值分析不够全面，再仔细思考一下；测试用例可以在保证全面的基础上精简；实验思路清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告美观；实验一中边界值分析较为详细；实验思路较为清晰，测试用例详尽；实验体会部分能够结合思考题进行分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验中等价类划分和边界值分析较为清晰准确；知识点掌握准确；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分和边界值分析较为清晰准确，但是综合使用等价类和边界值方法设计测试用例即可；实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分较为详细；知识点掌握准确；实验报告清晰；两种方法需要综合使用，而不是独立开来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验分析步骤规范；将实验中出现的问题总结了出来，并进行了深入思考，不错。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分较为详细；测试用例覆盖全面；实验二中不仅分析了四边形的关系，还考虑到了四边形本身的取值边界；可以对函数的bug分析一下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate中月的边界条件分析中存在一些问题，对各个情况的分析比较仔细，知识点掌握比较准确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分和边界值分析准确；实验2要考虑两个四边形关系造成的边界情况；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路正确，实验步骤规范；等价类和边界值的分析详细；实验2还可以考虑一下四边形的数值整型取值上界。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDate中的边界分析可给出其边界，使得更加简洁；可将边界分析与测试用例分开讨论，使实验报告更易理解；实验报告对各等价类情况考虑比较全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很认真，测试用例考虑得很全面。等价类分析可标记出其有效及无效；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张潇艺 曹宏悦 唐珞鑫 王浩楠 王浩宇 林敬凯 林金磊 张建东 潘世康 葛余浩 谯钰霖 沈震 吕峻溟 姜子玥 袁佳怡 刘雪珂 丁婧伊 张皓翔 徐志鹏 李若涵 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1868,7 +2158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,6 +2423,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3017,7 +3315,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3075,7 +3373,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3248,6 +3545,39 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3273,15 +3603,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,32 +3633,11 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -4198,8 +4501,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91:J91"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4208,8 +4511,8 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="32" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
@@ -4223,73 +4526,73 @@
     <col min="17" max="17" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:26" ht="43" customHeight="1" thickBot="1">
+      <c r="A1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="107" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="107" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="29"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
@@ -4317,19 +4620,19 @@
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="106"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -4374,28 +4677,28 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A4" s="76">
+      <c r="A4" s="75">
         <v>1</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="75">
         <v>17219222</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="65"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="64"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -4409,41 +4712,45 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A5" s="76">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="135">
+      <c r="A5" s="75">
         <v>2</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="75">
         <v>71117101</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>121</v>
+      <c r="E5" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>121</v>
+        <v>143</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="19"/>
@@ -4457,41 +4764,45 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A6" s="76">
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A6" s="75">
         <v>3</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="75">
         <v>71117103</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="80" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>121</v>
+      <c r="E6" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="62"/>
+        <v>117</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="19"/>
@@ -4506,40 +4817,44 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A7" s="76">
+      <c r="A7" s="75">
         <v>4</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="75">
         <v>71117104</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>121</v>
+      <c r="E7" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="62"/>
+        <v>118</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="M7" s="62"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="19"/>
@@ -4554,40 +4869,44 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A8" s="76">
+      <c r="A8" s="75">
         <v>5</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="75">
         <v>71117105</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>129</v>
+      <c r="E8" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="64"/>
+      <c r="H8" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="19"/>
@@ -4602,40 +4921,44 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A9" s="76">
+      <c r="A9" s="75">
         <v>6</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="75">
         <v>71117106</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>121</v>
+      <c r="E9" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="65"/>
+        <v>120</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="19"/>
@@ -4649,45 +4972,49 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A10" s="76">
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A10" s="75">
         <v>7</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>71117107</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="62"/>
+      <c r="G10" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -4697,41 +5024,45 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A11" s="76">
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A11" s="75">
         <v>8</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>71117108</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="C11" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>128</v>
+      <c r="E11" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="111" t="s">
-        <v>283</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="65"/>
+        <v>122</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="19"/>
@@ -4745,41 +5076,45 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A12" s="76">
+    <row r="12" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A12" s="75">
         <v>9</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>71117111</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" s="76" t="s">
+      <c r="C12" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>141</v>
+      <c r="E12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="66"/>
+        <v>227</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M12" s="62"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="19"/>
@@ -4794,40 +5129,44 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A13" s="76">
+      <c r="A13" s="75">
         <v>10</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>71117112</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>129</v>
+      <c r="E13" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65"/>
+        <v>228</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="19"/>
@@ -4842,36 +5181,36 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A14" s="76">
+      <c r="A14" s="75">
         <v>11</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>71117113</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>352</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="62"/>
+      <c r="G14" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="61"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="19"/>
@@ -4886,40 +5225,44 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="105">
-      <c r="A15" s="76">
+      <c r="A15" s="75">
         <v>12</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="75">
         <v>71117114</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" s="76" t="s">
+      <c r="C15" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>129</v>
+      <c r="E15" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="62"/>
+        <v>230</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="19"/>
@@ -4933,41 +5276,45 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A16" s="76">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A16" s="75">
         <v>13</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>71117115</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>121</v>
+      <c r="E16" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="65"/>
+        <v>128</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="19"/>
@@ -4982,40 +5329,44 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A17" s="76">
+      <c r="A17" s="75">
         <v>14</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>71117116</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="76" t="s">
+      <c r="C17" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>128</v>
+      <c r="E17" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="65"/>
+        <v>129</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="19"/>
@@ -5030,40 +5381,44 @@
       <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A18" s="76">
+      <c r="A18" s="75">
         <v>15</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>71117118</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>121</v>
+      <c r="E18" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="65"/>
+        <v>233</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="64"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="19"/>
@@ -5078,40 +5433,44 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A19" s="76">
+      <c r="A19" s="75">
         <v>16</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>71117119</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>121</v>
+      <c r="E19" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="65"/>
+      <c r="L19" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="19"/>
@@ -5125,41 +5484,45 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A20" s="76">
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="105">
+      <c r="A20" s="75">
         <v>17</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="75">
         <v>71117120</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="76" t="s">
+      <c r="C20" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>121</v>
+      <c r="E20" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>121</v>
+        <v>132</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="65"/>
+        <v>235</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="64"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="19"/>
@@ -5174,40 +5537,44 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A21" s="76">
+      <c r="A21" s="75">
         <v>18</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>71117121</v>
       </c>
-      <c r="C21" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="76" t="s">
+      <c r="C21" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>129</v>
+      <c r="E21" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="65"/>
+        <v>133</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="19"/>
@@ -5222,40 +5589,44 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A22" s="76">
+      <c r="A22" s="75">
         <v>19</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>71117122</v>
       </c>
-      <c r="C22" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="76" t="s">
+      <c r="C22" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>140</v>
+      <c r="E22" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="65"/>
+        <v>134</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="M22" s="62"/>
+      <c r="N22" s="64"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="19"/>
@@ -5269,41 +5640,45 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A23" s="76">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A23" s="75">
         <v>20</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>71117123</v>
       </c>
-      <c r="C23" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="76" t="s">
+      <c r="C23" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="65"/>
+      <c r="E23" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="M23" s="62"/>
+      <c r="N23" s="64"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="19"/>
@@ -5318,40 +5693,44 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A24" s="76">
+      <c r="A24" s="75">
         <v>21</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="75">
         <v>71117124</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="76" t="s">
+      <c r="C24" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="65"/>
+      <c r="E24" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="64"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="19"/>
@@ -5365,41 +5744,45 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A25" s="76">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A25" s="75">
         <v>22</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>71117125</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="76" t="s">
+      <c r="C25" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>121</v>
+      <c r="E25" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="65"/>
+        <v>138</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="19"/>
@@ -5413,41 +5796,45 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A26" s="76">
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A26" s="75">
         <v>23</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="75">
         <v>71117128</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="76" t="s">
+      <c r="C26" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>129</v>
+      <c r="E26" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="65"/>
+        <v>139</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="M26" s="62"/>
+      <c r="N26" s="64"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19"/>
@@ -5462,40 +5849,44 @@
       <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A27" s="76">
+      <c r="A27" s="75">
         <v>24</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>71117129</v>
       </c>
-      <c r="C27" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="76" t="s">
+      <c r="C27" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>121</v>
+      <c r="E27" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="65"/>
+        <v>140</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="M27" s="62"/>
+      <c r="N27" s="64"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19"/>
@@ -5510,40 +5901,44 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A28" s="76">
+      <c r="A28" s="75">
         <v>25</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>71117130</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="76" t="s">
+      <c r="C28" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>121</v>
+      <c r="E28" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="113" t="s">
-        <v>298</v>
-      </c>
-      <c r="K28" s="43"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="65"/>
+        <v>141</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="M28" s="62"/>
+      <c r="N28" s="64"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19"/>
@@ -5558,40 +5953,44 @@
       <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A29" s="76">
+      <c r="A29" s="75">
         <v>26</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>71117132</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="76" t="s">
+      <c r="C29" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>141</v>
+      <c r="E29" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="64"/>
+        <v>244</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="63"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19"/>
@@ -5606,40 +6005,44 @@
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A30" s="76">
+      <c r="A30" s="75">
         <v>27</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <v>71117136</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="76" t="s">
+      <c r="C30" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>154</v>
+      <c r="E30" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="60"/>
+        <v>144</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="59"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19"/>
@@ -5654,28 +6057,28 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A31" s="76">
+      <c r="A31" s="75">
         <v>28</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <v>71117170</v>
       </c>
-      <c r="C31" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="76" t="s">
+      <c r="C31" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="65"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19"/>
@@ -5690,40 +6093,44 @@
       <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A32" s="76">
+      <c r="A32" s="75">
         <v>29</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="75">
         <v>71117201</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="76" t="s">
+      <c r="C32" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>154</v>
+      <c r="E32" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="65"/>
+        <v>207</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="M32" s="62"/>
+      <c r="N32" s="64"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19"/>
@@ -5738,40 +6145,44 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A33" s="76">
+      <c r="A33" s="75">
         <v>30</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="75">
         <v>71117203</v>
       </c>
-      <c r="C33" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="76" t="s">
+      <c r="C33" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>152</v>
+      <c r="E33" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="60"/>
+        <v>148</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="M33" s="33"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19"/>
@@ -5786,40 +6197,44 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" s="6" customFormat="1" ht="120">
-      <c r="A34" s="76">
+      <c r="A34" s="75">
         <v>31</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="75">
         <v>71117204</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="76" t="s">
+      <c r="C34" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>152</v>
+      <c r="E34" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="19"/>
@@ -5834,40 +6249,44 @@
       <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A35" s="76">
+      <c r="A35" s="75">
         <v>32</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="75">
         <v>71117205</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>344</v>
-      </c>
-      <c r="D35" s="76" t="s">
+      <c r="C35" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>152</v>
+      <c r="E35" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J35" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="65"/>
+        <v>151</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="M35" s="62"/>
+      <c r="N35" s="64"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="19"/>
@@ -5882,40 +6301,44 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A36" s="76">
+      <c r="A36" s="75">
         <v>33</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="75">
         <v>71117206</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="76" t="s">
+      <c r="C36" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="34" t="s">
-        <v>169</v>
+      <c r="E36" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="65"/>
+        <v>174</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="64"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="19"/>
@@ -5930,40 +6353,44 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A37" s="76">
+      <c r="A37" s="75">
         <v>34</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <v>71117207</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="76" t="s">
+      <c r="C37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>151</v>
+      <c r="E37" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="65"/>
+        <v>168</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="M37" s="62"/>
+      <c r="N37" s="64"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="19"/>
@@ -5978,40 +6405,44 @@
       <c r="Z37" s="13"/>
     </row>
     <row r="38" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A38" s="76">
+      <c r="A38" s="75">
         <v>35</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="75">
         <v>71117208</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="76" t="s">
+      <c r="C38" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>154</v>
+      <c r="E38" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="K38" s="34"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="65"/>
+        <v>152</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="M38" s="62"/>
+      <c r="N38" s="64"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="19"/>
@@ -6026,40 +6457,44 @@
       <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A39" s="76">
+      <c r="A39" s="75">
         <v>36</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="75">
         <v>71117209</v>
       </c>
-      <c r="C39" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="76" t="s">
+      <c r="C39" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="65"/>
+      <c r="E39" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="M39" s="62"/>
+      <c r="N39" s="64"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="19"/>
@@ -6074,40 +6509,44 @@
       <c r="Z39" s="13"/>
     </row>
     <row r="40" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A40" s="76">
+      <c r="A40" s="75">
         <v>37</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="75">
         <v>71117214</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="76" t="s">
+      <c r="C40" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="K40" s="34"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="65"/>
+      <c r="E40" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="M40" s="62"/>
+      <c r="N40" s="64"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="19"/>
@@ -6122,44 +6561,48 @@
       <c r="Z40" s="13"/>
     </row>
     <row r="41" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A41" s="76">
+      <c r="A41" s="75">
         <v>38</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="75">
         <v>71117216</v>
       </c>
-      <c r="C41" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="76" t="s">
+      <c r="C41" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="K41" s="34"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="65"/>
+      <c r="E41" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" s="62"/>
+      <c r="N41" s="64"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="73"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="72"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -6170,40 +6613,44 @@
       <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A42" s="76">
+      <c r="A42" s="75">
         <v>39</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="75">
         <v>71117218</v>
       </c>
-      <c r="C42" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="76" t="s">
+      <c r="C42" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D42" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" s="34"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="65"/>
+      <c r="E42" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" s="24"/>
+      <c r="N42" s="64"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="19"/>
@@ -6218,40 +6665,44 @@
       <c r="Z42" s="13"/>
     </row>
     <row r="43" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A43" s="76">
+      <c r="A43" s="75">
         <v>40</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="75">
         <v>71117219</v>
       </c>
-      <c r="C43" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="76" t="s">
+      <c r="C43" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="K43" s="34"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
+      <c r="E43" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="19"/>
@@ -6266,40 +6717,44 @@
       <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A44" s="76">
+      <c r="A44" s="75">
         <v>41</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="75">
         <v>71117221</v>
       </c>
-      <c r="C44" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="76" t="s">
+      <c r="C44" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
+      <c r="E44" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="19"/>
@@ -6314,40 +6769,44 @@
       <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A45" s="76">
+      <c r="A45" s="75">
         <v>42</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="75">
         <v>71117222</v>
       </c>
-      <c r="C45" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="76" t="s">
+      <c r="C45" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26"/>
+      <c r="E45" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
       <c r="Q45" s="19"/>
@@ -6362,40 +6821,44 @@
       <c r="Z45" s="13"/>
     </row>
     <row r="46" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A46" s="76">
+      <c r="A46" s="75">
         <v>43</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="75">
         <v>71117223</v>
       </c>
-      <c r="C46" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="76" t="s">
+      <c r="C46" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="65"/>
+      <c r="E46" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" s="62"/>
+      <c r="N46" s="64"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="19"/>
@@ -6410,40 +6873,44 @@
       <c r="Z46" s="13"/>
     </row>
     <row r="47" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A47" s="76">
+      <c r="A47" s="75">
         <v>44</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="75">
         <v>71117224</v>
       </c>
-      <c r="C47" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="76" t="s">
+      <c r="C47" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J47" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="65"/>
+      <c r="E47" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" s="62"/>
+      <c r="N47" s="64"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="19"/>
@@ -6458,44 +6925,48 @@
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A48" s="76">
+      <c r="A48" s="75">
         <v>45</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="75">
         <v>71117225</v>
       </c>
-      <c r="C48" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="76" t="s">
+      <c r="C48" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="K48" s="43"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="65"/>
+      <c r="E48" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" s="62"/>
+      <c r="N48" s="64"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="73"/>
+      <c r="R48" s="72"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -6506,40 +6977,44 @@
       <c r="Z48" s="13"/>
     </row>
     <row r="49" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A49" s="76">
+      <c r="A49" s="75">
         <v>46</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="75">
         <v>71117226</v>
       </c>
-      <c r="C49" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="76" t="s">
+      <c r="C49" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="60"/>
+      <c r="E49" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="K49" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" s="33"/>
+      <c r="N49" s="59"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="19"/>
@@ -6554,40 +7029,44 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A50" s="76">
+      <c r="A50" s="75">
         <v>47</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="75">
         <v>71117227</v>
       </c>
-      <c r="C50" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="76" t="s">
+      <c r="C50" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="K50" s="43"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="65"/>
+      <c r="G50" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="M50" s="62"/>
+      <c r="N50" s="64"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="19"/>
@@ -6602,40 +7081,44 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A51" s="76">
+      <c r="A51" s="75">
         <v>48</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="75">
         <v>71117228</v>
       </c>
-      <c r="C51" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="D51" s="76" t="s">
+      <c r="C51" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="K51" s="34"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="60"/>
+      <c r="E51" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L51" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="59"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="19"/>
@@ -6650,40 +7133,44 @@
       <c r="Z51" s="13"/>
     </row>
     <row r="52" spans="1:26" s="7" customFormat="1" ht="60">
-      <c r="A52" s="76">
+      <c r="A52" s="75">
         <v>49</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="75">
         <v>71117229</v>
       </c>
-      <c r="C52" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="76" t="s">
+      <c r="C52" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="K52" s="43"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
+      <c r="E52" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="19"/>
@@ -6697,41 +7184,45 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
     </row>
-    <row r="53" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A53" s="76">
+    <row r="53" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A53" s="75">
         <v>50</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <v>71117230</v>
       </c>
-      <c r="C53" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53" s="76" t="s">
+      <c r="C53" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J53" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="K53" s="43"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="26"/>
+      <c r="E53" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="K53" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="19"/>
@@ -6746,40 +7237,44 @@
       <c r="Z53" s="13"/>
     </row>
     <row r="54" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A54" s="76">
+      <c r="A54" s="75">
         <v>51</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="75">
         <v>71117231</v>
       </c>
-      <c r="C54" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="76" t="s">
+      <c r="C54" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J54" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="K54" s="34"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="26"/>
+      <c r="E54" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="19"/>
@@ -6794,28 +7289,28 @@
       <c r="Z54" s="13"/>
     </row>
     <row r="55" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A55" s="76">
+      <c r="A55" s="75">
         <v>52</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="75">
         <v>71117233</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="65"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="64"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="19"/>
@@ -6830,40 +7325,44 @@
       <c r="Z55" s="13"/>
     </row>
     <row r="56" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A56" s="76">
+      <c r="A56" s="75">
         <v>53</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="75">
         <v>71117234</v>
       </c>
-      <c r="C56" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="76" t="s">
+      <c r="C56" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="I56" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J56" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="K56" s="34"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
+      <c r="E56" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J56" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="19"/>
@@ -6878,40 +7377,44 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A57" s="76">
+      <c r="A57" s="75">
         <v>54</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="75">
         <v>71117235</v>
       </c>
-      <c r="C57" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="76" t="s">
+      <c r="C57" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="79" t="s">
-        <v>121</v>
+      <c r="E57" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K57" s="34"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
       <c r="Q57" s="19"/>
@@ -6925,41 +7428,45 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A58" s="76">
+    <row r="58" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A58" s="75">
         <v>55</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="75">
         <v>71117436</v>
       </c>
-      <c r="C58" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="76" t="s">
+      <c r="C58" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>204</v>
+      <c r="E58" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J58" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="K58" s="34"/>
-      <c r="L58" s="24"/>
+        <v>177</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>398</v>
+      </c>
       <c r="M58" s="20"/>
-      <c r="N58" s="26"/>
+      <c r="N58" s="25"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="19"/>
@@ -6973,41 +7480,45 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A59" s="76">
+    <row r="59" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A59" s="75">
         <v>56</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75">
         <v>71118123</v>
       </c>
-      <c r="C59" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="D59" s="76" t="s">
+      <c r="C59" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>129</v>
+      <c r="E59" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J59" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="K59" s="34"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="65"/>
+        <v>178</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="M59" s="62"/>
+      <c r="N59" s="64"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="19"/>
@@ -7022,28 +7533,28 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A60" s="76">
+      <c r="A60" s="75">
         <v>57</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="75">
         <v>71118325</v>
       </c>
-      <c r="C60" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="76" t="s">
+      <c r="C60" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="34"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="34"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="26"/>
+      <c r="N60" s="25"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
       <c r="Q60" s="19"/>
@@ -7058,40 +7569,44 @@
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A61" s="76">
+      <c r="A61" s="75">
         <v>58</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="C61" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="76" t="s">
+      <c r="B61" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>121</v>
+      <c r="E61" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="I61" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J61" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K61" s="34"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="65"/>
+        <v>179</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="M61" s="62"/>
+      <c r="N61" s="64"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="19"/>
@@ -7105,41 +7620,45 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A62" s="76">
+    <row r="62" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A62" s="75">
         <v>59</v>
       </c>
-      <c r="B62" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="76" t="s">
+      <c r="B62" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>121</v>
+      <c r="E62" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G62" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="I62" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="J62" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="K62" s="34"/>
-      <c r="L62" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J62" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>401</v>
+      </c>
       <c r="M62" s="20"/>
-      <c r="N62" s="26"/>
+      <c r="N62" s="25"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
       <c r="Q62" s="19"/>
@@ -7154,40 +7673,44 @@
       <c r="Z62" s="13"/>
     </row>
     <row r="63" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A63" s="76">
+      <c r="A63" s="75">
         <v>60</v>
       </c>
-      <c r="B63" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="76" t="s">
+      <c r="B63" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="G63" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J63" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="K63" s="34"/>
-      <c r="L63" s="24"/>
+      <c r="E63" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L63" s="23" t="s">
+        <v>402</v>
+      </c>
       <c r="M63" s="20"/>
-      <c r="N63" s="26"/>
+      <c r="N63" s="25"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
       <c r="Q63" s="19"/>
@@ -7202,40 +7725,44 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A64" s="76">
+      <c r="A64" s="75">
         <v>61</v>
       </c>
-      <c r="B64" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="76" t="s">
+      <c r="B64" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J64" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="K64" s="34"/>
-      <c r="L64" s="24"/>
+      <c r="E64" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="I64" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>403</v>
+      </c>
       <c r="M64" s="20"/>
-      <c r="N64" s="26"/>
+      <c r="N64" s="25"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
       <c r="Q64" s="19"/>
@@ -7249,41 +7776,45 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A65" s="76">
+    <row r="65" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A65" s="75">
         <v>62</v>
       </c>
-      <c r="B65" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="D65" s="76" t="s">
+      <c r="B65" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>121</v>
+      <c r="E65" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G65" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H65" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="I65" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J65" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="K65" s="34"/>
-      <c r="L65" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J65" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L65" s="23" t="s">
+        <v>404</v>
+      </c>
       <c r="M65" s="20"/>
-      <c r="N65" s="26"/>
+      <c r="N65" s="25"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
       <c r="Q65" s="19"/>
@@ -7297,41 +7828,45 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A66" s="76">
+    <row r="66" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A66" s="75">
         <v>63</v>
       </c>
-      <c r="B66" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="76" t="s">
+      <c r="B66" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="34" t="s">
-        <v>204</v>
+      <c r="E66" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J66" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="24"/>
+        <v>184</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="L66" s="23" t="s">
+        <v>405</v>
+      </c>
       <c r="M66" s="20"/>
-      <c r="N66" s="26"/>
+      <c r="N66" s="25"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
       <c r="Q66" s="19"/>
@@ -7345,41 +7880,45 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A67" s="76">
+    <row r="67" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A67" s="75">
         <v>64</v>
       </c>
-      <c r="B67" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="76" t="s">
+      <c r="B67" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>151</v>
+      <c r="E67" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G67" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J67" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="K67" s="20"/>
-      <c r="L67" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J67" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>406</v>
+      </c>
       <c r="M67" s="20"/>
-      <c r="N67" s="26"/>
+      <c r="N67" s="25"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
       <c r="Q67" s="19"/>
@@ -7394,40 +7933,44 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A68" s="76">
+      <c r="A68" s="75">
         <v>65</v>
       </c>
-      <c r="B68" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="76" t="s">
+      <c r="B68" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="80" t="s">
-        <v>205</v>
+      <c r="E68" s="79" t="s">
+        <v>200</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K68" s="20"/>
-      <c r="L68" s="24"/>
+        <v>202</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J68" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>407</v>
+      </c>
       <c r="M68" s="20"/>
-      <c r="N68" s="26"/>
+      <c r="N68" s="25"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
       <c r="Q68" s="19"/>
@@ -7441,41 +7984,45 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
     </row>
-    <row r="69" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A69" s="76">
+    <row r="69" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A69" s="75">
         <v>66</v>
       </c>
-      <c r="B69" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="76" t="s">
+      <c r="B69" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H69" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J69" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="24"/>
+      <c r="E69" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L69" s="23" t="s">
+        <v>408</v>
+      </c>
       <c r="M69" s="20"/>
-      <c r="N69" s="26"/>
+      <c r="N69" s="25"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
       <c r="Q69" s="19"/>
@@ -7489,41 +8036,45 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A70" s="76">
+    <row r="70" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A70" s="75">
         <v>67</v>
       </c>
-      <c r="B70" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="76" t="s">
+      <c r="B70" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J70" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="K70" s="20"/>
-      <c r="L70" s="24"/>
+      <c r="E70" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J70" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>409</v>
+      </c>
       <c r="M70" s="20"/>
-      <c r="N70" s="26"/>
+      <c r="N70" s="25"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
       <c r="Q70" s="19"/>
@@ -7537,41 +8088,45 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
     </row>
-    <row r="71" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A71" s="76">
+    <row r="71" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A71" s="75">
         <v>68</v>
       </c>
-      <c r="B71" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="76" t="s">
+      <c r="B71" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="I71" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J71" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K71" s="20"/>
-      <c r="L71" s="53"/>
+      <c r="E71" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J71" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L71" s="52" t="s">
+        <v>410</v>
+      </c>
       <c r="M71" s="20"/>
-      <c r="N71" s="53"/>
+      <c r="N71" s="52"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
       <c r="Q71" s="19"/>
@@ -7585,41 +8140,45 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
     </row>
-    <row r="72" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A72" s="76">
+    <row r="72" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A72" s="75">
         <v>69</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="76" t="s">
+      <c r="B72" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="34" t="s">
-        <v>121</v>
+      <c r="E72" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H72" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="I72" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J72" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="53"/>
+        <v>189</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L72" s="52" t="s">
+        <v>411</v>
+      </c>
       <c r="M72" s="20"/>
-      <c r="N72" s="53"/>
+      <c r="N72" s="52"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
       <c r="Q72" s="19"/>
@@ -7634,40 +8193,44 @@
       <c r="Z72" s="13"/>
     </row>
     <row r="73" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A73" s="76">
+      <c r="A73" s="75">
         <v>70</v>
       </c>
-      <c r="B73" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" s="76" t="s">
+      <c r="B73" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>121</v>
+      <c r="E73" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H73" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J73" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K73" s="20"/>
-      <c r="L73" s="53"/>
+        <v>190</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K73" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L73" s="52" t="s">
+        <v>412</v>
+      </c>
       <c r="M73" s="20"/>
-      <c r="N73" s="53"/>
+      <c r="N73" s="52"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="19"/>
@@ -7681,41 +8244,45 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
     </row>
-    <row r="74" spans="1:26" s="6" customFormat="1" ht="30">
-      <c r="A74" s="76">
+    <row r="74" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A74" s="75">
         <v>71</v>
       </c>
-      <c r="B74" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="76" t="s">
+      <c r="B74" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="34" t="s">
-        <v>121</v>
+      <c r="E74" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H74" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="I74" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J74" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K74" s="20"/>
-      <c r="L74" s="53"/>
+        <v>191</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K74" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L74" s="52" t="s">
+        <v>413</v>
+      </c>
       <c r="M74" s="20"/>
-      <c r="N74" s="53"/>
+      <c r="N74" s="52"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
       <c r="Q74" s="19"/>
@@ -7730,40 +8297,44 @@
       <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A75" s="76">
+      <c r="A75" s="75">
         <v>72</v>
       </c>
-      <c r="B75" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="76" t="s">
+      <c r="B75" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="34" t="s">
-        <v>121</v>
+      <c r="E75" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="H75" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J75" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K75" s="23"/>
-      <c r="L75" s="53"/>
+        <v>192</v>
+      </c>
+      <c r="G75" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I75" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J75" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L75" s="52" t="s">
+        <v>414</v>
+      </c>
       <c r="M75" s="20"/>
-      <c r="N75" s="53"/>
+      <c r="N75" s="52"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
       <c r="Q75" s="19"/>
@@ -7778,40 +8349,44 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A76" s="76">
+      <c r="A76" s="75">
         <v>73</v>
       </c>
-      <c r="B76" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="76" t="s">
+      <c r="B76" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="34" t="s">
-        <v>121</v>
+      <c r="E76" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H76" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="I76" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J76" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K76" s="20"/>
-      <c r="L76" s="53"/>
+        <v>193</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J76" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L76" s="52" t="s">
+        <v>415</v>
+      </c>
       <c r="M76" s="20"/>
-      <c r="N76" s="53"/>
+      <c r="N76" s="52"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
       <c r="Q76" s="19"/>
@@ -7825,41 +8400,45 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A77" s="76">
+    <row r="77" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A77" s="75">
         <v>74</v>
       </c>
-      <c r="B77" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="76" t="s">
+      <c r="B77" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>121</v>
+      <c r="E77" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H77" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J77" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K77" s="20"/>
-      <c r="L77" s="53"/>
+        <v>194</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="I77" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K77" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L77" s="52" t="s">
+        <v>416</v>
+      </c>
       <c r="M77" s="20"/>
-      <c r="N77" s="53"/>
+      <c r="N77" s="52"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
       <c r="Q77" s="19"/>
@@ -7874,40 +8453,44 @@
       <c r="Z77" s="13"/>
     </row>
     <row r="78" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A78" s="76">
+      <c r="A78" s="75">
         <v>75</v>
       </c>
-      <c r="B78" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="76" t="s">
+      <c r="B78" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H78" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="J78" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="42"/>
+      <c r="E78" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J78" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K78" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L78" s="55" t="s">
+        <v>417</v>
+      </c>
       <c r="M78" s="20"/>
-      <c r="N78" s="42"/>
+      <c r="N78" s="41"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
       <c r="Q78" s="19"/>
@@ -7922,40 +8505,44 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A79" s="76">
+      <c r="A79" s="75">
         <v>76</v>
       </c>
-      <c r="B79" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="76" t="s">
+      <c r="B79" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H79" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I79" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J79" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="K79" s="20"/>
-      <c r="L79" s="42"/>
+      <c r="E79" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I79" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L79" s="55" t="s">
+        <v>418</v>
+      </c>
       <c r="M79" s="20"/>
-      <c r="N79" s="42"/>
+      <c r="N79" s="41"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
       <c r="Q79" s="19"/>
@@ -7970,40 +8557,44 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A80" s="76">
+      <c r="A80" s="75">
         <v>77</v>
       </c>
-      <c r="B80" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="C80" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="76" t="s">
+      <c r="B80" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="34" t="s">
-        <v>121</v>
+      <c r="E80" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H80" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J80" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="K80" s="20"/>
-      <c r="L80" s="53"/>
+        <v>197</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="I80" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="K80" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L80" s="52" t="s">
+        <v>419</v>
+      </c>
       <c r="M80" s="20"/>
-      <c r="N80" s="53"/>
+      <c r="N80" s="52"/>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
       <c r="Q80" s="19"/>
@@ -8017,41 +8608,45 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:26" s="6" customFormat="1" ht="46" thickBot="1">
-      <c r="A81" s="76">
+    <row r="81" spans="1:26" s="6" customFormat="1" ht="91" thickBot="1">
+      <c r="A81" s="75">
         <v>78</v>
       </c>
-      <c r="B81" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="76" t="s">
+      <c r="B81" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H81" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J81" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="K81" s="20"/>
-      <c r="L81" s="42"/>
+      <c r="E81" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L81" s="55" t="s">
+        <v>420</v>
+      </c>
       <c r="M81" s="20"/>
-      <c r="N81" s="42"/>
+      <c r="N81" s="41"/>
       <c r="O81" s="20"/>
       <c r="P81" s="20"/>
       <c r="Q81" s="19"/>
@@ -8067,19 +8662,19 @@
     </row>
     <row r="82" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="34"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="33"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="59"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="58"/>
       <c r="K82" s="20"/>
-      <c r="L82" s="53"/>
+      <c r="L82" s="52"/>
       <c r="M82" s="20"/>
-      <c r="N82" s="53"/>
+      <c r="N82" s="52"/>
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="19"/>
@@ -8095,19 +8690,19 @@
     </row>
     <row r="83" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="34"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="33"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="47"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="46"/>
       <c r="K83" s="20"/>
-      <c r="L83" s="53"/>
+      <c r="L83" s="52"/>
       <c r="M83" s="20"/>
-      <c r="N83" s="53"/>
+      <c r="N83" s="52"/>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
       <c r="Q83" s="19"/>
@@ -8123,19 +8718,19 @@
     </row>
     <row r="84" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="34"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="47"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="46"/>
       <c r="K84" s="20"/>
-      <c r="L84" s="53"/>
+      <c r="L84" s="52"/>
       <c r="M84" s="20"/>
-      <c r="N84" s="53"/>
+      <c r="N84" s="52"/>
       <c r="O84" s="20"/>
       <c r="P84" s="20"/>
       <c r="Q84" s="19"/>
@@ -8151,19 +8746,19 @@
     </row>
     <row r="85" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="34"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="47"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="46"/>
       <c r="K85" s="20"/>
-      <c r="L85" s="53"/>
+      <c r="L85" s="52"/>
       <c r="M85" s="20"/>
-      <c r="N85" s="53"/>
+      <c r="N85" s="52"/>
       <c r="O85" s="20"/>
       <c r="P85" s="20"/>
       <c r="Q85" s="19"/>
@@ -8179,19 +8774,19 @@
     </row>
     <row r="86" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="34"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="47"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="46"/>
       <c r="K86" s="20"/>
-      <c r="L86" s="53"/>
+      <c r="L86" s="52"/>
       <c r="M86" s="20"/>
-      <c r="N86" s="53"/>
+      <c r="N86" s="52"/>
       <c r="O86" s="20"/>
       <c r="P86" s="20"/>
       <c r="Q86" s="19"/>
@@ -8207,19 +8802,19 @@
     </row>
     <row r="87" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="34"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="47"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="46"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="53"/>
+      <c r="L87" s="52"/>
       <c r="M87" s="20"/>
-      <c r="N87" s="53"/>
+      <c r="N87" s="52"/>
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="19"/>
@@ -8235,19 +8830,19 @@
     </row>
     <row r="88" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="34"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="47"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="46"/>
       <c r="K88" s="20"/>
-      <c r="L88" s="53"/>
+      <c r="L88" s="52"/>
       <c r="M88" s="20"/>
-      <c r="N88" s="53"/>
+      <c r="N88" s="52"/>
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="19"/>
@@ -8266,7 +8861,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="34"/>
+      <c r="E89" s="33"/>
       <c r="F89" s="21"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -8294,7 +8889,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="35"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="9"/>
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
@@ -8317,29 +8912,31 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
     </row>
-    <row r="91" spans="1:26" ht="48" customHeight="1" thickBot="1">
-      <c r="A91" s="85" t="s">
+    <row r="91" spans="1:26" ht="76" customHeight="1" thickBot="1">
+      <c r="A91" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="89"/>
-      <c r="G91" s="88" t="s">
-        <v>276</v>
-      </c>
-      <c r="H91" s="89"/>
-      <c r="I91" s="88" t="s">
-        <v>350</v>
-      </c>
-      <c r="J91" s="89"/>
-      <c r="K91" s="103"/>
-      <c r="L91" s="104"/>
-      <c r="M91" s="103"/>
-      <c r="N91" s="104"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="99"/>
+      <c r="G91" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="H91" s="99"/>
+      <c r="I91" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="J91" s="99"/>
+      <c r="K91" s="113" t="s">
+        <v>422</v>
+      </c>
+      <c r="L91" s="114"/>
+      <c r="M91" s="111"/>
+      <c r="N91" s="112"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -8354,32 +8951,34 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="98"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="F92" s="96"/>
-      <c r="G92" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92" t="s">
-        <v>351</v>
-      </c>
-      <c r="J92" s="92"/>
-      <c r="K92" s="90"/>
-      <c r="L92" s="90"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="91"/>
-      <c r="O92" s="90"/>
-      <c r="P92" s="90"/>
+      <c r="B92" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="104"/>
+      <c r="G92" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="H92" s="102"/>
+      <c r="I92" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="J92" s="102"/>
+      <c r="K92" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="L92" s="102"/>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="100"/>
+      <c r="P92" s="100"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -8392,22 +8991,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="94"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="90"/>
-      <c r="L93" s="90"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="O93" s="90"/>
-      <c r="P93" s="90"/>
+      <c r="A93" s="103"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="102"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="102"/>
+      <c r="L93" s="102"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="100"/>
+      <c r="P93" s="100"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -8420,22 +9019,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="95"/>
-      <c r="B94" s="101"/>
-      <c r="C94" s="102"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="90"/>
-      <c r="L94" s="90"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="91"/>
-      <c r="O94" s="90"/>
-      <c r="P94" s="90"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="104"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="100"/>
+      <c r="P94" s="100"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -8447,41 +9046,31 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="84" customFormat="1">
-      <c r="A96" s="84" t="s">
+    <row r="96" spans="1:26" s="94" customFormat="1">
+      <c r="A96" s="94" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="84" customFormat="1">
-      <c r="A97" s="84" t="s">
+    <row r="97" spans="1:9" s="94" customFormat="1">
+      <c r="A97" s="94" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="67" t="s">
+      <c r="A98" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A96:XFD96"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="A91:D91"/>
@@ -8498,6 +9087,16 @@
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="I91:J91"/>
     <mergeCell ref="K91:L91"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01B32B-9C70-3642-926A-30CE32B0DAA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812863D-20F0-ED4F-BAB6-68011AE2925A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-20" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="489">
   <si>
     <t>序号</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>魏旭凯</t>
-  </si>
-  <si>
-    <t>李雨峤</t>
   </si>
   <si>
     <t>沈震</t>
@@ -2150,6 +2147,278 @@
     <t xml:space="preserve">张潇艺 曹宏悦 唐珞鑫 王浩楠 王浩宇 林敬凯 林金磊 张建东 潘世康 葛余浩 谯钰霖 沈震 吕峻溟 姜子玥 袁佳怡 刘雪珂 丁婧伊 张皓翔 徐志鹏 李若涵 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>参加全国大学生软件测试大赛情况：王浩宇，全国决赛；潘世康，江苏省优胜奖；林敬凯，比赛排名189；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路清晰，等价类划分详细；流图不要交叉；蜕变关系要找全。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告美观；无效等价类划分可以再细分；测试用例全面；流图可以设计的再美观一些；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告很用心；等价类划分细致，测试用例丰富；可以计算一下程序的环复杂度；蜕变关系要找全；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分要标出是有效还是无效；边界值分析存在部分问题，再仔细思考；程序流图清晰sin^2(x)+cos^2(x)=1; sin(x+y)等蜕变关系比较重要。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值分析细致；实验测试思路清晰；实验步骤规范；蜕变关系要全面一些。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分可以再细致一点；测试用例全面；蜕变关系较为全面，利用蜕变关系进行测试即可达到测试目的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告较为规范；知识点掌握全面；实验体会可以多结合报告中的思考题进行分析。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验排版清晰；需要对等价类的划分进行说明；边界值分析需要详细一点；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类的划分要详细一些；蜕变关系要找全，利用蜕变关系进行测试。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要对无效等价类进行划分；蜕变关系找全，再基于蜕变关系设计测试用例；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计结果有些问题，再仔细校对一下；边界值分析再充分一点；蜕变测试输入的角度要丰富；缺少实验体会。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告清晰；等价类划分合理；边界值存在问题；注意流图的美观，不要交叉；蜕变测试要先找出蜕变关系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计结果的呈现要清晰一点；等价类划分有些可以合并；蜕变关系较为全面；实验体会要认真思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要对相应的等价类划分和边界值分析，可参考实验四的；基本路径存在部分问题，再仔细分析；不能只找一个蜕变关系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思路清晰；边界值分析详细；测试用例充分；实验体会可以多思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告整体较好；实验思路清晰；对蜕变测试的分析较为深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告较为清晰；实验思路明确；可以给出环复杂度的计算；实验体会较为深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告用心；知识点掌握准确；基本路径条数可能存在问题，再仔细核实；蜕变关系较为全面；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分可以细致一点，并标出类型；基本路径存在问题，请再仔细思考；要找全蜕变关系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告清晰；等价类和边界值分析较为详细；缺少蜕变测试实验的解答。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效等价类的划分再详细一点；流图美观；测试思路清晰；蜕变测试输入角度可以包含更一般的角度。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得较好，对于边界条件分析得比较仔细，分析深入；实验体会多思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告用心；知识点掌握准确；边界值分析深入；蜕变关系较为全面；实验体会深刻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思考深入，知识点掌握准确，对各个情况考虑得很仔细；实验报告整体美观。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告排版整洁美观，对于有效及无效等价类分析仔细，思路清晰；蜕变关系未考虑完全，可深入思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于有效等价类分析得非常仔细，基本路径考虑全面；蜕变关系分析清晰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，路径分析全面，思考比较深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对各个情况考虑得非常仔细，分析很深入，实验报告做得非常认真。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告排版整洁，对有效等价类分析深入，对于无效等价类可分析得更加仔细；蜕变关系可存在有其他关系，可继续进行分析，实验报告整体完成得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告做得很好，知识点掌握准确，分析深入。蜕变关系存在有其他情况，可继续深入思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，分析比较深入，对路径考虑得比较全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，分析比较深入，知识点掌握得较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得非常好，分析深入，知识点掌握准确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于无效等价类可分析得更仔细些；整体完成得比较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图尽量用工具绘制，使得更加美观，对于无效等价累的分析可更加详细；整体完成得较好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，指点点掌握准确，思路清晰，思考深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在黑盒测试中应对有效及无效等价类进行分析；未进行边界分析；白盒测试中的基本路径有多条，考虑得不全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流图注意入口；基本路径有多条，未考虑全面；对于实验2应分析出其蜕变关系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，思路清晰，测试用例设计得很好，路径考虑全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好的实验报告，思考深入，知识点掌握准确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本路径有些情况为考虑到，可继续深入分析；蜕变关系有些情况未考虑完全；实验报告整体完成得很好，思路比较清晰，思考较深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验思考深入，知识点掌握准确，对各个情况考虑得很仔细，非常好的实验报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对边界值分析及其测试不够全面，可继续深入思考；基本路径和蜕变关系考虑比较全面，很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很认真，思路清晰，对各个情况的分析深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，分析得比较深入，知识点掌握很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告完成得很好，对于边界条件分析得比较仔细，分析深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意程序流图入口；边界条件分析仔细，对基本路径考虑全面，整体完成得很好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制流图尽量用工具绘制，使其更加美观。实验报告整体完成得比较好，考虑比较深入。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于有效等价类与无效等价类的划分应更加详细；基本路径中有些路径未考虑完全；实验2中的MR有多种情况，未考虑全面，可继续深入思考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 蜕变测试中要找全蜕变关系，利用蜕变关系进行测试即可达到测试目的。当然可以在此基础上补充其他测试方法设计的例子。这里最重要的蜕变关系包括：sin^2(x)+cos^2(x)=1; sin(x+y)公式；sin(x+y+z)公式；sin(2x)公式；sin(3x)公式；等等。
+2. 蜕变测试中的测试用例是基于蜕变关系去设计的。
+3. sinx.exe的一个缺陷是对负数角度的计算是错误的，另外还存在未对输入进行合法性检查的问题，最后是对周期性的支持不好。
+4. 输入的角度既要包括容易判断的特殊角，还应包括一般的角度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按教务处要求，必须有平时点名1次，会体现在最终的总评成绩中。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雨峤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验1做得特别好！实验2要注意复杂的三角函数对sinx的测试效果会更好，参看最下的实验总结（切记）。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验1的思路清晰，体会总结全面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路清晰，知识点掌握准确，很好的实验报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路清晰，知识点掌握准确，分析和总结全面，对蜕变测试的学习较系统，很好的实验报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总体思路清晰，能较好运用测试技术和方法解决应用问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验1做得非常好。实验2要先寻找可用的蜕变关系，再进行测试，要通过蜕变测试验证程序是否能对非特殊角度实现正确计算。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验1缺少了随机测试，基本路径的环复杂度为25，检查流图细节存在的问题；实验2要用蜕变测试技术，应查阅资料了解这种测试技术。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验1完成得很好。实验2的蜕变关系一定要有平方和公式，这是验证一些非特殊角度的重要蜕变关系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常用心的实验报告，值得其他同学参考！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常用心的实验报告，细节上花了大量精力去深入探索，值得所有同学参考！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本路径测试的流图不正确，一定要熟练掌握这种测试方法。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很认真的实验报告。实验2一定要去查阅资料，学会用蜕变测试解决这类问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路清晰，知识点掌握准确，很好的实验报告。注意，这里的蜕变关系一定要加上平和方公式。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雨峤 潘世康 李若涵 王浩楠 黄旭 沈震 吕峻溟 姜子玥 袁佳怡 刘雪珂 丁婧伊 郭振东
+张皓翔 徐志鹏 牛耕 倪俊辉 王浩宇 柳沿河</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2158,7 +2427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,8 +2701,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2461,12 +2746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3315,7 +3594,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3376,10 +3655,6 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3485,19 +3760,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3513,11 +3779,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3554,6 +3818,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3594,15 +3890,12 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3625,12 +3918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4499,10 +4786,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4511,10 +4798,10 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
@@ -4522,77 +4809,77 @@
     <col min="13" max="13" width="6.6640625" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="90" t="s">
+      <c r="J2" s="98"/>
+      <c r="K2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
@@ -4620,19 +4907,19 @@
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -4677,28 +4964,28 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A4" s="75">
+      <c r="A4" s="68">
         <v>1</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="68">
         <v>17219222</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="64"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -4713,47 +5000,53 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="135">
-      <c r="A5" s="75">
+      <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="68">
         <v>71117101</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>116</v>
+      <c r="E5" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>116</v>
+        <v>142</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="61"/>
+        <v>219</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>423</v>
+      </c>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="89">
+        <v>87.13</v>
+      </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -4764,48 +5057,54 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A6" s="75">
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="68">
         <v>71117103</v>
       </c>
-      <c r="C6" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="61"/>
+      <c r="G6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>424</v>
+      </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="89">
+        <v>96.66</v>
+      </c>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -4816,48 +5115,54 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A7" s="75">
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="68">
         <v>71117104</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>116</v>
+      <c r="E7" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="61"/>
+        <v>117</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>425</v>
+      </c>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="89">
+        <v>91.66</v>
+      </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -4868,48 +5173,54 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A8" s="75">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="105">
+      <c r="A8" s="68">
         <v>5</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="68">
         <v>71117105</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="75" t="s">
+      <c r="C8" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>124</v>
+      <c r="E8" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="63"/>
+        <v>118</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>426</v>
+      </c>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="89">
+        <v>95.22</v>
+      </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -4921,47 +5232,53 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A9" s="75">
+      <c r="A9" s="68">
         <v>6</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="68">
         <v>71117106</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>116</v>
+      <c r="E9" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="64"/>
+        <v>119</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>427</v>
+      </c>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="89">
+        <v>95.49</v>
+      </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -4973,48 +5290,54 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A10" s="75">
+      <c r="A10" s="68">
         <v>7</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="68">
         <v>71117107</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="61"/>
+      <c r="E10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>428</v>
+      </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="72"/>
+      <c r="Q10" s="90">
+        <v>97.28</v>
+      </c>
+      <c r="R10" s="66"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -5025,47 +5348,53 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A11" s="75">
+      <c r="A11" s="68">
         <v>8</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="68">
         <v>71117108</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="M11" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="64"/>
+      <c r="N11" s="81" t="s">
+        <v>429</v>
+      </c>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="89">
+        <v>77.87</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -5077,47 +5406,53 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A12" s="75">
+      <c r="A12" s="68">
         <v>9</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="68">
         <v>71117111</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>136</v>
+      <c r="G12" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="84" t="s">
-        <v>279</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="65"/>
+        <v>226</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>430</v>
+      </c>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -5129,47 +5464,53 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A13" s="75">
+      <c r="A13" s="68">
         <v>10</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="68">
         <v>71117112</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>124</v>
+      <c r="E13" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="64"/>
+        <v>227</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>431</v>
+      </c>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="89">
+        <v>96.77</v>
+      </c>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -5181,39 +5522,39 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A14" s="75">
+      <c r="A14" s="68">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="68">
         <v>71117113</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="61"/>
+      <c r="G14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="89"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -5225,47 +5566,53 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="105">
-      <c r="A15" s="75">
+      <c r="A15" s="68">
         <v>12</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="68">
         <v>71117114</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="75" t="s">
+      <c r="C15" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>124</v>
+      <c r="E15" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="61"/>
+        <v>229</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="79" t="s">
+        <v>432</v>
+      </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -5277,47 +5624,53 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A16" s="75">
+      <c r="A16" s="68">
         <v>13</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="68">
         <v>71117115</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>116</v>
+      <c r="E16" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="64"/>
+        <v>127</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>433</v>
+      </c>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -5329,47 +5682,53 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A17" s="75">
+      <c r="A17" s="68">
         <v>14</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="68">
         <v>71117116</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>123</v>
+      <c r="E17" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="64"/>
+        <v>128</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="81" t="s">
+        <v>434</v>
+      </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -5381,47 +5740,53 @@
       <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A18" s="75">
+      <c r="A18" s="68">
         <v>15</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="68">
         <v>71117118</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>116</v>
+      <c r="E18" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="64"/>
+        <v>232</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>435</v>
+      </c>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="89">
+        <v>96.24</v>
+      </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -5432,48 +5797,54 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A19" s="75">
+    <row r="19" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A19" s="68">
         <v>16</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="68">
         <v>71117119</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>116</v>
+      <c r="E19" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="64"/>
+        <v>130</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>436</v>
+      </c>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -5485,47 +5856,53 @@
       <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" ht="105">
-      <c r="A20" s="75">
+      <c r="A20" s="68">
         <v>17</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="68">
         <v>71117120</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>116</v>
+      <c r="E20" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>116</v>
+        <v>131</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="64"/>
+        <v>234</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="81" t="s">
+        <v>437</v>
+      </c>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="89">
+        <v>90.57</v>
+      </c>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -5537,47 +5914,53 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A21" s="75">
+      <c r="A21" s="68">
         <v>18</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="68">
         <v>71117121</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>124</v>
+      <c r="E21" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="64"/>
+        <v>132</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="81" t="s">
+        <v>438</v>
+      </c>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="89">
+        <v>76.12</v>
+      </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -5589,47 +5972,53 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A22" s="75">
+      <c r="A22" s="68">
         <v>19</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="68">
         <v>71117122</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>135</v>
+      <c r="E22" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="64"/>
+        <v>133</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="81" t="s">
+        <v>439</v>
+      </c>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -5641,47 +6030,53 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A23" s="75">
+      <c r="A23" s="68">
         <v>20</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="68">
         <v>71117123</v>
       </c>
-      <c r="C23" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="75" t="s">
+      <c r="C23" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="64"/>
+      <c r="E23" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="M23" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="81" t="s">
+        <v>440</v>
+      </c>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="89">
+        <v>97.25</v>
+      </c>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
@@ -5693,47 +6088,53 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A24" s="75">
+      <c r="A24" s="68">
         <v>21</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="68">
         <v>71117124</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="M24" s="62"/>
-      <c r="N24" s="64"/>
+      <c r="E24" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="M24" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="81" t="s">
+        <v>441</v>
+      </c>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="89">
+        <v>93.47</v>
+      </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -5745,47 +6146,53 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A25" s="75">
+      <c r="A25" s="68">
         <v>22</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="68">
         <v>71117125</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>116</v>
+      <c r="E25" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="64"/>
+        <v>137</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>442</v>
+      </c>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="89">
+        <v>89.51</v>
+      </c>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -5797,47 +6204,53 @@
       <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A26" s="75">
+      <c r="A26" s="68">
         <v>23</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="68">
         <v>71117128</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>124</v>
+      <c r="E26" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="64"/>
+        <v>138</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="81" t="s">
+        <v>443</v>
+      </c>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="89">
+        <v>83.22</v>
+      </c>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -5848,48 +6261,54 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A27" s="75">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A27" s="68">
         <v>24</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="68">
         <v>71117129</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>116</v>
+      <c r="E27" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="M27" s="62"/>
-      <c r="N27" s="64"/>
+        <v>139</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="M27" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>444</v>
+      </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="89">
+        <v>95.8</v>
+      </c>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -5901,47 +6320,53 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A28" s="75">
+      <c r="A28" s="68">
         <v>25</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="68">
         <v>71117130</v>
       </c>
-      <c r="C28" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="75" t="s">
+      <c r="C28" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>116</v>
+      <c r="E28" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="M28" s="62"/>
-      <c r="N28" s="64"/>
+        <v>140</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" s="81" t="s">
+        <v>445</v>
+      </c>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="89">
+        <v>96.74</v>
+      </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -5953,47 +6378,53 @@
       <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A29" s="75">
+      <c r="A29" s="68">
         <v>26</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="68">
         <v>71117132</v>
       </c>
-      <c r="C29" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="D29" s="75" t="s">
+      <c r="C29" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>136</v>
+      <c r="E29" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="63"/>
+        <v>243</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" s="83" t="s">
+        <v>446</v>
+      </c>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -6005,47 +6436,53 @@
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A30" s="75">
+      <c r="A30" s="68">
         <v>27</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="68">
         <v>71117136</v>
       </c>
-      <c r="C30" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="75" t="s">
+      <c r="C30" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>149</v>
+      <c r="E30" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="59"/>
+        <v>143</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" s="57" t="s">
+        <v>475</v>
+      </c>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="89">
+        <v>96.38</v>
+      </c>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -6056,32 +6493,32 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A31" s="75">
+    <row r="31" spans="1:26" s="6" customFormat="1" ht="17">
+      <c r="A31" s="68">
         <v>28</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="68">
         <v>71117170</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="75" t="s">
+      <c r="C31" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="64"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="81"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="19"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
@@ -6093,47 +6530,53 @@
       <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A32" s="75">
+      <c r="A32" s="68">
         <v>29</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="68">
         <v>71117201</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="75" t="s">
+      <c r="C32" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>149</v>
+      <c r="E32" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="64"/>
+        <v>206</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N32" s="81" t="s">
+        <v>476</v>
+      </c>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="19"/>
+      <c r="Q32" s="89">
+        <v>96.88</v>
+      </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -6145,47 +6588,53 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A33" s="75">
+      <c r="A33" s="68">
         <v>30</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="68">
         <v>71117203</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="59"/>
+      <c r="I33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="M33" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="19"/>
+      <c r="Q33" s="89">
+        <v>97.76</v>
+      </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -6197,47 +6646,53 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" s="6" customFormat="1" ht="120">
-      <c r="A34" s="75">
+      <c r="A34" s="68">
         <v>31</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="68">
         <v>71117204</v>
       </c>
-      <c r="C34" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>147</v>
+      <c r="E34" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="M34" s="62"/>
-      <c r="N34" s="64"/>
+        <v>149</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="19"/>
+      <c r="Q34" s="89">
+        <v>94.59</v>
+      </c>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -6249,47 +6704,53 @@
       <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A35" s="75">
+      <c r="A35" s="68">
         <v>32</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="68">
         <v>71117205</v>
       </c>
-      <c r="C35" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" s="75" t="s">
+      <c r="C35" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>147</v>
+      <c r="E35" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="M35" s="62"/>
-      <c r="N35" s="64"/>
+        <v>150</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M35" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" s="57" t="s">
+        <v>478</v>
+      </c>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="19"/>
+      <c r="Q35" s="89">
+        <v>96.63</v>
+      </c>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -6301,47 +6762,53 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A36" s="75">
+      <c r="A36" s="68">
         <v>33</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="68">
         <v>71117206</v>
       </c>
-      <c r="C36" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="75" t="s">
+      <c r="C36" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>164</v>
+      <c r="E36" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="M36" s="62"/>
-      <c r="N36" s="64"/>
+        <v>173</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N36" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="19"/>
+      <c r="Q36" s="89">
+        <v>94.81</v>
+      </c>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
@@ -6353,47 +6820,53 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A37" s="75">
+      <c r="A37" s="68">
         <v>34</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="68">
         <v>71117207</v>
       </c>
-      <c r="C37" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>146</v>
+      <c r="E37" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="M37" s="62"/>
-      <c r="N37" s="64"/>
+        <v>167</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="M37" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N37" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="19"/>
+      <c r="Q37" s="89">
+        <v>89.13</v>
+      </c>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -6404,48 +6877,54 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A38" s="75">
+    <row r="38" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A38" s="68">
         <v>35</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="68">
         <v>71117208</v>
       </c>
-      <c r="C38" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="75" t="s">
+      <c r="C38" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>149</v>
+      <c r="E38" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L38" s="59" t="s">
-        <v>380</v>
-      </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="64"/>
+        <v>151</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="M38" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="81" t="s">
+        <v>480</v>
+      </c>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="89">
+        <v>95.29</v>
+      </c>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
@@ -6457,47 +6936,53 @@
       <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A39" s="75">
+      <c r="A39" s="68">
         <v>36</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="68">
         <v>71117209</v>
       </c>
-      <c r="C39" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="75" t="s">
+      <c r="C39" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="L39" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="M39" s="62"/>
-      <c r="N39" s="64"/>
+      <c r="E39" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M39" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N39" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="19"/>
+      <c r="Q39" s="89">
+        <v>84.64</v>
+      </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -6508,48 +6993,54 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A40" s="75">
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="90">
+      <c r="A40" s="68">
         <v>37</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="68">
         <v>71117214</v>
       </c>
-      <c r="C40" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="75" t="s">
+      <c r="C40" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="M40" s="62"/>
-      <c r="N40" s="64"/>
+      <c r="E40" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M40" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="N40" s="81" t="s">
+        <v>481</v>
+      </c>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
-      <c r="Q40" s="19"/>
+      <c r="Q40" s="89">
+        <v>91.83</v>
+      </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -6560,49 +7051,55 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A41" s="75">
+    <row r="41" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A41" s="68">
         <v>38</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="68">
         <v>71117216</v>
       </c>
-      <c r="C41" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="75" t="s">
+      <c r="C41" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J41" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>116</v>
+      <c r="E41" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="M41" s="62"/>
-      <c r="N41" s="64"/>
+        <v>382</v>
+      </c>
+      <c r="M41" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N41" s="81" t="s">
+        <v>482</v>
+      </c>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="72"/>
+      <c r="Q41" s="89">
+        <v>94.08</v>
+      </c>
+      <c r="R41" s="66"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -6613,47 +7110,53 @@
       <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A42" s="75">
+      <c r="A42" s="68">
         <v>39</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="68">
         <v>71117218</v>
       </c>
-      <c r="C42" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="D42" s="75" t="s">
+      <c r="C42" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>136</v>
+      <c r="E42" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="64"/>
+        <v>383</v>
+      </c>
+      <c r="M42" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="N42" s="81" t="s">
+        <v>483</v>
+      </c>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="19"/>
+      <c r="Q42" s="89">
+        <v>98.03</v>
+      </c>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -6665,47 +7168,53 @@
       <c r="Z42" s="13"/>
     </row>
     <row r="43" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A43" s="75">
+      <c r="A43" s="68">
         <v>40</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="68">
         <v>71117219</v>
       </c>
-      <c r="C43" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="75" t="s">
+      <c r="C43" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>136</v>
+      <c r="E43" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
+        <v>384</v>
+      </c>
+      <c r="M43" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N43" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
-      <c r="Q43" s="19"/>
+      <c r="Q43" s="89">
+        <v>92.08</v>
+      </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -6717,47 +7226,53 @@
       <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A44" s="75">
+      <c r="A44" s="68">
         <v>41</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="68">
         <v>71117221</v>
       </c>
-      <c r="C44" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="75" t="s">
+      <c r="C44" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>116</v>
+      <c r="E44" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="25"/>
+        <v>385</v>
+      </c>
+      <c r="M44" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N44" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="19"/>
+      <c r="Q44" s="89">
+        <v>98.88</v>
+      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -6769,47 +7284,53 @@
       <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A45" s="75">
+      <c r="A45" s="68">
         <v>42</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="68">
         <v>71117222</v>
       </c>
-      <c r="C45" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="75" t="s">
+      <c r="C45" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J45" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="K45" s="42" t="s">
-        <v>146</v>
+      <c r="E45" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>145</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
+        <v>386</v>
+      </c>
+      <c r="M45" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="19"/>
+      <c r="Q45" s="89">
+        <v>88.66</v>
+      </c>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
@@ -6821,47 +7342,53 @@
       <c r="Z45" s="13"/>
     </row>
     <row r="46" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A46" s="75">
+      <c r="A46" s="68">
         <v>43</v>
       </c>
-      <c r="B46" s="75">
+      <c r="B46" s="68">
         <v>71117223</v>
       </c>
-      <c r="C46" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="75" t="s">
+      <c r="C46" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="37" t="s">
+      <c r="E46" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>135</v>
+      <c r="F46" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="M46" s="62"/>
-      <c r="N46" s="64"/>
+        <v>387</v>
+      </c>
+      <c r="M46" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
-      <c r="Q46" s="19"/>
+      <c r="Q46" s="89">
+        <v>95.48</v>
+      </c>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
@@ -6873,47 +7400,53 @@
       <c r="Z46" s="13"/>
     </row>
     <row r="47" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A47" s="75">
+      <c r="A47" s="68">
         <v>44</v>
       </c>
-      <c r="B47" s="75">
+      <c r="B47" s="68">
         <v>71117224</v>
       </c>
-      <c r="C47" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="75" t="s">
+      <c r="C47" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="K47" s="42" t="s">
-        <v>124</v>
+      <c r="G47" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="M47" s="62"/>
-      <c r="N47" s="64"/>
+        <v>388</v>
+      </c>
+      <c r="M47" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N47" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="19"/>
+      <c r="Q47" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -6924,49 +7457,55 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A48" s="75">
+    <row r="48" spans="1:26" s="6" customFormat="1" ht="60">
+      <c r="A48" s="68">
         <v>45</v>
       </c>
-      <c r="B48" s="75">
+      <c r="B48" s="68">
         <v>71117225</v>
       </c>
-      <c r="C48" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48" s="75" t="s">
+      <c r="C48" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="K48" s="41" t="s">
-        <v>136</v>
+      <c r="E48" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="M48" s="62"/>
-      <c r="N48" s="64"/>
+        <v>420</v>
+      </c>
+      <c r="M48" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="N48" s="81" t="s">
+        <v>484</v>
+      </c>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="72"/>
+      <c r="Q48" s="89">
+        <v>98.37</v>
+      </c>
+      <c r="R48" s="66"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -6977,47 +7516,51 @@
       <c r="Z48" s="13"/>
     </row>
     <row r="49" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A49" s="75">
+      <c r="A49" s="68">
         <v>46</v>
       </c>
-      <c r="B49" s="75">
+      <c r="B49" s="68">
         <v>71117226</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="75" t="s">
+      <c r="C49" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J49" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="K49" s="42" t="s">
-        <v>116</v>
+      <c r="E49" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="M49" s="33"/>
-      <c r="N49" s="59"/>
+        <v>389</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="57" t="s">
+        <v>485</v>
+      </c>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="19"/>
+      <c r="Q49" s="89"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -7029,47 +7572,53 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A50" s="75">
+      <c r="A50" s="68">
         <v>47</v>
       </c>
-      <c r="B50" s="75">
+      <c r="B50" s="68">
         <v>71117227</v>
       </c>
-      <c r="C50" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="75" t="s">
+      <c r="C50" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J50" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="K50" s="42" t="s">
-        <v>116</v>
+      <c r="E50" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="M50" s="62"/>
-      <c r="N50" s="64"/>
+        <v>390</v>
+      </c>
+      <c r="M50" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N50" s="57" t="s">
+        <v>477</v>
+      </c>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="19"/>
+      <c r="Q50" s="89">
+        <v>97.28</v>
+      </c>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -7081,47 +7630,53 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A51" s="75">
+      <c r="A51" s="68">
         <v>48</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="68">
         <v>71117228</v>
       </c>
-      <c r="C51" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="D51" s="75" t="s">
+      <c r="C51" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J51" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L51" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="59"/>
+      <c r="E51" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
-      <c r="Q51" s="19"/>
+      <c r="Q51" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -7133,47 +7688,53 @@
       <c r="Z51" s="13"/>
     </row>
     <row r="52" spans="1:26" s="7" customFormat="1" ht="60">
-      <c r="A52" s="75">
+      <c r="A52" s="68">
         <v>49</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="68">
         <v>71117229</v>
       </c>
-      <c r="C52" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="75" t="s">
+      <c r="C52" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="K52" s="42" t="s">
-        <v>116</v>
+      <c r="E52" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="25"/>
+        <v>392</v>
+      </c>
+      <c r="M52" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="84" t="s">
+        <v>486</v>
+      </c>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="19"/>
+      <c r="Q52" s="89">
+        <v>97.05</v>
+      </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -7185,47 +7746,53 @@
       <c r="Z52" s="13"/>
     </row>
     <row r="53" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A53" s="75">
+      <c r="A53" s="68">
         <v>50</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="68">
         <v>71117230</v>
       </c>
-      <c r="C53" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="D53" s="75" t="s">
+      <c r="C53" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J53" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="K53" s="42" t="s">
-        <v>124</v>
+      <c r="E53" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="25"/>
+        <v>393</v>
+      </c>
+      <c r="M53" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N53" s="57" t="s">
+        <v>487</v>
+      </c>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="19"/>
+      <c r="Q53" s="89">
+        <v>99.49</v>
+      </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -7237,47 +7804,53 @@
       <c r="Z53" s="13"/>
     </row>
     <row r="54" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A54" s="75">
+      <c r="A54" s="68">
         <v>51</v>
       </c>
-      <c r="B54" s="75">
+      <c r="B54" s="68">
         <v>71117231</v>
       </c>
-      <c r="C54" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="75" t="s">
+      <c r="C54" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>124</v>
+      <c r="E54" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="25"/>
+        <v>394</v>
+      </c>
+      <c r="M54" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="81" t="s">
+        <v>479</v>
+      </c>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="19"/>
+      <c r="Q54" s="89">
+        <v>96.53</v>
+      </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -7288,32 +7861,32 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
     </row>
-    <row r="55" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A55" s="75">
+    <row r="55" spans="1:26" s="6" customFormat="1" ht="17">
+      <c r="A55" s="68">
         <v>52</v>
       </c>
-      <c r="B55" s="75">
+      <c r="B55" s="68">
         <v>71117233</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="42"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="40"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="64"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="81"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="19"/>
+      <c r="Q55" s="89"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -7324,48 +7897,54 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A56" s="75">
+    <row r="56" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A56" s="68">
         <v>53</v>
       </c>
-      <c r="B56" s="75">
+      <c r="B56" s="68">
         <v>71117234</v>
       </c>
-      <c r="C56" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="75" t="s">
+      <c r="C56" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J56" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>116</v>
+      <c r="E56" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="25"/>
+        <v>395</v>
+      </c>
+      <c r="M56" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N56" s="84" t="s">
+        <v>447</v>
+      </c>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="19"/>
+      <c r="Q56" s="89">
+        <v>89.03</v>
+      </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -7377,47 +7956,53 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A57" s="75">
+      <c r="A57" s="68">
         <v>54</v>
       </c>
-      <c r="B57" s="75">
+      <c r="B57" s="68">
         <v>71117235</v>
       </c>
-      <c r="C57" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="75" t="s">
+      <c r="C57" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="78" t="s">
-        <v>116</v>
+      <c r="E57" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J57" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K57" s="33" t="s">
-        <v>116</v>
+        <v>175</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="25"/>
+        <v>396</v>
+      </c>
+      <c r="M57" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="84" t="s">
+        <v>448</v>
+      </c>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="19"/>
+      <c r="Q57" s="89">
+        <v>98.37</v>
+      </c>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -7429,47 +8014,53 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A58" s="75">
+      <c r="A58" s="68">
         <v>55</v>
       </c>
-      <c r="B58" s="75">
+      <c r="B58" s="68">
         <v>71117436</v>
       </c>
-      <c r="C58" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="75" t="s">
+      <c r="C58" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>199</v>
+      <c r="E58" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="K58" s="33" t="s">
-        <v>124</v>
+        <v>176</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="25"/>
+        <v>397</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N58" s="84" t="s">
+        <v>449</v>
+      </c>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="19"/>
+      <c r="Q58" s="89">
+        <v>78.260000000000005</v>
+      </c>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -7481,47 +8072,53 @@
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A59" s="75">
+      <c r="A59" s="68">
         <v>56</v>
       </c>
-      <c r="B59" s="75">
+      <c r="B59" s="68">
         <v>71118123</v>
       </c>
-      <c r="C59" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="D59" s="75" t="s">
+      <c r="C59" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>124</v>
+      <c r="E59" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="K59" s="33" t="s">
-        <v>116</v>
+        <v>177</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="M59" s="62"/>
-      <c r="N59" s="64"/>
+        <v>398</v>
+      </c>
+      <c r="M59" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N59" s="81" t="s">
+        <v>450</v>
+      </c>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="19"/>
+      <c r="Q59" s="89">
+        <v>99.49</v>
+      </c>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -7532,32 +8129,32 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
-    <row r="60" spans="1:26" s="6" customFormat="1" ht="16">
-      <c r="A60" s="75">
+    <row r="60" spans="1:26" s="6" customFormat="1" ht="17">
+      <c r="A60" s="68">
         <v>57</v>
       </c>
-      <c r="B60" s="75">
+      <c r="B60" s="68">
         <v>71118325</v>
       </c>
-      <c r="C60" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="75" t="s">
+      <c r="C60" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="33"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="33"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="31"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="25"/>
+      <c r="N60" s="84"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="19"/>
+      <c r="Q60" s="89"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -7568,48 +8165,54 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A61" s="75">
+    <row r="61" spans="1:26" s="6" customFormat="1" ht="105">
+      <c r="A61" s="68">
         <v>58</v>
       </c>
-      <c r="B61" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="75" t="s">
+      <c r="B61" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>116</v>
+      <c r="E61" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="I61" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J61" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K61" s="33" t="s">
-        <v>116</v>
+        <v>178</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="M61" s="62"/>
-      <c r="N61" s="64"/>
+        <v>399</v>
+      </c>
+      <c r="M61" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N61" s="81" t="s">
+        <v>451</v>
+      </c>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="19"/>
+      <c r="Q61" s="89">
+        <v>93.33</v>
+      </c>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -7621,47 +8224,53 @@
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A62" s="75">
+      <c r="A62" s="68">
         <v>59</v>
       </c>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="33" t="s">
-        <v>116</v>
+      <c r="E62" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="I62" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="J62" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="K62" s="33" t="s">
-        <v>124</v>
+        <v>179</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="25"/>
+        <v>400</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N62" s="84" t="s">
+        <v>452</v>
+      </c>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="19"/>
+      <c r="Q62" s="89">
+        <v>98.4</v>
+      </c>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -7673,47 +8282,53 @@
       <c r="Z62" s="13"/>
     </row>
     <row r="63" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A63" s="75">
+      <c r="A63" s="68">
         <v>60</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="K63" s="33" t="s">
-        <v>124</v>
+      <c r="E63" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="25"/>
+        <v>401</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N63" s="84" t="s">
+        <v>453</v>
+      </c>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="19"/>
+      <c r="Q63" s="89">
+        <v>98.88</v>
+      </c>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -7725,47 +8340,53 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A64" s="75">
+      <c r="A64" s="68">
         <v>61</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J64" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="K64" s="33" t="s">
-        <v>124</v>
+      <c r="E64" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="25"/>
+        <v>402</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N64" s="84" t="s">
+        <v>454</v>
+      </c>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="19"/>
+      <c r="Q64" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -7777,47 +8398,53 @@
       <c r="Z64" s="13"/>
     </row>
     <row r="65" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A65" s="75">
+      <c r="A65" s="68">
         <v>62</v>
       </c>
-      <c r="B65" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="D65" s="75" t="s">
+      <c r="B65" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="33" t="s">
-        <v>116</v>
+      <c r="E65" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="81" t="s">
-        <v>253</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J65" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>136</v>
+        <v>182</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="M65" s="20"/>
-      <c r="N65" s="25"/>
+        <v>403</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" s="84" t="s">
+        <v>455</v>
+      </c>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="19"/>
+      <c r="Q65" s="89">
+        <v>94.39</v>
+      </c>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -7829,47 +8456,53 @@
       <c r="Z65" s="13"/>
     </row>
     <row r="66" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A66" s="75">
+      <c r="A66" s="68">
         <v>63</v>
       </c>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="33" t="s">
-        <v>199</v>
+      <c r="E66" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H66" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="K66" s="33" t="s">
-        <v>135</v>
+        <v>183</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="M66" s="20"/>
-      <c r="N66" s="25"/>
+        <v>404</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N66" s="84" t="s">
+        <v>456</v>
+      </c>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
-      <c r="Q66" s="19"/>
+      <c r="Q66" s="89">
+        <v>95.84</v>
+      </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -7881,47 +8514,53 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A67" s="75">
+      <c r="A67" s="68">
         <v>64</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>146</v>
+      <c r="E67" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="K67" s="33" t="s">
-        <v>146</v>
+        <v>184</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J67" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="M67" s="20"/>
-      <c r="N67" s="25"/>
+        <v>405</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N67" s="84" t="s">
+        <v>457</v>
+      </c>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="19"/>
+      <c r="Q67" s="89">
+        <v>98.51</v>
+      </c>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -7933,47 +8572,53 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A68" s="75">
+      <c r="A68" s="68">
         <v>65</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H68" s="81" t="s">
-        <v>256</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J68" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K68" s="33" t="s">
-        <v>116</v>
+      <c r="G68" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J68" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="M68" s="20"/>
-      <c r="N68" s="25"/>
+        <v>406</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N68" s="84" t="s">
+        <v>458</v>
+      </c>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
-      <c r="Q68" s="19"/>
+      <c r="Q68" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -7985,47 +8630,53 @@
       <c r="Z68" s="13"/>
     </row>
     <row r="69" spans="1:26" s="6" customFormat="1" ht="90">
-      <c r="A69" s="75">
+      <c r="A69" s="68">
         <v>66</v>
       </c>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J69" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="K69" s="33" t="s">
-        <v>146</v>
+      <c r="E69" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J69" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="25"/>
+        <v>407</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N69" s="84" t="s">
+        <v>459</v>
+      </c>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
-      <c r="Q69" s="19"/>
+      <c r="Q69" s="89">
+        <v>84.08</v>
+      </c>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
@@ -8037,47 +8688,53 @@
       <c r="Z69" s="13"/>
     </row>
     <row r="70" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A70" s="75">
+      <c r="A70" s="68">
         <v>67</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="75" t="s">
+      <c r="D70" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J70" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>116</v>
+      <c r="E70" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J70" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="M70" s="20"/>
-      <c r="N70" s="25"/>
+        <v>408</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N70" s="84" t="s">
+        <v>460</v>
+      </c>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
-      <c r="Q70" s="19"/>
+      <c r="Q70" s="89">
+        <v>94.16</v>
+      </c>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -8089,47 +8746,53 @@
       <c r="Z70" s="13"/>
     </row>
     <row r="71" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A71" s="75">
+      <c r="A71" s="68">
         <v>68</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="75" t="s">
+      <c r="D71" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H71" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J71" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K71" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L71" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="52"/>
+      <c r="E71" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N71" s="50" t="s">
+        <v>461</v>
+      </c>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="19"/>
+      <c r="Q71" s="89">
+        <v>98.99</v>
+      </c>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
@@ -8141,47 +8804,53 @@
       <c r="Z71" s="13"/>
     </row>
     <row r="72" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A72" s="75">
+      <c r="A72" s="68">
         <v>69</v>
       </c>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="33" t="s">
-        <v>116</v>
+      <c r="E72" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="I72" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J72" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K72" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L72" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="M72" s="20"/>
-      <c r="N72" s="52"/>
+        <v>188</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J72" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L72" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="50" t="s">
+        <v>462</v>
+      </c>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
-      <c r="Q72" s="19"/>
+      <c r="Q72" s="89">
+        <v>95.73</v>
+      </c>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -8192,48 +8861,54 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
     </row>
-    <row r="73" spans="1:26" s="6" customFormat="1" ht="45">
-      <c r="A73" s="75">
+    <row r="73" spans="1:26" s="6" customFormat="1" ht="105">
+      <c r="A73" s="68">
         <v>70</v>
       </c>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>116</v>
+      <c r="E73" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J73" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K73" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L73" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="52"/>
+        <v>189</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J73" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L73" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N73" s="50" t="s">
+        <v>463</v>
+      </c>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
-      <c r="Q73" s="19"/>
+      <c r="Q73" s="89">
+        <v>85</v>
+      </c>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -8245,47 +8920,53 @@
       <c r="Z73" s="13"/>
     </row>
     <row r="74" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A74" s="75">
+      <c r="A74" s="68">
         <v>71</v>
       </c>
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="33" t="s">
-        <v>116</v>
+      <c r="E74" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G74" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="I74" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J74" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K74" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L74" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="52"/>
+        <v>190</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I74" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J74" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L74" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="M74" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="N74" s="50" t="s">
+        <v>464</v>
+      </c>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
-      <c r="Q74" s="19"/>
+      <c r="Q74" s="89">
+        <v>97.39</v>
+      </c>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -8296,48 +8977,54 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
     </row>
-    <row r="75" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A75" s="75">
+    <row r="75" spans="1:26" s="6" customFormat="1" ht="75">
+      <c r="A75" s="68">
         <v>72</v>
       </c>
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="75" t="s">
+      <c r="D75" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="33" t="s">
-        <v>116</v>
+      <c r="E75" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G75" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J75" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K75" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="L75" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="52"/>
+        <v>191</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J75" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N75" s="50" t="s">
+        <v>465</v>
+      </c>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="Q75" s="19"/>
+      <c r="Q75" s="89">
+        <v>96.44</v>
+      </c>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
@@ -8349,47 +9036,53 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A76" s="75">
+      <c r="A76" s="68">
         <v>73</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>116</v>
+      <c r="E76" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H76" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J76" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K76" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L76" s="52" t="s">
-        <v>415</v>
-      </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="52"/>
+        <v>192</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L76" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" s="50" t="s">
+        <v>466</v>
+      </c>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
-      <c r="Q76" s="19"/>
+      <c r="Q76" s="89">
+        <v>97.14</v>
+      </c>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -8401,47 +9094,53 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A77" s="75">
+      <c r="A77" s="68">
         <v>74</v>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="75" t="s">
+      <c r="D77" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>116</v>
+      <c r="E77" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G77" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K77" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L77" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="52"/>
+        <v>193</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J77" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="N77" s="50" t="s">
+        <v>467</v>
+      </c>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="19"/>
+      <c r="Q77" s="89">
+        <v>98.99</v>
+      </c>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
@@ -8453,47 +9152,53 @@
       <c r="Z77" s="13"/>
     </row>
     <row r="78" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A78" s="75">
+      <c r="A78" s="68">
         <v>75</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="75" t="s">
+      <c r="D78" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="I78" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J78" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="K78" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L78" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="M78" s="20"/>
-      <c r="N78" s="41"/>
+      <c r="E78" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N78" s="86" t="s">
+        <v>468</v>
+      </c>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="19"/>
+      <c r="Q78" s="89">
+        <v>79.58</v>
+      </c>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -8505,47 +9210,53 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="1:26" s="6" customFormat="1" ht="60">
-      <c r="A79" s="75">
+      <c r="A79" s="68">
         <v>76</v>
       </c>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="75" t="s">
+      <c r="D79" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H79" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="I79" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K79" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L79" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="41"/>
+      <c r="E79" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J79" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N79" s="87" t="s">
+        <v>469</v>
+      </c>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="19"/>
+      <c r="Q79" s="89">
+        <v>97.87</v>
+      </c>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -8557,47 +9268,51 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" s="6" customFormat="1" ht="75">
-      <c r="A80" s="75">
+      <c r="A80" s="68">
         <v>77</v>
       </c>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J80" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C80" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G80" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H80" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="I80" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="K80" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L80" s="52" t="s">
-        <v>419</v>
-      </c>
-      <c r="M80" s="20"/>
-      <c r="N80" s="52"/>
+      <c r="K80" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L80" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N80" s="50" t="s">
+        <v>470</v>
+      </c>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
-      <c r="Q80" s="19"/>
+      <c r="Q80" s="89"/>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
@@ -8608,48 +9323,54 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:26" s="6" customFormat="1" ht="91" thickBot="1">
-      <c r="A81" s="75">
+    <row r="81" spans="1:26" s="6" customFormat="1" ht="106" thickBot="1">
+      <c r="A81" s="68">
         <v>78</v>
       </c>
-      <c r="B81" s="75" t="s">
+      <c r="B81" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J81" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K81" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L81" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="M81" s="20"/>
-      <c r="N81" s="41"/>
+      <c r="E81" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J81" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81" s="86" t="s">
+        <v>471</v>
+      </c>
       <c r="O81" s="20"/>
       <c r="P81" s="20"/>
-      <c r="Q81" s="19"/>
+      <c r="Q81" s="89">
+        <v>88.84</v>
+      </c>
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
@@ -8662,19 +9383,19 @@
     </row>
     <row r="82" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="33"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="58"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="56"/>
       <c r="K82" s="20"/>
-      <c r="L82" s="52"/>
+      <c r="L82" s="50"/>
       <c r="M82" s="20"/>
-      <c r="N82" s="52"/>
+      <c r="N82" s="50"/>
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
       <c r="Q82" s="19"/>
@@ -8690,19 +9411,19 @@
     </row>
     <row r="83" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="33"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="46"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="20"/>
-      <c r="L83" s="52"/>
+      <c r="L83" s="50"/>
       <c r="M83" s="20"/>
-      <c r="N83" s="52"/>
+      <c r="N83" s="50"/>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
       <c r="Q83" s="19"/>
@@ -8718,19 +9439,19 @@
     </row>
     <row r="84" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="33"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="46"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="20"/>
-      <c r="L84" s="52"/>
+      <c r="L84" s="50"/>
       <c r="M84" s="20"/>
-      <c r="N84" s="52"/>
+      <c r="N84" s="50"/>
       <c r="O84" s="20"/>
       <c r="P84" s="20"/>
       <c r="Q84" s="19"/>
@@ -8746,19 +9467,19 @@
     </row>
     <row r="85" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="33"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="46"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="44"/>
       <c r="K85" s="20"/>
-      <c r="L85" s="52"/>
+      <c r="L85" s="50"/>
       <c r="M85" s="20"/>
-      <c r="N85" s="52"/>
+      <c r="N85" s="50"/>
       <c r="O85" s="20"/>
       <c r="P85" s="20"/>
       <c r="Q85" s="19"/>
@@ -8774,19 +9495,19 @@
     </row>
     <row r="86" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="33"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="46"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="20"/>
-      <c r="L86" s="52"/>
+      <c r="L86" s="50"/>
       <c r="M86" s="20"/>
-      <c r="N86" s="52"/>
+      <c r="N86" s="50"/>
       <c r="O86" s="20"/>
       <c r="P86" s="20"/>
       <c r="Q86" s="19"/>
@@ -8802,19 +9523,19 @@
     </row>
     <row r="87" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="33"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="46"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="44"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="52"/>
+      <c r="L87" s="50"/>
       <c r="M87" s="20"/>
-      <c r="N87" s="52"/>
+      <c r="N87" s="50"/>
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="19"/>
@@ -8830,19 +9551,19 @@
     </row>
     <row r="88" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="33"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="46"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="44"/>
       <c r="K88" s="20"/>
-      <c r="L88" s="52"/>
+      <c r="L88" s="50"/>
       <c r="M88" s="20"/>
-      <c r="N88" s="52"/>
+      <c r="N88" s="50"/>
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="19"/>
@@ -8861,7 +9582,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="33"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="21"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -8889,7 +9610,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="34"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="9"/>
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
@@ -8913,30 +9634,32 @@
       <c r="Z90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="76" customHeight="1" thickBot="1">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="99"/>
-      <c r="G91" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="H91" s="99"/>
-      <c r="I91" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="J91" s="99"/>
-      <c r="K91" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="L91" s="114"/>
-      <c r="M91" s="111"/>
-      <c r="N91" s="112"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F91" s="104"/>
+      <c r="G91" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="H91" s="104"/>
+      <c r="I91" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="J91" s="104"/>
+      <c r="K91" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="L91" s="116"/>
+      <c r="M91" s="115" t="s">
+        <v>488</v>
+      </c>
+      <c r="N91" s="116"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -8951,34 +9674,38 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="87" t="s">
+      <c r="A92" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="105" t="s">
+      <c r="B92" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="106"/>
-      <c r="D92" s="106"/>
-      <c r="E92" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="104"/>
-      <c r="G92" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="H92" s="102"/>
-      <c r="I92" s="102" t="s">
-        <v>346</v>
-      </c>
-      <c r="J92" s="102"/>
-      <c r="K92" s="102" t="s">
-        <v>350</v>
-      </c>
-      <c r="L92" s="102"/>
-      <c r="M92" s="101"/>
-      <c r="N92" s="101"/>
-      <c r="O92" s="100"/>
-      <c r="P92" s="100"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="L92" s="105"/>
+      <c r="M92" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="N92" s="106"/>
+      <c r="O92" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="P92" s="105"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -8991,22 +9718,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="103"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="104"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="102"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="101"/>
-      <c r="N93" s="101"/>
-      <c r="O93" s="100"/>
-      <c r="P93" s="100"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="106"/>
+      <c r="N93" s="106"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="105"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -9019,22 +9746,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="88"/>
-      <c r="B94" s="109"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="104"/>
-      <c r="F94" s="104"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="102"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102"/>
-      <c r="M94" s="101"/>
-      <c r="N94" s="101"/>
-      <c r="O94" s="100"/>
-      <c r="P94" s="100"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
+      <c r="M94" s="106"/>
+      <c r="N94" s="106"/>
+      <c r="O94" s="105"/>
+      <c r="P94" s="105"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -9046,28 +9773,33 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="94" customFormat="1">
-      <c r="A96" s="94" t="s">
+    <row r="96" spans="1:26" s="99" customFormat="1">
+      <c r="A96" s="99" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="94" customFormat="1">
-      <c r="A97" s="94" t="s">
+    <row r="97" spans="1:9" s="99" customFormat="1">
+      <c r="A97" s="99" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/19-20汪鹏老师班-平时成绩单.xlsx
+++ b/19-20汪鹏老师班-平时成绩单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812863D-20F0-ED4F-BAB6-68011AE2925A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B406C049-A8DD-EF4F-A952-C981F72D97E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3850,30 +3850,6 @@
     </xf>
     <xf numFmtId="176" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3896,9 +3872,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3924,6 +3906,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4788,8 +4788,8 @@
   </sheetPr>
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91:N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4814,68 +4814,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="95" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="95" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="95" t="s">
+      <c r="L2" s="116"/>
+      <c r="M2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="98"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
@@ -4912,10 +4912,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -9312,7 +9312,9 @@
       </c>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
-      <c r="Q80" s="89"/>
+      <c r="Q80" s="89">
+        <v>84.08</v>
+      </c>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
@@ -9634,32 +9636,32 @@
       <c r="Z90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="76" customHeight="1" thickBot="1">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="103" t="s">
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="104"/>
-      <c r="G91" s="103" t="s">
+      <c r="F91" s="96"/>
+      <c r="G91" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="H91" s="104"/>
-      <c r="I91" s="103" t="s">
+      <c r="H91" s="96"/>
+      <c r="I91" s="95" t="s">
         <v>344</v>
       </c>
-      <c r="J91" s="104"/>
-      <c r="K91" s="115" t="s">
+      <c r="J91" s="96"/>
+      <c r="K91" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="L91" s="116"/>
-      <c r="M91" s="115" t="s">
+      <c r="L91" s="110"/>
+      <c r="M91" s="109" t="s">
         <v>488</v>
       </c>
-      <c r="N91" s="116"/>
+      <c r="N91" s="110"/>
       <c r="O91" s="16"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="18"/>
@@ -9674,38 +9676,38 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="109" t="s">
+      <c r="B92" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="110"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="108" t="s">
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="108"/>
-      <c r="G92" s="105" t="s">
+      <c r="F92" s="102"/>
+      <c r="G92" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="H92" s="105"/>
-      <c r="I92" s="105" t="s">
+      <c r="H92" s="97"/>
+      <c r="I92" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="J92" s="105"/>
-      <c r="K92" s="105" t="s">
+      <c r="J92" s="97"/>
+      <c r="K92" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="L92" s="105"/>
-      <c r="M92" s="106" t="s">
+      <c r="L92" s="97"/>
+      <c r="M92" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="N92" s="106"/>
-      <c r="O92" s="105" t="s">
+      <c r="N92" s="98"/>
+      <c r="O92" s="97" t="s">
         <v>473</v>
       </c>
-      <c r="P92" s="105"/>
+      <c r="P92" s="97"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
@@ -9718,22 +9720,22 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="107"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="106"/>
-      <c r="N93" s="106"/>
-      <c r="O93" s="105"/>
-      <c r="P93" s="105"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="97"/>
+      <c r="J93" s="97"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="98"/>
+      <c r="N93" s="98"/>
+      <c r="O93" s="97"/>
+      <c r="P93" s="97"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -9746,22 +9748,22 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94" spans="1:26" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="93"/>
-      <c r="B94" s="113"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="108"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="105"/>
-      <c r="I94" s="105"/>
-      <c r="J94" s="105"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="105"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="106"/>
-      <c r="O94" s="105"/>
-      <c r="P94" s="105"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="97"/>
+      <c r="I94" s="97"/>
+      <c r="J94" s="97"/>
+      <c r="K94" s="97"/>
+      <c r="L94" s="97"/>
+      <c r="M94" s="98"/>
+      <c r="N94" s="98"/>
+      <c r="O94" s="97"/>
+      <c r="P94" s="97"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
@@ -9773,13 +9775,13 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="96" spans="1:26" s="99" customFormat="1">
-      <c r="A96" s="99" t="s">
+    <row r="96" spans="1:26" s="91" customFormat="1">
+      <c r="A96" s="91" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="99" customFormat="1">
-      <c r="A97" s="99" t="s">
+    <row r="97" spans="1:9" s="91" customFormat="1">
+      <c r="A97" s="91" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9803,6 +9805,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A96:XFD96"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="A91:D91"/>
@@ -9819,16 +9831,6 @@
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="I91:J91"/>
     <mergeCell ref="K91:L91"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
